--- a/src/main/resources/doc/데이터베이스.xlsx
+++ b/src/main/resources/doc/데이터베이스.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\daelim\workspace\xedmtestautomation\inzent_test_module\src\main\resources\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zipdr\git\jpa_study\src\main\resources\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{583F38A1-D718-4A03-A1F4-6AE3747B399D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE92ADF6-DEF1-4FC4-A8E4-E34C597213CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{827260FD-DB1D-447A-92EE-ED522EFD3BED}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{827260FD-DB1D-447A-92EE-ED522EFD3BED}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2101" uniqueCount="734">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2881" uniqueCount="1096">
   <si>
     <t>사용자(APP)</t>
   </si>
@@ -2283,6 +2283,1097 @@
       <t>참조</t>
     </r>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>actionUrl</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>케이스001 URL</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>케이스002 URL</t>
+  </si>
+  <si>
+    <t>케이스003 URL</t>
+  </si>
+  <si>
+    <t>케이스004 URL</t>
+  </si>
+  <si>
+    <t>케이스005 URL</t>
+  </si>
+  <si>
+    <t>케이스006 URL</t>
+  </si>
+  <si>
+    <t>케이스007 URL</t>
+  </si>
+  <si>
+    <t>케이스008 URL</t>
+  </si>
+  <si>
+    <t>케이스009 URL</t>
+  </si>
+  <si>
+    <t>케이스010 URL</t>
+  </si>
+  <si>
+    <t>케이스011 URL</t>
+  </si>
+  <si>
+    <t>케이스012 URL</t>
+  </si>
+  <si>
+    <t>케이스013 URL</t>
+  </si>
+  <si>
+    <t>케이스014 URL</t>
+  </si>
+  <si>
+    <t>케이스015 URL</t>
+  </si>
+  <si>
+    <t>케이스016 URL</t>
+  </si>
+  <si>
+    <t>케이스017 URL</t>
+  </si>
+  <si>
+    <t>케이스018 URL</t>
+  </si>
+  <si>
+    <t>케이스019 URL</t>
+  </si>
+  <si>
+    <t>케이스020 URL</t>
+  </si>
+  <si>
+    <t>케이스021 URL</t>
+  </si>
+  <si>
+    <t>케이스022 URL</t>
+  </si>
+  <si>
+    <t>케이스023 URL</t>
+  </si>
+  <si>
+    <t>케이스024 URL</t>
+  </si>
+  <si>
+    <t>케이스025 URL</t>
+  </si>
+  <si>
+    <t>케이스026 URL</t>
+  </si>
+  <si>
+    <t>케이스027 URL</t>
+  </si>
+  <si>
+    <t>케이스028 URL</t>
+  </si>
+  <si>
+    <t>케이스029 URL</t>
+  </si>
+  <si>
+    <t>케이스030 URL</t>
+  </si>
+  <si>
+    <t>케이스031 URL</t>
+  </si>
+  <si>
+    <t>케이스032 URL</t>
+  </si>
+  <si>
+    <t>케이스033 URL</t>
+  </si>
+  <si>
+    <t>케이스034 URL</t>
+  </si>
+  <si>
+    <t>케이스035 URL</t>
+  </si>
+  <si>
+    <t>케이스036 URL</t>
+  </si>
+  <si>
+    <t>케이스037 URL</t>
+  </si>
+  <si>
+    <t>케이스038 URL</t>
+  </si>
+  <si>
+    <t>케이스039 URL</t>
+  </si>
+  <si>
+    <t>케이스040 URL</t>
+  </si>
+  <si>
+    <t>케이스041 URL</t>
+  </si>
+  <si>
+    <t>케이스042 URL</t>
+  </si>
+  <si>
+    <t>케이스043 URL</t>
+  </si>
+  <si>
+    <t>케이스044 URL</t>
+  </si>
+  <si>
+    <t>케이스045 URL</t>
+  </si>
+  <si>
+    <t>케이스046 URL</t>
+  </si>
+  <si>
+    <t>케이스047 URL</t>
+  </si>
+  <si>
+    <t>케이스048 URL</t>
+  </si>
+  <si>
+    <t>케이스049 URL</t>
+  </si>
+  <si>
+    <t>케이스050 URL</t>
+  </si>
+  <si>
+    <t>케이스051 URL</t>
+  </si>
+  <si>
+    <t>케이스052 URL</t>
+  </si>
+  <si>
+    <t>케이스053 URL</t>
+  </si>
+  <si>
+    <t>케이스054 URL</t>
+  </si>
+  <si>
+    <t>케이스055 URL</t>
+  </si>
+  <si>
+    <t>케이스056 URL</t>
+  </si>
+  <si>
+    <t>케이스057 URL</t>
+  </si>
+  <si>
+    <t>케이스058 URL</t>
+  </si>
+  <si>
+    <t>케이스059 URL</t>
+  </si>
+  <si>
+    <t>케이스060 URL</t>
+  </si>
+  <si>
+    <t>케이스061 URL</t>
+  </si>
+  <si>
+    <t>케이스062 URL</t>
+  </si>
+  <si>
+    <t>케이스063 URL</t>
+  </si>
+  <si>
+    <t>케이스064 URL</t>
+  </si>
+  <si>
+    <t>케이스065 URL</t>
+  </si>
+  <si>
+    <t>케이스066 URL</t>
+  </si>
+  <si>
+    <t>케이스067 URL</t>
+  </si>
+  <si>
+    <t>케이스068 URL</t>
+  </si>
+  <si>
+    <t>케이스069 URL</t>
+  </si>
+  <si>
+    <t>케이스070 URL</t>
+  </si>
+  <si>
+    <t>케이스071 URL</t>
+  </si>
+  <si>
+    <t>케이스072 URL</t>
+  </si>
+  <si>
+    <t>케이스073 URL</t>
+  </si>
+  <si>
+    <t>케이스074 URL</t>
+  </si>
+  <si>
+    <t>케이스075 URL</t>
+  </si>
+  <si>
+    <t>케이스076 URL</t>
+  </si>
+  <si>
+    <t>케이스077 URL</t>
+  </si>
+  <si>
+    <t>케이스078 URL</t>
+  </si>
+  <si>
+    <t>케이스079 URL</t>
+  </si>
+  <si>
+    <t>케이스080 URL</t>
+  </si>
+  <si>
+    <t>케이스081 URL</t>
+  </si>
+  <si>
+    <t>케이스082 URL</t>
+  </si>
+  <si>
+    <t>케이스083 URL</t>
+  </si>
+  <si>
+    <t>케이스084 URL</t>
+  </si>
+  <si>
+    <t>케이스085 URL</t>
+  </si>
+  <si>
+    <t>케이스086 URL</t>
+  </si>
+  <si>
+    <t>케이스087 URL</t>
+  </si>
+  <si>
+    <t>케이스088 URL</t>
+  </si>
+  <si>
+    <t>케이스089 URL</t>
+  </si>
+  <si>
+    <t>케이스090 URL</t>
+  </si>
+  <si>
+    <t>/selenium/4/default/case001/start.do</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>/selenium/4/default/case002/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/4/default/case003/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/4/default/case004/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/4/default/case005/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/4/default/case006/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/4/default/case007/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/4/default/case008/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/4/default/case009/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/4/default/case010/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/4/default/case011/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/4/default/case012/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/4/default/case013/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/4/default/case014/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/4/default/case015/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/4/default/case016/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/4/default/case017/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/4/default/case018/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/4/default/case019/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/4/default/case020/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/4/default/case021/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/4/default/case022/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/4/default/case023/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/4/default/case024/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/4/default/case025/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/4/default/case026/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/4/default/case027/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/4/default/case028/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/4/default/case029/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/4/default/case030/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/4/default/case031/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/4/default/case032/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/4/default/case033/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/4/default/case034/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/4/default/case035/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/4/default/case036/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/4/default/case037/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/4/default/case038/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/4/default/case039/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/4/default/case040/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/4/default/case041/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/4/default/case042/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/4/default/case043/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/4/default/case044/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/4/default/case045/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/4/default/case046/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/4/default/case047/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/4/default/case048/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/4/default/case049/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/4/default/case050/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/4/default/case051/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/4/default/case052/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/4/default/case053/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/4/default/case054/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/4/default/case055/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/4/default/case056/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/4/default/case057/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/4/default/case058/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/4/default/case059/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/4/default/case060/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/4/default/case061/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/4/default/case062/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/4/default/case063/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/4/default/case064/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/4/default/case065/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/4/default/case066/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/4/default/case067/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/4/default/case068/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/4/default/case069/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/4/default/case070/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/4/default/case071/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/4/default/case072/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/4/default/case073/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/4/default/case074/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/4/default/case075/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/4/default/case076/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/4/default/case077/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/4/default/case078/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/4/default/case079/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/4/default/case080/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/4/default/case081/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/4/default/case082/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/4/default/case083/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/4/default/case084/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/4/default/case085/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/4/default/case086/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/4/default/case087/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/4/default/case088/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/4/default/case089/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/4/default/case090/start.do</t>
+  </si>
+  <si>
+    <t>케이스091 URL</t>
+  </si>
+  <si>
+    <t>케이스092 URL</t>
+  </si>
+  <si>
+    <t>케이스093 URL</t>
+  </si>
+  <si>
+    <t>케이스094 URL</t>
+  </si>
+  <si>
+    <t>케이스095 URL</t>
+  </si>
+  <si>
+    <t>케이스096 URL</t>
+  </si>
+  <si>
+    <t>케이스097 URL</t>
+  </si>
+  <si>
+    <t>케이스098 URL</t>
+  </si>
+  <si>
+    <t>케이스099 URL</t>
+  </si>
+  <si>
+    <t>케이스100 URL</t>
+  </si>
+  <si>
+    <t>케이스101 URL</t>
+  </si>
+  <si>
+    <t>/selenium/6/default/bcase001/start.do</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>/selenium/6/default/bcase002/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/6/default/bcase003/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/6/default/bcase004/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/6/default/bcase005/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/6/default/bcase006/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/6/default/bcase007/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/6/default/bcase008/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/6/default/bcase009/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/6/default/bcase010/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/6/default/bcase011/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/6/default/bcase012/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/6/default/bcase013/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/6/default/bcase014/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/6/default/bcase015/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/6/default/bcase016/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/6/default/bcase017/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/6/default/bcase018/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/6/default/bcase019/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/6/default/bcase020/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/6/default/bcase021/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/6/default/bcase022/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/6/default/bcase023/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/6/default/bcase024/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/6/default/bcase025/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/6/default/bcase026/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/6/default/bcase027/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/6/default/bcase028/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/6/default/bcase029/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/6/default/bcase030/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/6/default/bcase031/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/6/default/bcase032/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/6/default/bcase033/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/6/default/bcase034/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/6/default/bcase035/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/6/default/bcase036/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/6/default/bcase037/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/6/default/bcase038/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/6/default/bcase039/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/6/default/bcase040/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/6/default/bcase041/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/6/default/bcase042/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/6/default/bcase043/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/6/default/bcase044/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/6/default/bcase045/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/6/default/bcase046/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/6/default/bcase047/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/6/default/bcase048/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/6/default/bcase049/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/6/default/bcase050/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/6/default/bcase051/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/6/default/bcase052/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/6/default/bcase053/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/6/default/bcase054/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/6/default/bcase055/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/6/default/bcase056/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/6/default/bcase057/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/6/default/bcase058/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/6/default/bcase059/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/6/default/bcase060/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/6/default/bcase061/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/6/default/bcase062/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/6/default/bcase063/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/6/default/bcase064/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/6/default/bcase065/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/6/default/bcase066/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/6/default/bcase067/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/6/default/bcase068/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/6/default/bcase069/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/6/default/acase001/start.do</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>/selenium/6/default/acase002/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/6/default/acase003/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/6/default/acase004/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/6/default/acase005/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/6/default/acase006/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/6/default/acase007/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/6/default/acase008/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/6/default/acase009/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/6/default/acase010/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/6/default/acase011/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/6/default/acase012/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/6/default/acase013/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/6/default/acase014/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/6/default/acase015/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/6/default/acase016/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/6/default/acase017/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/6/default/acase018/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/6/default/acase019/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/6/default/acase020/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/6/default/acase021/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/6/default/acase022/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/6/default/acase023/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/6/default/acase024/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/6/default/acase025/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/6/default/acase026/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/6/default/acase027/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/6/default/acase028/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/6/default/acase029/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/6/default/acase030/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/6/default/acase031/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/6/default/acase032/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/6/default/acase033/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/6/default/acase034/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/6/default/acase035/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/6/default/acase036/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/6/default/acase037/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/6/default/acase038/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/6/default/acase039/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/6/default/acase040/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/6/default/acase041/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/6/default/acase042/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/6/default/acase043/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/6/default/acase044/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/6/default/acase045/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/6/default/acase046/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/6/default/acase047/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/6/default/acase048/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/6/default/acase049/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/6/default/acase050/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/6/default/acase051/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/6/default/acase052/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/6/default/acase053/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/6/default/acase054/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/6/default/acase055/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/6/default/acase056/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/6/default/acase057/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/6/default/acase058/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/6/default/acase059/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/6/default/acase060/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/6/default/acase061/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/6/default/acase062/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/6/default/acase063/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/6/default/acase064/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/6/default/acase065/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/6/default/acase066/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/6/default/acase067/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/6/default/acase068/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/6/default/acase069/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/6/default/acase070/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/6/default/acase071/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/6/default/acase072/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/6/default/acase073/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/6/default/acase074/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/6/default/acase075/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/6/default/acase076/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/6/default/acase077/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/6/default/acase078/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/6/default/acase079/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/6/default/acase080/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/6/default/acase081/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/6/default/acase082/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/6/default/acase083/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/6/default/acase084/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/6/default/acase085/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/6/default/acase086/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/6/default/acase087/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/6/default/acase088/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/6/default/acase089/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/6/default/acase090/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/6/default/acase091/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/6/default/acase092/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/6/default/acase093/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/6/default/acase094/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/6/default/acase095/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/6/default/acase096/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/6/default/acase097/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/6/default/acase098/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/6/default/acase099/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/6/default/acase100/start.do</t>
+  </si>
+  <si>
+    <t>/selenium/6/default/acase101/start.do</t>
   </si>
 </sst>
 </file>
@@ -2464,7 +3555,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2572,6 +3663,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2887,10 +3981,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A0A9751-3A41-4AAD-8EDA-20407C66C843}">
-  <dimension ref="B1:N91"/>
+  <dimension ref="B1:S91"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1:N1048576"/>
+    <sheetView topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2:S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="39.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2909,11 +4003,16 @@
     <col min="12" max="12" width="5.5" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="5.5" style="1" customWidth="1"/>
     <col min="14" max="14" width="39.625" style="17"/>
-    <col min="15" max="16384" width="39.625" style="1"/>
+    <col min="15" max="15" width="19.875" style="36" customWidth="1"/>
+    <col min="16" max="16" width="11.375" style="1" customWidth="1"/>
+    <col min="17" max="17" width="35.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17" style="1" customWidth="1"/>
+    <col min="19" max="19" width="39.625" style="36"/>
+    <col min="20" max="16384" width="39.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:14" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:19" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>643</v>
       </c>
@@ -2950,8 +4049,25 @@
         <f>CONCATENATE("('",B2,"','",C2,"','",D2,"','",E2,"','",F2,"','",G2,"','",H2,"','",I2,"','",J2,"','",K2,"','",L2,"','",M2,"'),")</f>
         <v>('TEST-A4-CASE001','사용자(APP)','홈','로그인','1. 아이디, 패스워드 입력\n2. 로그인 버튼 클릭','1. ECM WEB(APP) 접속','해당 사용자 대시보드 페이지 전환','김남','','','0','4.0'),</v>
       </c>
-    </row>
-    <row r="3" spans="2:14" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O2" s="36" t="str">
+        <f>B2</f>
+        <v>TEST-A4-CASE001</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>825</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="S2" s="36" t="str">
+        <f>CONCATENATE("('",O2,"','",P2,"','",Q2,"','",R2,"'),")</f>
+        <v>('TEST-A4-CASE001','actionUrl','/selenium/4/default/case001/start.do','케이스001 URL'),</v>
+      </c>
+    </row>
+    <row r="3" spans="2:19" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>644</v>
       </c>
@@ -2986,8 +4102,25 @@
         <f t="shared" ref="N3:N66" si="0">CONCATENATE("('",B3,"','",C3,"','",D3,"','",E3,"','",F3,"','",G3,"','",H3,"','",I3,"','",J3,"','",K3,"','",L3,"','",M3,"'),")</f>
         <v>('TEST-A4-CASE002','사용자(APP)','홈','아이디 저장','1. 아이디, 패스워드 입력\n2. 아이디 저장 클릭\n3. 로그인 버튼 클릭\n4. 대시보드 오른쪽 상단 사용자 아이콘 클릭\n5. 로그아웃 클릭','1. ECM WEB(APP) 접속','아이디 기존 입력 값 보존\n아이디 저장 체크박스 체크 유지','','','','0','4.0'),</v>
       </c>
-    </row>
-    <row r="4" spans="2:14" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O3" s="36" t="str">
+        <f t="shared" ref="O3:O66" si="1">B3</f>
+        <v>TEST-A4-CASE002</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="S3" s="36" t="str">
+        <f t="shared" ref="S3:S66" si="2">CONCATENATE("('",O3,"','",P3,"','",Q3,"','",R3,"'),")</f>
+        <v>('TEST-A4-CASE002','actionUrl','/selenium/4/default/case002/start.do','케이스002 URL'),</v>
+      </c>
+    </row>
+    <row r="4" spans="2:19" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>645</v>
       </c>
@@ -3022,8 +4155,25 @@
         <f t="shared" si="0"/>
         <v>('TEST-A4-CASE003','사용자(APP)','대시보드','위젯 선택(최근 열어본 파일)','1. 대시보드 위젯 중 `최근 열어본 파일 &gt; (6개 항목 중 1개 파일)` 더블 클릭','1. ECM WEB(APP) 접속\n2. 아이디, 패스워드 입력(testUsr001 / test)\n3. 로그인 버튼 클릭','대상 파일의 폴더 리스트 조회 및 이동 가능','','','','0','4.0'),</v>
       </c>
-    </row>
-    <row r="5" spans="2:14" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O4" s="36" t="str">
+        <f t="shared" si="1"/>
+        <v>TEST-A4-CASE003</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>827</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="S4" s="36" t="str">
+        <f t="shared" si="2"/>
+        <v>('TEST-A4-CASE003','actionUrl','/selenium/4/default/case003/start.do','케이스003 URL'),</v>
+      </c>
+    </row>
+    <row r="5" spans="2:19" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>646</v>
       </c>
@@ -3058,8 +4208,25 @@
         <f t="shared" si="0"/>
         <v>('TEST-A4-CASE004','사용자(APP)','대시보드','위젯 선택(바로가기)','1. 대시보드 위젯 중 `바로가기 &gt; (부서문서함, 내문서함, 내공유함, 공유문서함, 편집중인 문서, 카테고리, 휴지통)` 클릭','1. ECM WEB(APP) 접속\n2. 아이디, 패스워드 입력(testUsr001 / test)\n3. 로그인 버튼 클릭','대상 문서함 조회 및 이동 가능','','','','0','4.0'),</v>
       </c>
-    </row>
-    <row r="6" spans="2:14" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O5" s="36" t="str">
+        <f t="shared" si="1"/>
+        <v>TEST-A4-CASE004</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>828</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="S5" s="36" t="str">
+        <f t="shared" si="2"/>
+        <v>('TEST-A4-CASE004','actionUrl','/selenium/4/default/case004/start.do','케이스004 URL'),</v>
+      </c>
+    </row>
+    <row r="6" spans="2:19" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>647</v>
       </c>
@@ -3094,8 +4261,25 @@
         <f t="shared" si="0"/>
         <v>('TEST-A4-CASE005','사용자(APP)','대시보드','위젯 선택(추가기능 - 내 문서함 용량)','1. 대시보드 위젯 중 `추가 기능 &gt; 내 문서함 용량 &gt; UPGRADE 하이퍼링크` 클릭','1. ECM WEB(APP) 접속\n2. 아이디, 패스워드 입력(testUsr001 / test)\n3. 로그인 버튼 클릭','개인 설정 &gt; 프로필 설정 조회','','','','0','4.0'),</v>
       </c>
-    </row>
-    <row r="7" spans="2:14" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O6" s="36" t="str">
+        <f t="shared" si="1"/>
+        <v>TEST-A4-CASE005</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="S6" s="36" t="str">
+        <f t="shared" si="2"/>
+        <v>('TEST-A4-CASE005','actionUrl','/selenium/4/default/case005/start.do','케이스005 URL'),</v>
+      </c>
+    </row>
+    <row r="7" spans="2:19" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>648</v>
       </c>
@@ -3130,8 +4314,25 @@
         <f t="shared" si="0"/>
         <v>('TEST-A4-CASE006','사용자(APP)','대시보드','위젯 선택(추가기능 - 내 활동 기록)','1. 대시보드 위젯 중 `추가 기능 &gt; 내 활동 기록 &gt; 드롭다운` 클릭','1. ECM WEB(APP) 접속\n2. 아이디, 패스워드 입력(testUsr001 / test)\n3. 로그인 버튼 클릭','개인 설정 &gt; 개인이력 조회','','','','0','4.0'),</v>
       </c>
-    </row>
-    <row r="8" spans="2:14" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O7" s="36" t="str">
+        <f t="shared" si="1"/>
+        <v>TEST-A4-CASE006</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>830</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="S7" s="36" t="str">
+        <f t="shared" si="2"/>
+        <v>('TEST-A4-CASE006','actionUrl','/selenium/4/default/case006/start.do','케이스006 URL'),</v>
+      </c>
+    </row>
+    <row r="8" spans="2:19" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>649</v>
       </c>
@@ -3166,8 +4367,25 @@
         <f t="shared" si="0"/>
         <v>('TEST-A4-CASE007','사용자(APP)','대시보드','위젯 선택(추가기능 - 즐겨찾기선택)','1. 대시보드 위젯 중 `추가 기능 &gt; 즐겨 찾기 &gt; 대상 폴더/파일` 클릭','1. ECM WEB(APP) 접속\n2. 아이디, 패스워드 입력(testUsr001 / test)\n3. 로그인 버튼 클릭','즐겨찾기 조회','','','','0','4.0'),</v>
       </c>
-    </row>
-    <row r="9" spans="2:14" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O8" s="36" t="str">
+        <f t="shared" si="1"/>
+        <v>TEST-A4-CASE007</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>831</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="S8" s="36" t="str">
+        <f t="shared" si="2"/>
+        <v>('TEST-A4-CASE007','actionUrl','/selenium/4/default/case007/start.do','케이스007 URL'),</v>
+      </c>
+    </row>
+    <row r="9" spans="2:19" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>650</v>
       </c>
@@ -3202,8 +4420,25 @@
         <f t="shared" si="0"/>
         <v>('TEST-A4-CASE008','사용자(APP)','대시보드','위젯 선택(추가기능 - 즐겨찾기확인)','1. 대시보드 위젯 중 `추가 기능 &gt; 즐겨 찾기 &gt; 드롭다운` 클릭','1. ECM WEB(APP) 접속\n2. 아이디, 패스워드 입력(testUsr001 / test)\n3. 로그인 버튼 클릭','즐겨찾기 리스트 확인 및 이동 가능','','','','0','4.0'),</v>
       </c>
-    </row>
-    <row r="10" spans="2:14" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O9" s="36" t="str">
+        <f t="shared" si="1"/>
+        <v>TEST-A4-CASE008</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>832</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="S9" s="36" t="str">
+        <f t="shared" si="2"/>
+        <v>('TEST-A4-CASE008','actionUrl','/selenium/4/default/case008/start.do','케이스008 URL'),</v>
+      </c>
+    </row>
+    <row r="10" spans="2:19" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>651</v>
       </c>
@@ -3238,8 +4473,25 @@
         <f t="shared" si="0"/>
         <v>('TEST-A4-CASE009','사용자(APP)','대시보드','위젯 삭제(특정)','1. 대시보드 오른쪽 상단 사용자 아이콘 클릭\n2. 개인 설정 클릭\n3. 대시보드 설정 탭 클릭\n4. 삭제 대상 항목 스위치 OFF\n5. 오른쪽 상단 저장 클릭\n6. 왼쪽 상단 홈 버튼 클릭','1. ECM WEB(APP) 접속\n2. 아이디, 패스워드 입력(testUsr001 / test)\n3. 로그인 버튼 클릭','대시보드 내 해당 위젯 항목 없음','','','','0','4.0'),</v>
       </c>
-    </row>
-    <row r="11" spans="2:14" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O10" s="36" t="str">
+        <f t="shared" si="1"/>
+        <v>TEST-A4-CASE009</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>833</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="S10" s="36" t="str">
+        <f t="shared" si="2"/>
+        <v>('TEST-A4-CASE009','actionUrl','/selenium/4/default/case009/start.do','케이스009 URL'),</v>
+      </c>
+    </row>
+    <row r="11" spans="2:19" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>652</v>
       </c>
@@ -3274,8 +4526,25 @@
         <f t="shared" si="0"/>
         <v>('TEST-A4-CASE010','사용자(APP)','대시보드','위젯 삭제(전체)','1. 대시보드 오른쪽 상단 사용자 아이콘 클릭\n2. 개인 설정 클릭\n3. 대시보드 설정 탭 클릭\n4. 삭제 대상 항목 스위치 전체 OFF\n5. 오른쪽 상단 저장 클릭\n6. 왼쪽 상단 홈 버튼 클릭','1. ECM WEB(APP) 접속\n2. 아이디, 패스워드 입력(testUsr001 / test)\n3. 로그인 버튼 클릭','대시보드 내 전체 위젯 항목 없음','','','','0','4.0'),</v>
       </c>
-    </row>
-    <row r="12" spans="2:14" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O11" s="36" t="str">
+        <f t="shared" si="1"/>
+        <v>TEST-A4-CASE010</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>834</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="S11" s="36" t="str">
+        <f t="shared" si="2"/>
+        <v>('TEST-A4-CASE010','actionUrl','/selenium/4/default/case010/start.do','케이스010 URL'),</v>
+      </c>
+    </row>
+    <row r="12" spans="2:19" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>653</v>
       </c>
@@ -3310,8 +4579,25 @@
         <f t="shared" si="0"/>
         <v>('TEST-A4-CASE011','사용자(APP)','대시보드','에이전트 다운로드','1. 대시보드 오른쪽 상단 DOWNLOAD AGENT 클릭','1. ECM WEB(APP) 접속\n2. 아이디, 패스워드 입력(testUsr001 / test)\n3. 로그인 버튼 클릭','에이전트 다운로드 진행','','','','0','4.0'),</v>
       </c>
-    </row>
-    <row r="13" spans="2:14" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O12" s="36" t="str">
+        <f t="shared" si="1"/>
+        <v>TEST-A4-CASE011</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>835</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="S12" s="36" t="str">
+        <f t="shared" si="2"/>
+        <v>('TEST-A4-CASE011','actionUrl','/selenium/4/default/case011/start.do','케이스011 URL'),</v>
+      </c>
+    </row>
+    <row r="13" spans="2:19" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>654</v>
       </c>
@@ -3346,8 +4632,25 @@
         <f t="shared" si="0"/>
         <v>('TEST-A4-CASE012','사용자(APP)','개인 설정 정보','홈 위치 지정','1. 대시보드 오른쪽 상단 사용자 아이콘 클릭\n2. 개인 설정 클릭\n3. 프로필 설정 탭 클릭\n4. Home 설정 메뉴 드롭 다운 후 변경 대상 선택\n5. 오른쪽 상단 저장 클릭','1. ECM WEB(APP) 접속\n2. 아이디, 패스워드 입력(testUsr001 / test)\n3. 로그인 버튼 클릭','홈 화면 전환 시 변경 대상으로 고정','','','','0','4.0'),</v>
       </c>
-    </row>
-    <row r="14" spans="2:14" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O13" s="36" t="str">
+        <f t="shared" si="1"/>
+        <v>TEST-A4-CASE012</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>836</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="S13" s="36" t="str">
+        <f t="shared" si="2"/>
+        <v>('TEST-A4-CASE012','actionUrl','/selenium/4/default/case012/start.do','케이스012 URL'),</v>
+      </c>
+    </row>
+    <row r="14" spans="2:19" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
         <v>655</v>
       </c>
@@ -3382,8 +4685,25 @@
         <f t="shared" si="0"/>
         <v>('TEST-A4-CASE013','사용자(APP)','개인 설정 정보','개인 정보 변경(프로필사진 - 저장)','1. 대시보드 오른쪽 상단 사용자 아이콘 클릭\n2. 개인 설정 클릭\n3. 프로필 설정 탭 클릭\n4. 편집 클릭\n5. 윈도우 다이얼로그 박스에서 파일 선택','1. ECM WEB(APP) 접속\n2. 아이디, 패스워드 입력(testUsr001 / test)\n3. 로그인 버튼 클릭','개인 설정 내 사용자 아이콘 프로필 사진 변경 확인\n오른쪽 상단 사용자 아이콘 프로필 사진 변경 확인','','','','0','4.0'),</v>
       </c>
-    </row>
-    <row r="15" spans="2:14" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O14" s="36" t="str">
+        <f t="shared" si="1"/>
+        <v>TEST-A4-CASE013</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>837</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="S14" s="36" t="str">
+        <f t="shared" si="2"/>
+        <v>('TEST-A4-CASE013','actionUrl','/selenium/4/default/case013/start.do','케이스013 URL'),</v>
+      </c>
+    </row>
+    <row r="15" spans="2:19" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
         <v>656</v>
       </c>
@@ -3418,8 +4738,25 @@
         <f t="shared" si="0"/>
         <v>('TEST-A4-CASE014','사용자(APP)','개인 설정 정보','개인 정보 변경(프로필사진 - 초기화)','1. 대시보드 오른쪽 상단 사용자 아이콘 클릭\n2. 개인 설정 클릭\n3. 프로필 설정 탭 클릭\n4. 초기화 클릭','1. ECM WEB(APP) 접속\n2. 아이디, 패스워드 입력(testUsr001 / test)\n3. 로그인 버튼 클릭','개인 설정 내 사용자 아이콘 프로필 사진 초기화 확인\n오른쪽 상단 사용자 아이콘 프로필 사진 초기화 확인','','','','0','4.0'),</v>
       </c>
-    </row>
-    <row r="16" spans="2:14" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O15" s="36" t="str">
+        <f t="shared" si="1"/>
+        <v>TEST-A4-CASE014</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>838</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="S15" s="36" t="str">
+        <f t="shared" si="2"/>
+        <v>('TEST-A4-CASE014','actionUrl','/selenium/4/default/case014/start.do','케이스014 URL'),</v>
+      </c>
+    </row>
+    <row r="16" spans="2:19" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
         <v>657</v>
       </c>
@@ -3454,8 +4791,25 @@
         <f t="shared" si="0"/>
         <v>('TEST-A4-CASE015','사용자(APP)','개인 설정 정보','개인 정보 변경(일반정보)','1. 대시보드 오른쪽 상단 사용자 아이콘 클릭\n2. 개인 설정 클릭\n3. 프로필 설정 탭 클릭\n4. 일반정보(이름, E-Mmail, 주소, 그룹, 언어설정) 변경\n5. 오른쪽 상단 저장 클릭','1. ECM WEB(APP) 접속\n2. 아이디, 패스워드 입력(testUsr001 / test)\n3. 로그인 버튼 클릭','적용 후 변경된 일반정보 변경사항 확인 가능\n프로필 설정 재 접근 시 변경된 일반정보 변경사항 확인 가능','','','','0','4.0'),</v>
       </c>
-    </row>
-    <row r="17" spans="2:14" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O16" s="36" t="str">
+        <f t="shared" si="1"/>
+        <v>TEST-A4-CASE015</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>839</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="S16" s="36" t="str">
+        <f t="shared" si="2"/>
+        <v>('TEST-A4-CASE015','actionUrl','/selenium/4/default/case015/start.do','케이스015 URL'),</v>
+      </c>
+    </row>
+    <row r="17" spans="2:19" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
         <v>658</v>
       </c>
@@ -3490,8 +4844,25 @@
         <f t="shared" si="0"/>
         <v>('TEST-A4-CASE016','사용자(APP)','개인 설정 정보','개인 정보 변경(비밀번호)','1. 대시보드 오른쪽 상단 사용자 아이콘 클릭\n2. 개인 설정 클릭\n3. 프로필 설정 탭 클릭\n4. 비밀번호 변경 클릭\n5. 변경할 비밀번호 입력(비밀번호, 비밀번호 확인 Input)\n6. 오른쪽 상단 저장 클릭','1. ECM WEB(APP) 접속\n2. 아이디, 패스워드 입력(testUsr001 / test)\n3. 로그인 버튼 클릭','적용 후 변경된 비밀번호로 로그인 가능\n비밀번호/비밀번호 확인 불일치 체크 가능','','','','0','4.0'),</v>
       </c>
-    </row>
-    <row r="18" spans="2:14" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O17" s="36" t="str">
+        <f t="shared" si="1"/>
+        <v>TEST-A4-CASE016</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>840</v>
+      </c>
+      <c r="R17" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="S17" s="36" t="str">
+        <f t="shared" si="2"/>
+        <v>('TEST-A4-CASE016','actionUrl','/selenium/4/default/case016/start.do','케이스016 URL'),</v>
+      </c>
+    </row>
+    <row r="18" spans="2:19" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
         <v>659</v>
       </c>
@@ -3526,8 +4897,25 @@
         <f t="shared" si="0"/>
         <v>('TEST-A4-CASE017','사용자(APP)','개인 설정 정보','보안','1. 대시보드 오른쪽 상단 사용자 아이콘 클릭\n2. 개인 설정 클릭\n3. 개인이력 탭 클릭','1. ECM WEB(APP) 접속\n2. 아이디, 패스워드 입력(testUsr001 / test)\n3. 로그인 버튼 클릭','개인 계정 이벤트 별 이력 확인 가능','','','','0','4.0'),</v>
       </c>
-    </row>
-    <row r="19" spans="2:14" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O18" s="36" t="str">
+        <f t="shared" si="1"/>
+        <v>TEST-A4-CASE017</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>841</v>
+      </c>
+      <c r="R18" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="S18" s="36" t="str">
+        <f t="shared" si="2"/>
+        <v>('TEST-A4-CASE017','actionUrl','/selenium/4/default/case017/start.do','케이스017 URL'),</v>
+      </c>
+    </row>
+    <row r="19" spans="2:19" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
         <v>660</v>
       </c>
@@ -3562,8 +4950,25 @@
         <f t="shared" si="0"/>
         <v>('TEST-A4-CASE018','사용자(APP)','개인 설정 정보','알림 표시','기능(다운로드,삭제 등) 사용 시 체크가능','','알림 설정에 의한 알림 표시','','','','0','4.0'),</v>
       </c>
-    </row>
-    <row r="20" spans="2:14" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O19" s="36" t="str">
+        <f t="shared" si="1"/>
+        <v>TEST-A4-CASE018</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>842</v>
+      </c>
+      <c r="R19" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="S19" s="36" t="str">
+        <f t="shared" si="2"/>
+        <v>('TEST-A4-CASE018','actionUrl','/selenium/4/default/case018/start.do','케이스018 URL'),</v>
+      </c>
+    </row>
+    <row r="20" spans="2:19" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
         <v>661</v>
       </c>
@@ -3598,8 +5003,25 @@
         <f t="shared" si="0"/>
         <v>('TEST-A4-CASE019','사용자(APP)','관리 (중간 관리자)','용량 관리','1. 대시보드 오른쪽 상단 사용자 아이콘 클릭\n2. 관리 설정 클릭\n3. 용량관리 탭 클릭\n4. 용량 관리 버튼 클릭\n5. 승인 또는 반려','1. ECM WEB(APP) 접속\n2. 아이디, 패스워드 입력(SUPER / SUPER)\n3. 로그인 버튼 클릭\n4. 좌측 내비게이션 바에서 부서문서함 &gt; 컨버전스사업팀 &gt; 단위테스트 폴더 이동','관리 대상 사용자의 용량 증설 가능','','','','0','4.0'),</v>
       </c>
-    </row>
-    <row r="21" spans="2:14" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O20" s="36" t="str">
+        <f t="shared" si="1"/>
+        <v>TEST-A4-CASE019</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>843</v>
+      </c>
+      <c r="R20" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="S20" s="36" t="str">
+        <f t="shared" si="2"/>
+        <v>('TEST-A4-CASE019','actionUrl','/selenium/4/default/case019/start.do','케이스019 URL'),</v>
+      </c>
+    </row>
+    <row r="21" spans="2:19" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
         <v>662</v>
       </c>
@@ -3634,8 +5056,25 @@
         <f t="shared" si="0"/>
         <v>('TEST-A4-CASE020','사용자(APP)','관리 (중간 관리자)','사용자관리','1. 대시보드 오른쪽 상단 사용자 아이콘 클릭\n2. 관리 설정 클릭\n3. 개인함 관리 탭 클릭','1. ECM WEB(APP) 접속\n2. 아이디, 패스워드 입력(SUPER / SUPER)\n3. 로그인 버튼 클릭\n4. 좌측 내비게이션 바에서 부서문서함 &gt; 컨버전스사업팀 &gt; 단위테스트 폴더 이동','관리 대상 사용자 검색, 인계 설정, 사용자 활성/비활성화, 개인함 용량설정','','','','0','4.0'),</v>
       </c>
-    </row>
-    <row r="22" spans="2:14" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O21" s="36" t="str">
+        <f t="shared" si="1"/>
+        <v>TEST-A4-CASE020</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q21" s="1" t="s">
+        <v>844</v>
+      </c>
+      <c r="R21" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="S21" s="36" t="str">
+        <f t="shared" si="2"/>
+        <v>('TEST-A4-CASE020','actionUrl','/selenium/4/default/case020/start.do','케이스020 URL'),</v>
+      </c>
+    </row>
+    <row r="22" spans="2:19" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
         <v>663</v>
       </c>
@@ -3670,8 +5109,25 @@
         <f t="shared" si="0"/>
         <v>('TEST-A4-CASE021','사용자(APP)','관리 (중간 관리자)','부서함관리','1. 대시보드 오른쪽 상단 사용자 아이콘 클릭\n2. 관리 설정 클릭\n3. 부서함 관리 탭 클릭','1. ECM WEB(APP) 접속\n2. 아이디, 패스워드 입력(SUPER / SUPER)\n3. 로그인 버튼 클릭\n4. 좌측 내비게이션 바에서 부서문서함 &gt; 컨버전스사업팀 &gt; 단위테스트 폴더 이동','부서함 프로필 관리(사진,이름) 편집 가능','','','','0','4.0'),</v>
       </c>
-    </row>
-    <row r="23" spans="2:14" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O22" s="36" t="str">
+        <f t="shared" si="1"/>
+        <v>TEST-A4-CASE021</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q22" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="R22" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="S22" s="36" t="str">
+        <f t="shared" si="2"/>
+        <v>('TEST-A4-CASE021','actionUrl','/selenium/4/default/case021/start.do','케이스021 URL'),</v>
+      </c>
+    </row>
+    <row r="23" spans="2:19" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
         <v>664</v>
       </c>
@@ -3706,8 +5162,25 @@
         <f t="shared" si="0"/>
         <v>('TEST-A4-CASE022','사용자(APP)','공유','일반 공유','1. 대상 폴더/파일 우 클릭\n2. 컨텍스트 메뉴에서 공유설정 클릭\n3. 일반 공유 탭에서 메뉴바 클릭\n4. 공유지정 클릭\n5. 추가 클릭\n6. 사용자 추가(사용자 검색 or 선택)','1. ECM WEB(APP) 접속\n2. 아이디, 패스워드 입력(testUsr001 / test)\n3. 로그인 버튼 클릭\n4. 좌측 내비게이션 바에서 부서문서함 &gt; 컨버전스사업팀 &gt; 단위테스트 폴더 이동','파일에 대하여 다른 사용자에게 권한별로 공유 지원','','','','0','4.0'),</v>
       </c>
-    </row>
-    <row r="24" spans="2:14" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O23" s="36" t="str">
+        <f t="shared" si="1"/>
+        <v>TEST-A4-CASE022</v>
+      </c>
+      <c r="P23" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q23" s="1" t="s">
+        <v>846</v>
+      </c>
+      <c r="R23" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="S23" s="36" t="str">
+        <f t="shared" si="2"/>
+        <v>('TEST-A4-CASE022','actionUrl','/selenium/4/default/case022/start.do','케이스022 URL'),</v>
+      </c>
+    </row>
+    <row r="24" spans="2:19" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
         <v>665</v>
       </c>
@@ -3742,8 +5215,25 @@
         <f t="shared" si="0"/>
         <v>('TEST-A4-CASE023','사용자(APP)','공유','URL공유','1. 대상 폴더/파일 우 클릭\n2. 컨텍스트 메뉴에서 공유설정 클릭\n3. URL 공유 탭에서 메뉴바 클릭\n4. 공유지정 클릭\n5. 추가 클릭\n6. 사용자 추가(사용자 검색 or 선택)','1. ECM WEB(APP) 접속\n2. 아이디, 패스워드 입력(testUsr001 / test)\n3. 로그인 버튼 클릭\n4. 좌측 내비게이션 바에서 부서문서함 &gt; 컨버전스사업팀 &gt; 단위테스트 폴더 이동','문서에 대하여 URL을 생성하여 다른 사용자에게 전달하면 접근 할 수 있도록 합니다. (전체/대상자 선택, 권한 선택)','','','','0','4.0'),</v>
       </c>
-    </row>
-    <row r="25" spans="2:14" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O24" s="36" t="str">
+        <f t="shared" si="1"/>
+        <v>TEST-A4-CASE023</v>
+      </c>
+      <c r="P24" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q24" s="1" t="s">
+        <v>847</v>
+      </c>
+      <c r="R24" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="S24" s="36" t="str">
+        <f t="shared" si="2"/>
+        <v>('TEST-A4-CASE023','actionUrl','/selenium/4/default/case023/start.do','케이스023 URL'),</v>
+      </c>
+    </row>
+    <row r="25" spans="2:19" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
         <v>666</v>
       </c>
@@ -3778,8 +5268,25 @@
         <f t="shared" si="0"/>
         <v>('TEST-A4-CASE024','사용자(APP)','공통','리스트 뷰 옵션','1. 대시보드 오른쪽 상단 목록보기 클릭','1. ECM WEB(APP) 접속\n2. 아이디, 패스워드 입력(testUsr001 / test)\n3. 로그인 버튼 클릭\n4. 좌측 내비게이션 바에서 부서문서함 &gt; 컨버전스사업팀 &gt; 단위테스트 폴더 이동','상세보기, 갤러리 뷰 지원, 정렬 기능 지원','','','','0','4.0'),</v>
       </c>
-    </row>
-    <row r="26" spans="2:14" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O25" s="36" t="str">
+        <f t="shared" si="1"/>
+        <v>TEST-A4-CASE024</v>
+      </c>
+      <c r="P25" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q25" s="1" t="s">
+        <v>848</v>
+      </c>
+      <c r="R25" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="S25" s="36" t="str">
+        <f t="shared" si="2"/>
+        <v>('TEST-A4-CASE024','actionUrl','/selenium/4/default/case024/start.do','케이스024 URL'),</v>
+      </c>
+    </row>
+    <row r="26" spans="2:19" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B26" s="2" t="s">
         <v>667</v>
       </c>
@@ -3814,8 +5321,25 @@
         <f t="shared" si="0"/>
         <v>('TEST-A4-CASE025','사용자(APP)','공통','썸네일 표시','1. 대시보드 오른쪽 상단 바둑판보기 클릭','1. ECM WEB(APP) 접속\n2. 아이디, 패스워드 입력(testUsr001 / test)\n3. 로그인 버튼 클릭\n4. 좌측 내비게이션 바에서 부서문서함 &gt; 컨버전스사업팀 &gt; 단위테스트 폴더 이동','이미지, 오피스, 동영상, 아래한글, PDF 문서 썸네일 제공','','','','0','4.0'),</v>
       </c>
-    </row>
-    <row r="27" spans="2:14" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O26" s="36" t="str">
+        <f t="shared" si="1"/>
+        <v>TEST-A4-CASE025</v>
+      </c>
+      <c r="P26" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q26" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="R26" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="S26" s="36" t="str">
+        <f t="shared" si="2"/>
+        <v>('TEST-A4-CASE025','actionUrl','/selenium/4/default/case025/start.do','케이스025 URL'),</v>
+      </c>
+    </row>
+    <row r="27" spans="2:19" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B27" s="2" t="s">
         <v>668</v>
       </c>
@@ -3850,8 +5374,25 @@
         <f t="shared" si="0"/>
         <v>('TEST-A4-CASE026','사용자(APP)','권한관리','폴더/파일 권한 관리(읽기)','1. 대상 폴더/파일 우 클릭\n2. 컨텍스트 메뉴에서 권한관리 클릭\n3. 권한 추가 버튼 클릭\n4. 대상 사용자(testUsr002) 체크\n5. 확인 클릭\n6. 권한 `읽기` 변경\n7. 적용 클릭','1. ECM WEB(APP) 접속\n2. 아이디, 패스워드 입력(testUsr001 / test)\n3. 로그인 버튼 클릭\n4. 좌측 내비게이션 바에서 부서문서함 &gt; 컨버전스사업팀 &gt; 단위테스트 폴더 이동','대상 폴더/파일 접근시 컨턱스트 메뉴에서 다운로드/복사/붙여넣기/즐겨찾기/권한관리/세부정보/검색 확인가능','','','','0','4.0'),</v>
       </c>
-    </row>
-    <row r="28" spans="2:14" ht="72" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O27" s="36" t="str">
+        <f t="shared" si="1"/>
+        <v>TEST-A4-CASE026</v>
+      </c>
+      <c r="P27" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q27" s="1" t="s">
+        <v>850</v>
+      </c>
+      <c r="R27" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="S27" s="36" t="str">
+        <f t="shared" si="2"/>
+        <v>('TEST-A4-CASE026','actionUrl','/selenium/4/default/case026/start.do','케이스026 URL'),</v>
+      </c>
+    </row>
+    <row r="28" spans="2:19" ht="72" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B28" s="2" t="s">
         <v>669</v>
       </c>
@@ -3886,8 +5427,25 @@
         <f t="shared" si="0"/>
         <v>('TEST-A4-CASE027','사용자(APP)','권한관리','폴더/파일 권한 관리(쓰기)','1. 대상 폴더/파일 우 클릭\n2. 컨텍스트 메뉴에서 권한관리 클릭\n3. 권한 추가 버튼 클릭\n4. 대상 사용자(testUsr002) 체크\n5. 확인 클릭\n6. 권한 `기본` 변경\n7. 적용 클릭','1. ECM WEB(APP) 접속\n2. 아이디, 패스워드 입력(testUsr001 / test)\n3. 로그인 버튼 클릭\n4. 좌측 내비게이션 바에서 부서문서함 &gt; 컨버전스사업팀 &gt; 단위테스트 폴더 이동\n(※ 해당 폴더 권한 상속 해제)','대상 폴더/파일 접근시 컨텍스트 메뉴에서 이동, 권한 관리 제외한 모든 기능 사용 가능','','','','0','4.0'),</v>
       </c>
-    </row>
-    <row r="29" spans="2:14" ht="72" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O28" s="36" t="str">
+        <f t="shared" si="1"/>
+        <v>TEST-A4-CASE027</v>
+      </c>
+      <c r="P28" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q28" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="R28" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="S28" s="36" t="str">
+        <f t="shared" si="2"/>
+        <v>('TEST-A4-CASE027','actionUrl','/selenium/4/default/case027/start.do','케이스027 URL'),</v>
+      </c>
+    </row>
+    <row r="29" spans="2:19" ht="72" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B29" s="2" t="s">
         <v>670</v>
       </c>
@@ -3922,8 +5480,25 @@
         <f t="shared" si="0"/>
         <v>('TEST-A4-CASE028','사용자(APP)','권한관리','폴더/파일 권한 관리(기본)','1. 대상 폴더/파일 우 클릭\n2. 컨텍스트 메뉴에서 권한관리 클릭\n3. 권한 추가 버튼 클릭\n4. 대상 사용자(testUsr002) 체크\n5. 확인 클릭\n6. 권한 `기본` 변경\n7. 적용 클릭','1. ECM WEB(APP) 접속\n2. 아이디, 패스워드 입력(testUsr001 / test)\n3. 로그인 버튼 클릭\n4. 좌측 내비게이션 바에서 부서문서함 &gt; 컨버전스사업팀 &gt; 단위테스트 폴더 이동\n(※ 해당 폴더 권한 상속 해제)','대상 폴더/파일 접근시 컨텍스트 메뉴에서 권한 관리 제외한 모든 기능 사용 가능','','','','0','4.0'),</v>
       </c>
-    </row>
-    <row r="30" spans="2:14" ht="72" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O29" s="36" t="str">
+        <f t="shared" si="1"/>
+        <v>TEST-A4-CASE028</v>
+      </c>
+      <c r="P29" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q29" s="1" t="s">
+        <v>852</v>
+      </c>
+      <c r="R29" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="S29" s="36" t="str">
+        <f t="shared" si="2"/>
+        <v>('TEST-A4-CASE028','actionUrl','/selenium/4/default/case028/start.do','케이스028 URL'),</v>
+      </c>
+    </row>
+    <row r="30" spans="2:19" ht="72" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B30" s="2" t="s">
         <v>671</v>
       </c>
@@ -3958,8 +5533,25 @@
         <f t="shared" si="0"/>
         <v>('TEST-A4-CASE029','사용자(APP)','권한관리','폴더/파일 권한 관리(관리)','1. 대상 폴더/파일 우 클릭\n2. 컨텍스트 메뉴에서 권한관리 클릭\n3. 권한 추가 버튼 클릭\n4. 대상 사용자(testUsr002) 체크\n5. 확인 클릭\n6. 권한 `기본` 변경\n7. 적용 클릭','1. ECM WEB(APP) 접속\n2. 아이디, 패스워드 입력(testUsr001 / test)\n3. 로그인 버튼 클릭\n4. 좌측 내비게이션 바에서 부서문서함 &gt; 컨버전스사업팀 &gt; 단위테스트 폴더 이동\n(※ 해당 폴더 권한 상속 해제)','대상 폴더/파일 접근시 모든 기능 사용 가능','','','','0','4.0'),</v>
       </c>
-    </row>
-    <row r="31" spans="2:14" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O30" s="36" t="str">
+        <f t="shared" si="1"/>
+        <v>TEST-A4-CASE029</v>
+      </c>
+      <c r="P30" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q30" s="1" t="s">
+        <v>853</v>
+      </c>
+      <c r="R30" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="S30" s="36" t="str">
+        <f t="shared" si="2"/>
+        <v>('TEST-A4-CASE029','actionUrl','/selenium/4/default/case029/start.do','케이스029 URL'),</v>
+      </c>
+    </row>
+    <row r="31" spans="2:19" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B31" s="2" t="s">
         <v>672</v>
       </c>
@@ -3994,8 +5586,25 @@
         <f t="shared" si="0"/>
         <v>('TEST-A4-CASE030','사용자(APP)','권한관리','권한 적용','TEDM-APP-028, 029, 030, 031 참조','','읽기, 목록표시, 다운로드, 생성, 삭제, 권한변경 등의 권한 관리','','','','0','4.0'),</v>
       </c>
-    </row>
-    <row r="32" spans="2:14" ht="72" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O31" s="36" t="str">
+        <f t="shared" si="1"/>
+        <v>TEST-A4-CASE030</v>
+      </c>
+      <c r="P31" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q31" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="R31" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="S31" s="36" t="str">
+        <f t="shared" si="2"/>
+        <v>('TEST-A4-CASE030','actionUrl','/selenium/4/default/case030/start.do','케이스030 URL'),</v>
+      </c>
+    </row>
+    <row r="32" spans="2:19" ht="72" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B32" s="2" t="s">
         <v>673</v>
       </c>
@@ -4030,8 +5639,25 @@
         <f t="shared" si="0"/>
         <v>('TEST-A4-CASE031','사용자(APP)','권한관리','권한 상속','1. 대상 폴더/파일 우 클릭\n2. 컨텍스트 메뉴에서 권한관리 클릭\n3. 개별 권한을 적용 중 옆 체크박스 클릭\n4. 알림창에서 확인 클릭','1. ECM WEB(APP) 접속\n2. 아이디, 패스워드 입력(testUsr001 / test)\n3. 로그인 버튼 클릭\n4. 좌측 내비게이션 바에서 부서문서함 &gt; 컨버전스사업팀 &gt; 단위테스트 폴더 이동\n(※ 해당 폴더 권한 상속 해제)','부모 폴더로 부터 권한을 상속 리스트 확인 가능','','','','0','4.0'),</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O32" s="36" t="str">
+        <f t="shared" si="1"/>
+        <v>TEST-A4-CASE031</v>
+      </c>
+      <c r="P32" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q32" s="1" t="s">
+        <v>855</v>
+      </c>
+      <c r="R32" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="S32" s="36" t="str">
+        <f t="shared" si="2"/>
+        <v>('TEST-A4-CASE031','actionUrl','/selenium/4/default/case031/start.do','케이스031 URL'),</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="s">
         <v>674</v>
       </c>
@@ -4068,8 +5694,25 @@
         <f t="shared" si="0"/>
         <v>('TEST-A4-CASE032','사용자(APP)','폴더/파일 공통','이름 수정','1. 대상 폴더/파일 우 클릭\n2. 컨텍스트 메뉴에서 이름바꾸기 클릭\n3. 다이얼로그박스에서 변경할 이름 입력\n4. 확인 클릭','1. ECM WEB(APP) 접속\n2. 아이디, 패스워드 입력(testUsr001 / test)\n3. 로그인 버튼 클릭\n4. 좌측 내비게이션 바에서 부서문서함 &gt; 컨버전스사업팀 &gt; 단위테스트 폴더 이동','변경된 이름 확인 가능','안요한','','','0.0208333333333333','4.0'),</v>
       </c>
-    </row>
-    <row r="34" spans="2:14" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O33" s="36" t="str">
+        <f t="shared" si="1"/>
+        <v>TEST-A4-CASE032</v>
+      </c>
+      <c r="P33" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q33" s="1" t="s">
+        <v>856</v>
+      </c>
+      <c r="R33" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="S33" s="36" t="str">
+        <f t="shared" si="2"/>
+        <v>('TEST-A4-CASE032','actionUrl','/selenium/4/default/case032/start.do','케이스032 URL'),</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B34" s="2" t="s">
         <v>675</v>
       </c>
@@ -4106,8 +5749,25 @@
         <f t="shared" si="0"/>
         <v>('TEST-A4-CASE033','사용자(APP)','폴더/파일 공통','설명 수정','1. 대상 폴더/파일 우 클릭\n2. 컨텍스트 메뉴에서 세부정보 클릭\n3. 설명 추가 항목 옆 추가 버튼 클릭\n4. 변경할 설명 입력\n5. 다른 공간 클릭','1. ECM WEB(APP) 접속\n2. 아이디, 패스워드 입력(testUsr001 / test)\n3. 로그인 버튼 클릭\n4. 좌측 내비게이션 바에서 부서문서함 &gt; 컨버전스사업팀 &gt; 단위테스트 폴더 이동','세부정보에서 변경된 설명 확인 가능','안요한','','','0.354166666666667','4.0'),</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O34" s="36" t="str">
+        <f t="shared" si="1"/>
+        <v>TEST-A4-CASE033</v>
+      </c>
+      <c r="P34" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q34" s="1" t="s">
+        <v>857</v>
+      </c>
+      <c r="R34" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="S34" s="36" t="str">
+        <f t="shared" si="2"/>
+        <v>('TEST-A4-CASE033','actionUrl','/selenium/4/default/case033/start.do','케이스033 URL'),</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B35" s="2" t="s">
         <v>676</v>
       </c>
@@ -4144,8 +5804,25 @@
         <f t="shared" si="0"/>
         <v>('TEST-A4-CASE034','사용자(APP)','폴더/파일 공통','즐겨찾기 - 추가','1. 대상 폴더/파일 우 클릭\n2. 컨텍스트 메뉴에서 즐겨찾기 클릭','1. ECM WEB(APP) 접속\n2. 아이디, 패스워드 입력(testUsr001 / test)\n3. 로그인 버튼 클릭\n4. 좌측 내비게이션 바에서 부서문서함 &gt; 컨버전스사업팀 &gt; 단위테스트 폴더 이동','폴더/파일 옆 별모양 생성, 대시보드에서 즐겨찾기 리스트 확인 가능','장홍철','','','0.916666666666667','4.0'),</v>
       </c>
-    </row>
-    <row r="36" spans="2:14" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O35" s="36" t="str">
+        <f t="shared" si="1"/>
+        <v>TEST-A4-CASE034</v>
+      </c>
+      <c r="P35" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q35" s="1" t="s">
+        <v>858</v>
+      </c>
+      <c r="R35" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="S35" s="36" t="str">
+        <f t="shared" si="2"/>
+        <v>('TEST-A4-CASE034','actionUrl','/selenium/4/default/case034/start.do','케이스034 URL'),</v>
+      </c>
+    </row>
+    <row r="36" spans="2:19" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B36" s="2" t="s">
         <v>677</v>
       </c>
@@ -4182,8 +5859,25 @@
         <f t="shared" si="0"/>
         <v>('TEST-A4-CASE035','사용자(APP)','폴더/파일 공통','즐겨찾기 - 해제','1. 대상 폴더/파일 우 클릭\n2. 컨텍스트 메뉴에서 즐겨찾기 해제 클릭','1. ECM WEB(APP) 접속\n2. 아이디, 패스워드 입력(testUsr001 / test)\n3. 로그인 버튼 클릭\n4. 좌측 내비게이션 바에서 부서문서함 &gt; 컨버전스사업팀 &gt; 단위테스트 폴더 이동','폴더/파일 옆 별모양 삭제, 대시보드에서 즐겨찾기 리스트 제거 확인 가능','장홍철','','','0.166666666666667','4.0'),</v>
       </c>
-    </row>
-    <row r="37" spans="2:14" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O36" s="36" t="str">
+        <f t="shared" si="1"/>
+        <v>TEST-A4-CASE035</v>
+      </c>
+      <c r="P36" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q36" s="1" t="s">
+        <v>859</v>
+      </c>
+      <c r="R36" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="S36" s="36" t="str">
+        <f t="shared" si="2"/>
+        <v>('TEST-A4-CASE035','actionUrl','/selenium/4/default/case035/start.do','케이스035 URL'),</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B37" s="2" t="s">
         <v>678</v>
       </c>
@@ -4218,8 +5912,25 @@
         <f t="shared" si="0"/>
         <v>('TEST-A4-CASE036','사용자(APP)','폴더/파일 공통','링크 - 추가','1. 대상 폴더/파일 우 클릭\n2. 컨텍스트 메뉴에서 세부정보 클릭\n3. 관련파일 항목 옆 추가 버튼 클릭\n4. 창에서 연결할 폴더 또는 파일 선택\n5. 확인 클릭\n6. 링크된 경로 클릭','1. ECM WEB(APP) 접속\n2. 아이디, 패스워드 입력(testUsr001 / test)\n3. 로그인 버튼 클릭\n4. 좌측 내비게이션 바에서 부서문서함 &gt; 컨버전스사업팀 &gt; 단위테스트 폴더 이동','링크된 폴더/파일 경로로 이동','','','','0','4.0'),</v>
       </c>
-    </row>
-    <row r="38" spans="2:14" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O37" s="36" t="str">
+        <f t="shared" si="1"/>
+        <v>TEST-A4-CASE036</v>
+      </c>
+      <c r="P37" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q37" s="1" t="s">
+        <v>860</v>
+      </c>
+      <c r="R37" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="S37" s="36" t="str">
+        <f t="shared" si="2"/>
+        <v>('TEST-A4-CASE036','actionUrl','/selenium/4/default/case036/start.do','케이스036 URL'),</v>
+      </c>
+    </row>
+    <row r="38" spans="2:19" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B38" s="2" t="s">
         <v>679</v>
       </c>
@@ -4254,8 +5965,25 @@
         <f t="shared" si="0"/>
         <v>('TEST-A4-CASE037','사용자(APP)','폴더/파일 공통','링크 - 해제','1. 대상 폴더/파일 우 클릭\n2. 컨텍스트 메뉴에서 세부정보 클릭\n3. 관련파일 리스트에서 삭제할 링크 X 버튼 클릭','1. ECM WEB(APP) 접속\n2. 아이디, 패스워드 입력(testUsr001 / test)\n3. 로그인 버튼 클릭\n4. 좌측 내비게이션 바에서 부서문서함 &gt; 컨버전스사업팀 &gt; 단위테스트 폴더 이동','제거된 링크 세부정보에서 확인 가능','','','','0','4.0'),</v>
       </c>
-    </row>
-    <row r="39" spans="2:14" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O38" s="36" t="str">
+        <f t="shared" si="1"/>
+        <v>TEST-A4-CASE037</v>
+      </c>
+      <c r="P38" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q38" s="1" t="s">
+        <v>861</v>
+      </c>
+      <c r="R38" s="1" t="s">
+        <v>771</v>
+      </c>
+      <c r="S38" s="36" t="str">
+        <f t="shared" si="2"/>
+        <v>('TEST-A4-CASE037','actionUrl','/selenium/4/default/case037/start.do','케이스037 URL'),</v>
+      </c>
+    </row>
+    <row r="39" spans="2:19" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B39" s="2" t="s">
         <v>680</v>
       </c>
@@ -4290,8 +6018,25 @@
         <f t="shared" si="0"/>
         <v>('TEST-A4-CASE038','사용자(APP)','폴더/파일 공통','태그 - 추가','1. 대상 폴더/파일 우 클릭\n2. 컨텍스트 메뉴에서 세부정보 클릭\n3. 태그 항목 옆 추가 버튼 클릭\n4. 추가할 태그 명 입력 후 ENTER\n5. 링크된 경로 클릭','1. ECM WEB(APP) 접속\n2. 아이디, 패스워드 입력(testUsr001 / test)\n3. 로그인 버튼 클릭\n4. 좌측 내비게이션 바에서 부서문서함 &gt; 컨버전스사업팀 &gt; 단위테스트 폴더 이동','추가된 태그 세부정보에서 확인 가능','','','','0','4.0'),</v>
       </c>
-    </row>
-    <row r="40" spans="2:14" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O39" s="36" t="str">
+        <f t="shared" si="1"/>
+        <v>TEST-A4-CASE038</v>
+      </c>
+      <c r="P39" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q39" s="1" t="s">
+        <v>862</v>
+      </c>
+      <c r="R39" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="S39" s="36" t="str">
+        <f t="shared" si="2"/>
+        <v>('TEST-A4-CASE038','actionUrl','/selenium/4/default/case038/start.do','케이스038 URL'),</v>
+      </c>
+    </row>
+    <row r="40" spans="2:19" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B40" s="2" t="s">
         <v>681</v>
       </c>
@@ -4326,8 +6071,25 @@
         <f t="shared" si="0"/>
         <v>('TEST-A4-CASE039','사용자(APP)','폴더/파일 공통','태그 - 해제','1. 대상 폴더/파일 우 클릭\n2. 컨텍스트 메뉴에서 세부정보 클릭\n3. 태그 리스트에서 삭제할 태그 X 버튼 클릭','1. ECM WEB(APP) 접속\n2. 아이디, 패스워드 입력(testUsr001 / test)\n3. 로그인 버튼 클릭\n4. 좌측 내비게이션 바에서 부서문서함 &gt; 컨버전스사업팀 &gt; 단위테스트 폴더 이동','제거된 태그 세부정보에서 확인 가능','','','','0','4.0'),</v>
       </c>
-    </row>
-    <row r="41" spans="2:14" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O40" s="36" t="str">
+        <f t="shared" si="1"/>
+        <v>TEST-A4-CASE039</v>
+      </c>
+      <c r="P40" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q40" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="R40" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="S40" s="36" t="str">
+        <f t="shared" si="2"/>
+        <v>('TEST-A4-CASE039','actionUrl','/selenium/4/default/case039/start.do','케이스039 URL'),</v>
+      </c>
+    </row>
+    <row r="41" spans="2:19" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B41" s="2" t="s">
         <v>682</v>
       </c>
@@ -4362,8 +6124,25 @@
         <f t="shared" si="0"/>
         <v>('TEST-A4-CASE040','사용자(APP)','폴더/파일 공통','복사(같은폴더)','1. 대상 폴더/파일 우 클릭\n2. 컨텍스트 메뉴에서 복사 클릭\n3. 붙여넣기 클릭','1. ECM WEB(APP) 접속\n2. 아이디, 패스워드 입력(testUsr001 / test)\n3. 로그인 버튼 클릭\n4. 좌측 내비게이션 바에서 부서문서함 &gt; 컨버전스사업팀 &gt; 단위테스트 폴더 이동','대상 폴더/파일 명 " - 복사본 " 이 붙은 채로 복사됌','','','','0','4.0'),</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O41" s="36" t="str">
+        <f t="shared" si="1"/>
+        <v>TEST-A4-CASE040</v>
+      </c>
+      <c r="P41" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q41" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="R41" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="S41" s="36" t="str">
+        <f t="shared" si="2"/>
+        <v>('TEST-A4-CASE040','actionUrl','/selenium/4/default/case040/start.do','케이스040 URL'),</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B42" s="2" t="s">
         <v>683</v>
       </c>
@@ -4398,8 +6177,25 @@
         <f t="shared" si="0"/>
         <v>('TEST-A4-CASE041','사용자(APP)','폴더/파일 공통','복사(다른폴더)','1. 대상 폴더/파일 우 클릭\n2. 컨텍스트 메뉴에서 복사 클릭\n3. 다른 폴더로 이동\n4. 붙여넣기 클릭','1. ECM WEB(APP) 접속\n2. 아이디, 패스워드 입력(testUsr001 / test)\n3. 로그인 버튼 클릭\n4. 좌측 내비게이션 바에서 부서문서함 &gt; 컨버전스사업팀 &gt; 단위테스트 폴더 이동','해당 폴더에서 복사본 확인 가능','','','','0','4.0'),</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O42" s="36" t="str">
+        <f t="shared" si="1"/>
+        <v>TEST-A4-CASE041</v>
+      </c>
+      <c r="P42" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q42" s="1" t="s">
+        <v>865</v>
+      </c>
+      <c r="R42" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="S42" s="36" t="str">
+        <f t="shared" si="2"/>
+        <v>('TEST-A4-CASE041','actionUrl','/selenium/4/default/case041/start.do','케이스041 URL'),</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B43" s="2" t="s">
         <v>684</v>
       </c>
@@ -4434,8 +6230,25 @@
         <f t="shared" si="0"/>
         <v>('TEST-A4-CASE042','사용자(APP)','폴더/파일 공통','복사(하위폴더)','1. 대상 폴더 우 클릭\n2. 컨텍스트 메뉴에서 복사 클릭\n3. 동일한 폴더의 하위 폴더로 이동\n4. 붙여넣기 클릭','1. ECM WEB(APP) 접속\n2. 아이디, 패스워드 입력(testUsr001 / test)\n3. 로그인 버튼 클릭\n4. 좌측 내비게이션 바에서 부서문서함 &gt; 컨버전스사업팀 &gt; 단위테스트 폴더 이동','대상 폴더가 원본 폴더의 하위폴더입니다.` 오류창 뜸','','','','0','4.0'),</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O43" s="36" t="str">
+        <f t="shared" si="1"/>
+        <v>TEST-A4-CASE042</v>
+      </c>
+      <c r="P43" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q43" s="1" t="s">
+        <v>866</v>
+      </c>
+      <c r="R43" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="S43" s="36" t="str">
+        <f t="shared" si="2"/>
+        <v>('TEST-A4-CASE042','actionUrl','/selenium/4/default/case042/start.do','케이스042 URL'),</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B44" s="2" t="s">
         <v>685</v>
       </c>
@@ -4470,8 +6283,25 @@
         <f t="shared" si="0"/>
         <v>('TEST-A4-CASE043','사용자(APP)','폴더/파일 공통','이동(같은폴더)','1. 대상 폴더/파일 우 클릭\n2. 컨텍스트 메뉴에서 이동 클릭\n3. 붙여넣기 클릭','1. ECM WEB(APP) 접속\n2. 아이디, 패스워드 입력(testUsr001 / test)\n3. 로그인 버튼 클릭\n4. 좌측 내비게이션 바에서 부서문서함 &gt; 컨버전스사업팀 &gt; 단위테스트 폴더 이동','같은 폴더로 이동할 수 없습니다.` 오류창 뜸','','','','0','4.0'),</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O44" s="36" t="str">
+        <f t="shared" si="1"/>
+        <v>TEST-A4-CASE043</v>
+      </c>
+      <c r="P44" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q44" s="1" t="s">
+        <v>867</v>
+      </c>
+      <c r="R44" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="S44" s="36" t="str">
+        <f t="shared" si="2"/>
+        <v>('TEST-A4-CASE043','actionUrl','/selenium/4/default/case043/start.do','케이스043 URL'),</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B45" s="2" t="s">
         <v>686</v>
       </c>
@@ -4506,8 +6336,25 @@
         <f t="shared" si="0"/>
         <v>('TEST-A4-CASE044','사용자(APP)','폴더/파일 공통','이동(다른폴더)','1. 대상 폴더/파일 우 클릭\n2. 컨텍스트 메뉴에서 이동 클릭\n3. 다른 폴더로 이동\n3. 붙여넣기 클릭','1. ECM WEB(APP) 접속\n2. 아이디, 패스워드 입력(testUsr001 / test)\n3. 로그인 버튼 클릭\n4. 좌측 내비게이션 바에서 부서문서함 &gt; 컨버전스사업팀 &gt; 단위테스트 폴더 이동','해당 폴더에서 이동한 폴더/파일 확인 가능','','','','0','4.0'),</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O45" s="36" t="str">
+        <f t="shared" si="1"/>
+        <v>TEST-A4-CASE044</v>
+      </c>
+      <c r="P45" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q45" s="1" t="s">
+        <v>868</v>
+      </c>
+      <c r="R45" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="S45" s="36" t="str">
+        <f t="shared" si="2"/>
+        <v>('TEST-A4-CASE044','actionUrl','/selenium/4/default/case044/start.do','케이스044 URL'),</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B46" s="2" t="s">
         <v>687</v>
       </c>
@@ -4542,8 +6389,25 @@
         <f t="shared" si="0"/>
         <v>('TEST-A4-CASE045','사용자(APP)','폴더/파일 공통','이동(하위폴더)','1. 대상 폴더 우 클릭\n2. 컨텍스트 메뉴에서 이동 클릭\n3. 동일한 폴더의 하위 폴더로 이동\n4. 붙여넣기 클릭','1. ECM WEB(APP) 접속\n2. 아이디, 패스워드 입력(testUsr001 / test)\n3. 로그인 버튼 클릭\n4. 좌측 내비게이션 바에서 부서문서함 &gt; 컨버전스사업팀 &gt; 단위테스트 폴더 이동','대상 폴더가 원본 폴더의 하위폴더입니다.` 오류창 뜸','','','','0','4.0'),</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O46" s="36" t="str">
+        <f t="shared" si="1"/>
+        <v>TEST-A4-CASE045</v>
+      </c>
+      <c r="P46" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q46" s="1" t="s">
+        <v>869</v>
+      </c>
+      <c r="R46" s="1" t="s">
+        <v>779</v>
+      </c>
+      <c r="S46" s="36" t="str">
+        <f t="shared" si="2"/>
+        <v>('TEST-A4-CASE045','actionUrl','/selenium/4/default/case045/start.do','케이스045 URL'),</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B47" s="2" t="s">
         <v>688</v>
       </c>
@@ -4580,8 +6444,25 @@
         <f t="shared" si="0"/>
         <v>('TEST-A4-CASE046','사용자(APP)','폴더/파일 공통','삭제','1. 대상 폴더/파일 우 클릭(또는 오른쪽 상단 휴지통 아이콘 클릭)\n2. 컨텍스트 메뉴에서 삭제 클릭\n3. 알림창에서 삭제 클릭','1. ECM WEB(APP) 접속\n2. 아이디, 패스워드 입력(testUsr001 / test)\n3. 로그인 버튼 클릭\n4. 좌측 내비게이션 바에서 부서문서함 &gt; 컨버전스사업팀 &gt; 단위테스트 폴더 이동','대상 폴더 리스트에서 파일 삭제 확인','안요한','','','0.125','4.0'),</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O47" s="36" t="str">
+        <f t="shared" si="1"/>
+        <v>TEST-A4-CASE046</v>
+      </c>
+      <c r="P47" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q47" s="1" t="s">
+        <v>870</v>
+      </c>
+      <c r="R47" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="S47" s="36" t="str">
+        <f t="shared" si="2"/>
+        <v>('TEST-A4-CASE046','actionUrl','/selenium/4/default/case046/start.do','케이스046 URL'),</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B48" s="2" t="s">
         <v>689</v>
       </c>
@@ -4616,8 +6497,25 @@
         <f t="shared" si="0"/>
         <v>('TEST-A4-CASE047','사용자(APP)','폴더/파일 공통','휴지통 지원','TEDM-APP-049 참조','','휴지통에서 삭제된 파일 확인 가능','','','','0','4.0'),</v>
       </c>
-    </row>
-    <row r="49" spans="2:14" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O48" s="36" t="str">
+        <f t="shared" si="1"/>
+        <v>TEST-A4-CASE047</v>
+      </c>
+      <c r="P48" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q48" s="1" t="s">
+        <v>871</v>
+      </c>
+      <c r="R48" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="S48" s="36" t="str">
+        <f t="shared" si="2"/>
+        <v>('TEST-A4-CASE047','actionUrl','/selenium/4/default/case047/start.do','케이스047 URL'),</v>
+      </c>
+    </row>
+    <row r="49" spans="2:19" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B49" s="2" t="s">
         <v>690</v>
       </c>
@@ -4652,8 +6550,25 @@
         <f t="shared" si="0"/>
         <v>('TEST-A4-CASE048','사용자(APP)','폴더/파일 공통','삭제 복원(원래 위치)','1. 대상 폴더/파일 우 클릭\n2. 컨텍스트 메뉴에서 복원 클릭\n3. 원래 위치로 복원 체크\n4. 복원 클릭','1. ECM WEB(APP) 접속\n2. 아이디, 패스워드 입력(testUsr001 / test)\n3. 로그인 버튼 클릭\n4. 좌측 내비게이션 바에서 휴지통 이동','삭제했던 위치 정상 복원 후 휴지통 리스트에서 제거','','','','0','4.0'),</v>
       </c>
-    </row>
-    <row r="50" spans="2:14" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O49" s="36" t="str">
+        <f t="shared" si="1"/>
+        <v>TEST-A4-CASE048</v>
+      </c>
+      <c r="P49" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q49" s="1" t="s">
+        <v>872</v>
+      </c>
+      <c r="R49" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="S49" s="36" t="str">
+        <f t="shared" si="2"/>
+        <v>('TEST-A4-CASE048','actionUrl','/selenium/4/default/case048/start.do','케이스048 URL'),</v>
+      </c>
+    </row>
+    <row r="50" spans="2:19" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B50" s="2" t="s">
         <v>691</v>
       </c>
@@ -4688,8 +6603,25 @@
         <f t="shared" si="0"/>
         <v>('TEST-A4-CASE049','사용자(APP)','폴더/파일 공통','삭제 복원(위치 지정)','1. 대상 폴더/파일 우 클릭\n2. 컨텍스트 메뉴에서 복원 클릭\n3. `복구할 위치 지정` 체크\n4. `모든 문서함` 클릭\n5. 복귀 위치 지정 후 확인 클릭\n6. 복원 클릭','1. ECM WEB(APP) 접속\n2. 아이디, 패스워드 입력(testUsr001 / test)\n3. 로그인 버튼 클릭\n4. 좌측 내비게이션 바에서 휴지통 이동','복구 지정 위치 정상 복원 후 휴지통 리스트에서 제거','','','','0','4.0'),</v>
       </c>
-    </row>
-    <row r="51" spans="2:14" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O50" s="36" t="str">
+        <f t="shared" si="1"/>
+        <v>TEST-A4-CASE049</v>
+      </c>
+      <c r="P50" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q50" s="1" t="s">
+        <v>873</v>
+      </c>
+      <c r="R50" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="S50" s="36" t="str">
+        <f t="shared" si="2"/>
+        <v>('TEST-A4-CASE049','actionUrl','/selenium/4/default/case049/start.do','케이스049 URL'),</v>
+      </c>
+    </row>
+    <row r="51" spans="2:19" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B51" s="2" t="s">
         <v>692</v>
       </c>
@@ -4724,8 +6656,25 @@
         <f t="shared" si="0"/>
         <v>('TEST-A4-CASE050','사용자(APP)','폴더/파일 공통','삭제 복원(위치 지정 - 취소)','1. 대상 폴더/파일 우 클릭\n2. 컨텍스트 메뉴에서 복원 클릭\n3. `복구할 위치 지정` 체크\n4. `모든 문서함` 클릭\n5. 복귀 위치 지정 후 확인 클릭\n6. 취소 클릭','1. ECM WEB(APP) 접속\n2. 아이디, 패스워드 입력(testUsr001 / test)\n3. 로그인 버튼 클릭\n4. 좌측 내비게이션 바에서 휴지통 이동','모든 문서함으로 변경 확인','','','','0','4.0'),</v>
       </c>
-    </row>
-    <row r="52" spans="2:14" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O51" s="36" t="str">
+        <f t="shared" si="1"/>
+        <v>TEST-A4-CASE050</v>
+      </c>
+      <c r="P51" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q51" s="1" t="s">
+        <v>874</v>
+      </c>
+      <c r="R51" s="1" t="s">
+        <v>784</v>
+      </c>
+      <c r="S51" s="36" t="str">
+        <f t="shared" si="2"/>
+        <v>('TEST-A4-CASE050','actionUrl','/selenium/4/default/case050/start.do','케이스050 URL'),</v>
+      </c>
+    </row>
+    <row r="52" spans="2:19" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B52" s="2" t="s">
         <v>693</v>
       </c>
@@ -4760,8 +6709,25 @@
         <f t="shared" si="0"/>
         <v>('TEST-A4-CASE051','사용자(APP)','폴더/파일 공통','의견쓰기','TEDM-APP-062 참조','','편집완료 시 comment 작성','','','','0','4.0'),</v>
       </c>
-    </row>
-    <row r="53" spans="2:14" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O52" s="36" t="str">
+        <f t="shared" si="1"/>
+        <v>TEST-A4-CASE051</v>
+      </c>
+      <c r="P52" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q52" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="R52" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="S52" s="36" t="str">
+        <f t="shared" si="2"/>
+        <v>('TEST-A4-CASE051','actionUrl','/selenium/4/default/case051/start.do','케이스051 URL'),</v>
+      </c>
+    </row>
+    <row r="53" spans="2:19" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B53" s="2" t="s">
         <v>694</v>
       </c>
@@ -4796,8 +6762,25 @@
         <f t="shared" si="0"/>
         <v>('TEST-A4-CASE052','사용자(APP)','파일 기능','다운로드(단일)','1. 대상 파일 우 클릭(또는 더블클릭)\n2. 컨텍스트 메뉴에서 다운로드 클릭','1. ECM WEB(APP) 접속\n2. 아이디, 패스워드 입력(testUsr001 / test)\n3. 로그인 버튼 클릭\n4. 좌측 내비게이션 바에서 부서문서함 &gt; 컨버전스사업팀 &gt; 단위테스트 폴더 이동','다운로드 폴더에서 확인 가능','','','','0','4.0'),</v>
       </c>
-    </row>
-    <row r="54" spans="2:14" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O53" s="36" t="str">
+        <f t="shared" si="1"/>
+        <v>TEST-A4-CASE052</v>
+      </c>
+      <c r="P53" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q53" s="1" t="s">
+        <v>876</v>
+      </c>
+      <c r="R53" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="S53" s="36" t="str">
+        <f t="shared" si="2"/>
+        <v>('TEST-A4-CASE052','actionUrl','/selenium/4/default/case052/start.do','케이스052 URL'),</v>
+      </c>
+    </row>
+    <row r="54" spans="2:19" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B54" s="2" t="s">
         <v>695</v>
       </c>
@@ -4834,8 +6817,25 @@
         <f t="shared" si="0"/>
         <v>('TEST-A4-CASE053','사용자(APP)','파일 기능','다운로드(복수)','1. 대상 파일 목록 shift or ctrl 키로 선택\n2. 우클릭\n3. 컨텍스트 메뉴에서 다운로드 클릭','1. ECM WEB(APP) 접속\n2. 아이디, 패스워드 입력(testUsr001 / test)\n3. 로그인 버튼 클릭\n4. 좌측 내비게이션 바에서 부서문서함 &gt; 컨버전스사업팀 &gt; 단위테스트 폴더 이동','다운로드 폴더에서 (대상파일명.zip) 이름으로 다운로드','안요한\n신설원','','','0.125','4.0'),</v>
       </c>
-    </row>
-    <row r="55" spans="2:14" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O54" s="36" t="str">
+        <f t="shared" si="1"/>
+        <v>TEST-A4-CASE053</v>
+      </c>
+      <c r="P54" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q54" s="1" t="s">
+        <v>877</v>
+      </c>
+      <c r="R54" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="S54" s="36" t="str">
+        <f t="shared" si="2"/>
+        <v>('TEST-A4-CASE053','actionUrl','/selenium/4/default/case053/start.do','케이스053 URL'),</v>
+      </c>
+    </row>
+    <row r="55" spans="2:19" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B55" s="2" t="s">
         <v>696</v>
       </c>
@@ -4870,8 +6870,25 @@
         <f t="shared" si="0"/>
         <v>('TEST-A4-CASE054','사용자(APP)','파일 기능','폴더 다운로드','1. 대상 폴더 우 클릭\n2. 컨텍스트 메뉴에서 다운로드 클릭','1. ECM WEB(APP) 접속\n2. 아이디, 패스워드 입력(testUsr001 / test)\n3. 로그인 버튼 클릭\n4. 좌측 내비게이션 바에서 부서문서함 &gt; 컨버전스사업팀 &gt; 단위테스트 폴더 이동','폴더를 zip 으로 다운로드','','','','0','4.0'),</v>
       </c>
-    </row>
-    <row r="56" spans="2:14" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O55" s="36" t="str">
+        <f t="shared" si="1"/>
+        <v>TEST-A4-CASE054</v>
+      </c>
+      <c r="P55" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q55" s="1" t="s">
+        <v>878</v>
+      </c>
+      <c r="R55" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="S55" s="36" t="str">
+        <f t="shared" si="2"/>
+        <v>('TEST-A4-CASE054','actionUrl','/selenium/4/default/case054/start.do','케이스054 URL'),</v>
+      </c>
+    </row>
+    <row r="56" spans="2:19" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B56" s="2" t="s">
         <v>697</v>
       </c>
@@ -4906,8 +6923,25 @@
         <f t="shared" si="0"/>
         <v>('TEST-A4-CASE055','사용자(APP)','파일 기능','파일 등록(선택 등록)','1. 오른쪽 상단 새로만들기 클릭\n2. 파일 업로드 클릭\n3. 창에서 파일 선택\n4. 파일 찾아서 지우기','1. ECM WEB(APP) 접속\n2. 아이디, 패스워드 입력(testUsr001 / test)\n3. 로그인 버튼 클릭\n4. 좌측 내비게이션 바에서 부서문서함 &gt; 컨버전스사업팀 &gt; 단위테스트 폴더 이동','대상 파일 등록 확인 및 다운로드 정상 확인','','','','0','4.0'),</v>
       </c>
-    </row>
-    <row r="57" spans="2:14" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O56" s="36" t="str">
+        <f t="shared" si="1"/>
+        <v>TEST-A4-CASE055</v>
+      </c>
+      <c r="P56" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q56" s="1" t="s">
+        <v>879</v>
+      </c>
+      <c r="R56" s="1" t="s">
+        <v>789</v>
+      </c>
+      <c r="S56" s="36" t="str">
+        <f t="shared" si="2"/>
+        <v>('TEST-A4-CASE055','actionUrl','/selenium/4/default/case055/start.do','케이스055 URL'),</v>
+      </c>
+    </row>
+    <row r="57" spans="2:19" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B57" s="2" t="s">
         <v>698</v>
       </c>
@@ -4942,8 +6976,25 @@
         <f t="shared" si="0"/>
         <v>('TEST-A4-CASE056','사용자(APP)','파일 기능','파일 등록(파일 생성)','1. 오른쪽 상단 새로만들기 클릭\n2. 파일생성 클릭(TXT,Word,Excel,PPT)\n3. 파일명 입력 후 확인 클릭\n4. 창에서 파일 선택','1. ECM WEB(APP) 접속\n2. 아이디, 패스워드 입력(testUsr001 / test)\n3. 로그인 버튼 클릭\n4. 좌측 내비게이션 바에서 부서문서함 &gt; 컨버전스사업팀 &gt; 단위테스트 폴더 이동','대상 파일 등록 확인 및 다운로드 정상 확인','','','','0','4.0'),</v>
       </c>
-    </row>
-    <row r="58" spans="2:14" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O57" s="36" t="str">
+        <f t="shared" si="1"/>
+        <v>TEST-A4-CASE056</v>
+      </c>
+      <c r="P57" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q57" s="1" t="s">
+        <v>880</v>
+      </c>
+      <c r="R57" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="S57" s="36" t="str">
+        <f t="shared" si="2"/>
+        <v>('TEST-A4-CASE056','actionUrl','/selenium/4/default/case056/start.do','케이스056 URL'),</v>
+      </c>
+    </row>
+    <row r="58" spans="2:19" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B58" s="2" t="s">
         <v>699</v>
       </c>
@@ -4978,8 +7029,25 @@
         <f t="shared" si="0"/>
         <v>('TEST-A4-CASE057','사용자(APP)','파일 기능','체크아웃','1. 대상 파일 우 클릭\n2. 컨텍스트 메뉴에서 편집 클릭','1. ECM WEB(APP) 접속\n2. 아이디, 패스워드 입력(testUsr001 / test)\n3. 로그인 버튼 클릭\n4. 좌측 내비게이션 바에서 부서문서함 &gt; 컨버전스사업팀 &gt; 단위테스트 폴더 이동','다운로드 문서 정상 확인 및 잠금표시 확인','','','','0','4.0'),</v>
       </c>
-    </row>
-    <row r="59" spans="2:14" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O58" s="36" t="str">
+        <f t="shared" si="1"/>
+        <v>TEST-A4-CASE057</v>
+      </c>
+      <c r="P58" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q58" s="1" t="s">
+        <v>881</v>
+      </c>
+      <c r="R58" s="1" t="s">
+        <v>791</v>
+      </c>
+      <c r="S58" s="36" t="str">
+        <f t="shared" si="2"/>
+        <v>('TEST-A4-CASE057','actionUrl','/selenium/4/default/case057/start.do','케이스057 URL'),</v>
+      </c>
+    </row>
+    <row r="59" spans="2:19" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B59" s="2" t="s">
         <v>700</v>
       </c>
@@ -5014,8 +7082,25 @@
         <f t="shared" si="0"/>
         <v>('TEST-A4-CASE058','사용자(APP)','파일 기능','체크인 - 편집취소','1. 대상 파일 우 클릭\n2. 컨텍스트 메뉴에서 편집취소 클릭','1. ECM WEB(APP) 접속\n2. 아이디, 패스워드 입력(testUsr001 / test)\n3. 로그인 버튼 클릭\n4. 좌측 내비게이션 바에서 부서문서함 &gt; 컨버전스사업팀 &gt; 단위테스트 폴더 이동','문서 버전 변경 없음 확인','','','','0','4.0'),</v>
       </c>
-    </row>
-    <row r="60" spans="2:14" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O59" s="36" t="str">
+        <f t="shared" si="1"/>
+        <v>TEST-A4-CASE058</v>
+      </c>
+      <c r="P59" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q59" s="1" t="s">
+        <v>882</v>
+      </c>
+      <c r="R59" s="1" t="s">
+        <v>792</v>
+      </c>
+      <c r="S59" s="36" t="str">
+        <f t="shared" si="2"/>
+        <v>('TEST-A4-CASE058','actionUrl','/selenium/4/default/case058/start.do','케이스058 URL'),</v>
+      </c>
+    </row>
+    <row r="60" spans="2:19" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B60" s="2" t="s">
         <v>701</v>
       </c>
@@ -5050,8 +7135,25 @@
         <f t="shared" si="0"/>
         <v>('TEST-A4-CASE059','사용자(APP)','파일 기능','체크인 - 편집완료','1. 대상 파일 우 클릭\n2. 컨텍스트 메뉴에서 편집완료 클릭\n3. 마이너버전 / 메이저버전 선택\n4. 코멘트 작성\n5. 편집완료 클릭','1. ECM WEB(APP) 접속\n2. 아이디, 패스워드 입력(testUsr001 / test)\n3. 로그인 버튼 클릭\n4. 좌측 내비게이션 바에서 부서문서함 &gt; 컨버전스사업팀 &gt; 단위테스트 폴더 이동','문서 버전 변경 확인 및 다운로드시 정상 버전 확인','','','','0','4.0'),</v>
       </c>
-    </row>
-    <row r="61" spans="2:14" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O60" s="36" t="str">
+        <f t="shared" si="1"/>
+        <v>TEST-A4-CASE059</v>
+      </c>
+      <c r="P60" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q60" s="1" t="s">
+        <v>883</v>
+      </c>
+      <c r="R60" s="1" t="s">
+        <v>793</v>
+      </c>
+      <c r="S60" s="36" t="str">
+        <f t="shared" si="2"/>
+        <v>('TEST-A4-CASE059','actionUrl','/selenium/4/default/case059/start.do','케이스059 URL'),</v>
+      </c>
+    </row>
+    <row r="61" spans="2:19" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B61" s="2" t="s">
         <v>702</v>
       </c>
@@ -5086,8 +7188,25 @@
         <f t="shared" si="0"/>
         <v>('TEST-A4-CASE060','사용자(APP)','파일 기능','버전관리 - 새로만들기','1. 오른쪽 상단 새로만들기 클릭\n2. 파일 업로드 클릭\n3. 창에서 동일한 파일 명의 파일 선택','1. ECM WEB(APP) 접속\n2. 아이디, 패스워드 입력(testUsr001 / test)\n3. 로그인 버튼 클릭\n4. 좌측 내비게이션 바에서 부서문서함 &gt; 컨버전스사업팀 &gt; 단위테스트 폴더 이동','문서 버전 변경 확인 및 다운로드시 정상 버전 확인','','','','0','4.0'),</v>
       </c>
-    </row>
-    <row r="62" spans="2:14" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O61" s="36" t="str">
+        <f t="shared" si="1"/>
+        <v>TEST-A4-CASE060</v>
+      </c>
+      <c r="P61" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q61" s="1" t="s">
+        <v>884</v>
+      </c>
+      <c r="R61" s="1" t="s">
+        <v>794</v>
+      </c>
+      <c r="S61" s="36" t="str">
+        <f t="shared" si="2"/>
+        <v>('TEST-A4-CASE060','actionUrl','/selenium/4/default/case060/start.do','케이스060 URL'),</v>
+      </c>
+    </row>
+    <row r="62" spans="2:19" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B62" s="2" t="s">
         <v>703</v>
       </c>
@@ -5124,8 +7243,25 @@
         <f t="shared" si="0"/>
         <v>('TEST-A4-CASE061','사용자(APP)','파일 기능','버전관리 - 편집','1. 대상 파일 우 클릭\n2. 컨텍스트 메뉴에서 편집 클릭\n3. 대상 파일 우 클릭(또는 더블클릭)\n4. 컨텍스트 메뉴에서 편집완료 클릭\n5. 마이너버전 / 메이저버전 선택\n6. 코멘트 작성\n7. 편집완료 클릭','1. ECM WEB(APP) 접속\n2. 아이디, 패스워드 입력(testUsr001 / test)\n3. 로그인 버튼 클릭\n4. 좌측 내비게이션 바에서 부서문서함 &gt; 컨버전스사업팀 &gt; 단위테스트 폴더 이동','문서 버전 변경 확인 및 다운로드시 정상 버전 확인','안요한\n신설원','','','0.0208333333333333','4.0'),</v>
       </c>
-    </row>
-    <row r="63" spans="2:14" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O62" s="36" t="str">
+        <f t="shared" si="1"/>
+        <v>TEST-A4-CASE061</v>
+      </c>
+      <c r="P62" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q62" s="1" t="s">
+        <v>885</v>
+      </c>
+      <c r="R62" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="S62" s="36" t="str">
+        <f t="shared" si="2"/>
+        <v>('TEST-A4-CASE061','actionUrl','/selenium/4/default/case061/start.do','케이스061 URL'),</v>
+      </c>
+    </row>
+    <row r="63" spans="2:19" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B63" s="2" t="s">
         <v>704</v>
       </c>
@@ -5160,8 +7296,25 @@
         <f t="shared" si="0"/>
         <v>('TEST-A4-CASE062','사용자(APP)','파일 기능','버전 되돌리기','1. 대상 파일 우 클릭\n2. 컨텍스트 메뉴에서 세부정보 클릭\n3. 버전관리 클릭\n4. 옵션 버튼 클릭\n5. 이전 버전복구 클릭\n6. 알림창에서 확인 클릭','1. ECM WEB(APP) 접속\n2. 아이디, 패스워드 입력(testUsr001 / test)\n3. 로그인 버튼 클릭\n4. 좌측 내비게이션 바에서 부서문서함 &gt; 컨버전스사업팀 &gt; 단위테스트 폴더 이동','메이저 버전 업 및 다운로드 시 정상 버전 확인','','','','0','4.0'),</v>
       </c>
-    </row>
-    <row r="64" spans="2:14" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O63" s="36" t="str">
+        <f t="shared" si="1"/>
+        <v>TEST-A4-CASE062</v>
+      </c>
+      <c r="P63" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q63" s="1" t="s">
+        <v>886</v>
+      </c>
+      <c r="R63" s="1" t="s">
+        <v>796</v>
+      </c>
+      <c r="S63" s="36" t="str">
+        <f t="shared" si="2"/>
+        <v>('TEST-A4-CASE062','actionUrl','/selenium/4/default/case062/start.do','케이스062 URL'),</v>
+      </c>
+    </row>
+    <row r="64" spans="2:19" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B64" s="2" t="s">
         <v>705</v>
       </c>
@@ -5198,8 +7351,25 @@
         <f t="shared" si="0"/>
         <v>('TEST-A4-CASE063','사용자(APP)','파일 기능','해당 버전 다운로드','1. 대상 파일 우 클릭\n2. 컨텍스트 메뉴에서 세부정보 클릭\n3. 버전관리 클릭\n4. 옵션 버튼 클릭\n5. 다운로드 클릭','1. ECM WEB(APP) 접속\n2. 아이디, 패스워드 입력(testUsr001 / test)\n3. 로그인 버튼 클릭\n4. 좌측 내비게이션 바에서 부서문서함 &gt; 컨버전스사업팀 &gt; 단위테스트 폴더 이동','해당 버전의 파일 다운로드 확인','장홍철','','','0.298611111111111','4.0'),</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O64" s="36" t="str">
+        <f t="shared" si="1"/>
+        <v>TEST-A4-CASE063</v>
+      </c>
+      <c r="P64" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q64" s="1" t="s">
+        <v>887</v>
+      </c>
+      <c r="R64" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="S64" s="36" t="str">
+        <f t="shared" si="2"/>
+        <v>('TEST-A4-CASE063','actionUrl','/selenium/4/default/case063/start.do','케이스063 URL'),</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B65" s="2" t="s">
         <v>706</v>
       </c>
@@ -5234,8 +7404,25 @@
         <f t="shared" si="0"/>
         <v>('TEST-A4-CASE064','사용자(APP)','파일 기능','버전 상세보기','1. 대상 파일 우 클릭\n2. 컨텍스트 메뉴에서 세부정보 클릭\n3. 버전관리 클릭','1. ECM WEB(APP) 접속\n2. 아이디, 패스워드 입력(testUsr001 / test)\n3. 로그인 버튼 클릭\n4. 좌측 내비게이션 바에서 부서문서함 &gt; 컨버전스사업팀 &gt; 단위테스트 폴더 이동','창에서 이전 버전 리스트 확인','','','','0','4.0'),</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O65" s="36" t="str">
+        <f t="shared" si="1"/>
+        <v>TEST-A4-CASE064</v>
+      </c>
+      <c r="P65" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q65" s="1" t="s">
+        <v>888</v>
+      </c>
+      <c r="R65" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="S65" s="36" t="str">
+        <f t="shared" si="2"/>
+        <v>('TEST-A4-CASE064','actionUrl','/selenium/4/default/case064/start.do','케이스064 URL'),</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B66" s="2" t="s">
         <v>707</v>
       </c>
@@ -5270,8 +7457,25 @@
         <f t="shared" si="0"/>
         <v>('TEST-A4-CASE065','사용자(APP)','파일 기능','압축해제','1. 대상 파일 우 클릭\n2. 컨텍스트 메뉴에서 압축풀기 클릭\n3. 창에서 확인 클릭','1. ECM WEB(APP) 접속\n2. 아이디, 패스워드 입력(testUsr001 / test)\n3. 로그인 버튼 클릭\n4. 좌측 내비게이션 바에서 부서문서함 &gt; 컨버전스사업팀 &gt; 단위테스트 폴더 이동','압축한 파일','','','','0','4.0'),</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O66" s="36" t="str">
+        <f t="shared" si="1"/>
+        <v>TEST-A4-CASE065</v>
+      </c>
+      <c r="P66" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q66" s="1" t="s">
+        <v>889</v>
+      </c>
+      <c r="R66" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="S66" s="36" t="str">
+        <f t="shared" si="2"/>
+        <v>('TEST-A4-CASE065','actionUrl','/selenium/4/default/case065/start.do','케이스065 URL'),</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B67" s="2" t="s">
         <v>708</v>
       </c>
@@ -5303,11 +7507,28 @@
         <v>205</v>
       </c>
       <c r="N67" s="17" t="str">
-        <f t="shared" ref="N67:N91" si="1">CONCATENATE("('",B67,"','",C67,"','",D67,"','",E67,"','",F67,"','",G67,"','",H67,"','",I67,"','",J67,"','",K67,"','",L67,"','",M67,"'),")</f>
+        <f t="shared" ref="N67:N91" si="3">CONCATENATE("('",B67,"','",C67,"','",D67,"','",E67,"','",F67,"','",G67,"','",H67,"','",I67,"','",J67,"','",K67,"','",L67,"','",M67,"'),")</f>
         <v>('TEST-A4-CASE066','사용자(APP)','파일 기능','상세보기','1. 대상 폴더/파일 우 클릭\n2. 컨텍스트 메뉴에서 세부정보 클릭','1. ECM WEB(APP) 접속\n2. 아이디, 패스워드 입력(testUsr001 / test)\n3. 로그인 버튼 클릭\n4. 좌측 내비게이션 바에서 부서문서함 &gt; 컨버전스사업팀 &gt; 단위테스트 폴더 이동','속성 창 확인 가능','','','','0','4.0'),</v>
       </c>
-    </row>
-    <row r="68" spans="2:14" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O67" s="36" t="str">
+        <f t="shared" ref="O67:O91" si="4">B67</f>
+        <v>TEST-A4-CASE066</v>
+      </c>
+      <c r="P67" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q67" s="1" t="s">
+        <v>890</v>
+      </c>
+      <c r="R67" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="S67" s="36" t="str">
+        <f t="shared" ref="S67:S91" si="5">CONCATENATE("('",O67,"','",P67,"','",Q67,"','",R67,"'),")</f>
+        <v>('TEST-A4-CASE066','actionUrl','/selenium/4/default/case066/start.do','케이스066 URL'),</v>
+      </c>
+    </row>
+    <row r="68" spans="2:19" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B68" s="2" t="s">
         <v>709</v>
       </c>
@@ -5339,11 +7560,28 @@
         <v>205</v>
       </c>
       <c r="N68" s="17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>('TEST-A4-CASE067','사용자(APP)','파일 기능','미리보기','1. 대상 파일 더블클릭','1. ECM WEB(APP) 접속\n2. 아이디, 패스워드 입력(testUsr001 / test)\n3. 로그인 버튼 클릭\n4. 좌측 내비게이션 바에서 부서문서함 &gt; 컨버전스사업팀 &gt; 단위테스트 폴더 이동','오피스, 이미지, 아래한글, pdf 문서의 프리뷰 기능 제공','','','','0','4.0'),</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O68" s="36" t="str">
+        <f t="shared" si="4"/>
+        <v>TEST-A4-CASE067</v>
+      </c>
+      <c r="P68" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q68" s="1" t="s">
+        <v>891</v>
+      </c>
+      <c r="R68" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="S68" s="36" t="str">
+        <f t="shared" si="5"/>
+        <v>('TEST-A4-CASE067','actionUrl','/selenium/4/default/case067/start.do','케이스067 URL'),</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B69" s="2" t="s">
         <v>710</v>
       </c>
@@ -5377,11 +7615,28 @@
         <v>205</v>
       </c>
       <c r="N69" s="17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>('TEST-A4-CASE068','사용자(APP)','파일 기능','이력','1. 대상 파일 우 클릭\n2. 컨텍스트 메뉴에서 세부정보 클릭\n3. 이력 탭 클릭','1. ECM WEB(APP) 접속\n2. 아이디, 패스워드 입력(testUsr001 / test)\n3. 로그인 버튼 클릭\n4. 좌측 내비게이션 바에서 부서문서함 &gt; 컨버전스사업팀 &gt; 단위테스트 폴더 이동','파일의 생성, 수정, 다운로드 등의 이벤트 확인','장홍철','','','0.0208333333333333','4.0'),</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O69" s="36" t="str">
+        <f t="shared" si="4"/>
+        <v>TEST-A4-CASE068</v>
+      </c>
+      <c r="P69" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q69" s="1" t="s">
+        <v>892</v>
+      </c>
+      <c r="R69" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="S69" s="36" t="str">
+        <f t="shared" si="5"/>
+        <v>('TEST-A4-CASE068','actionUrl','/selenium/4/default/case068/start.do','케이스068 URL'),</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B70" s="2" t="s">
         <v>711</v>
       </c>
@@ -5413,11 +7668,28 @@
         <v>205</v>
       </c>
       <c r="N70" s="17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>('TEST-A4-CASE069','사용자(APP)','폴더 기능','폴더 다운로드','TEDM-APP-057 참조','','폴더를 zip 으로 다운로드','','','','0','4.0'),</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O70" s="36" t="str">
+        <f t="shared" si="4"/>
+        <v>TEST-A4-CASE069</v>
+      </c>
+      <c r="P70" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q70" s="1" t="s">
+        <v>893</v>
+      </c>
+      <c r="R70" s="1" t="s">
+        <v>803</v>
+      </c>
+      <c r="S70" s="36" t="str">
+        <f t="shared" si="5"/>
+        <v>('TEST-A4-CASE069','actionUrl','/selenium/4/default/case069/start.do','케이스069 URL'),</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B71" s="2" t="s">
         <v>712</v>
       </c>
@@ -5451,11 +7723,28 @@
         <v>205</v>
       </c>
       <c r="N71" s="17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>('TEST-A4-CASE070','사용자(APP)','폴더 기능','폴더 생성','1. 오른쪽 상단 새로만들기 클릭\n2. 폴더 클릭\n3. 창에서 폴더명 입력\n4. 확인 클릭','1. ECM WEB(APP) 접속\n2. 아이디, 패스워드 입력(testUsr001 / test)\n3. 로그인 버튼 클릭\n4. 좌측 내비게이션 바에서 부서문서함 &gt; 컨버전스사업팀 &gt; 단위테스트 폴더 이동','폴더 신규 생성 확인','안요한\n신설원','','','0.208333333333333','4.0'),</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O71" s="36" t="str">
+        <f t="shared" si="4"/>
+        <v>TEST-A4-CASE070</v>
+      </c>
+      <c r="P71" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q71" s="1" t="s">
+        <v>894</v>
+      </c>
+      <c r="R71" s="1" t="s">
+        <v>804</v>
+      </c>
+      <c r="S71" s="36" t="str">
+        <f t="shared" si="5"/>
+        <v>('TEST-A4-CASE070','actionUrl','/selenium/4/default/case070/start.do','케이스070 URL'),</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B72" s="2" t="s">
         <v>713</v>
       </c>
@@ -5487,11 +7776,28 @@
         <v>205</v>
       </c>
       <c r="N72" s="17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>('TEST-A4-CASE071','사용자(APP)','폴더 기능','폴더별 용량 및 폴더/파일수 조회','1. 대상 폴더/파일 우 클릭\n2. 컨텍스트 메뉴에서 세부정보 클릭\n3. 크기 계산 클릭','1. ECM WEB(APP) 접속\n2. 아이디, 패스워드 입력(testUsr001 / test)\n3. 로그인 버튼 클릭\n4. 좌측 내비게이션 바에서 부서문서함 &gt; 컨버전스사업팀 &gt; 단위테스트 폴더 이동','폴더 크기 및 내용(폴더/파일 개수) 확인','','','','0','4.0'),</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O72" s="36" t="str">
+        <f t="shared" si="4"/>
+        <v>TEST-A4-CASE071</v>
+      </c>
+      <c r="P72" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q72" s="1" t="s">
+        <v>895</v>
+      </c>
+      <c r="R72" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="S72" s="36" t="str">
+        <f t="shared" si="5"/>
+        <v>('TEST-A4-CASE071','actionUrl','/selenium/4/default/case071/start.do','케이스071 URL'),</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B73" s="2" t="s">
         <v>714</v>
       </c>
@@ -5523,11 +7829,28 @@
         <v>205</v>
       </c>
       <c r="N73" s="17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>('TEST-A4-CASE072','사용자(APP)','폴더 기능','이력','1. 대상 폴더 우 클릭\n2. 컨텍스트 메뉴에서 세부정보 클릭\n3. 이력 탭 클릭','1. ECM WEB(APP) 접속\n2. 아이디, 패스워드 입력(testUsr001 / test)\n3. 로그인 버튼 클릭\n4. 좌측 내비게이션 바에서 부서문서함 &gt; 컨버전스사업팀 &gt; 단위테스트 폴더 이동','폴더의 생성, 수정, 다운로드 등의 이벤트 확인','','','','0','4.0'),</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O73" s="36" t="str">
+        <f t="shared" si="4"/>
+        <v>TEST-A4-CASE072</v>
+      </c>
+      <c r="P73" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q73" s="1" t="s">
+        <v>896</v>
+      </c>
+      <c r="R73" s="1" t="s">
+        <v>806</v>
+      </c>
+      <c r="S73" s="36" t="str">
+        <f t="shared" si="5"/>
+        <v>('TEST-A4-CASE072','actionUrl','/selenium/4/default/case072/start.do','케이스072 URL'),</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B74" s="2" t="s">
         <v>715</v>
       </c>
@@ -5559,11 +7882,28 @@
         <v>205</v>
       </c>
       <c r="N74" s="17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>('TEST-A4-CASE073','사용자(APP)','폴더 기능','알림 설정','기능(다운로드,삭제 등) 사용 시 체크가능','','알림 설정에 의한 알림 표시','','','','0','4.0'),</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O74" s="36" t="str">
+        <f t="shared" si="4"/>
+        <v>TEST-A4-CASE073</v>
+      </c>
+      <c r="P74" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q74" s="1" t="s">
+        <v>897</v>
+      </c>
+      <c r="R74" s="1" t="s">
+        <v>807</v>
+      </c>
+      <c r="S74" s="36" t="str">
+        <f t="shared" si="5"/>
+        <v>('TEST-A4-CASE073','actionUrl','/selenium/4/default/case073/start.do','케이스073 URL'),</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B75" s="2" t="s">
         <v>716</v>
       </c>
@@ -5595,11 +7935,28 @@
         <v>205</v>
       </c>
       <c r="N75" s="17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>('TEST-A4-CASE074','사용자(APP)','검색','일반 검색','1. 상단 검색창 클릭\n2. 검색창에 폴더/문서명 입력\n3. 엔터','1. ECM WEB(APP) 접속\n2. 아이디, 패스워드 입력(testUsr001 / test)\n3. 로그인 버튼 클릭','이름으로 조회 가능','','','','0','4.0'),</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O75" s="36" t="str">
+        <f t="shared" si="4"/>
+        <v>TEST-A4-CASE074</v>
+      </c>
+      <c r="P75" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q75" s="1" t="s">
+        <v>898</v>
+      </c>
+      <c r="R75" s="1" t="s">
+        <v>808</v>
+      </c>
+      <c r="S75" s="36" t="str">
+        <f t="shared" si="5"/>
+        <v>('TEST-A4-CASE074','actionUrl','/selenium/4/default/case074/start.do','케이스074 URL'),</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B76" s="2" t="s">
         <v>717</v>
       </c>
@@ -5631,11 +7988,28 @@
         <v>205</v>
       </c>
       <c r="N76" s="17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>('TEST-A4-CASE075','사용자(APP)','검색','일반 검색 - 옵션','1. 상단 검색창 옆 드롭다운 버튼 클릭\n2. 고급 클릭','1. ECM WEB(APP) 접속\n2. 아이디, 패스워드 입력(testUsr001 / test)\n3. 로그인 버튼 클릭','소유자 / 위치 / 수정날짜 / 생성날짜 / 수정자 / 생성자 리스트 확인','','','','0','4.0'),</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O76" s="36" t="str">
+        <f t="shared" si="4"/>
+        <v>TEST-A4-CASE075</v>
+      </c>
+      <c r="P76" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q76" s="1" t="s">
+        <v>899</v>
+      </c>
+      <c r="R76" s="1" t="s">
+        <v>809</v>
+      </c>
+      <c r="S76" s="36" t="str">
+        <f t="shared" si="5"/>
+        <v>('TEST-A4-CASE075','actionUrl','/selenium/4/default/case075/start.do','케이스075 URL'),</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B77" s="2" t="s">
         <v>718</v>
       </c>
@@ -5667,11 +8041,28 @@
         <v>205</v>
       </c>
       <c r="N77" s="17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>('TEST-A4-CASE076','사용자(APP)','검색','폴더 검색','TEDM-APP-081 참조','','폴더 검색 가능','','','','0','4.0'),</v>
       </c>
-    </row>
-    <row r="78" spans="2:14" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O77" s="36" t="str">
+        <f t="shared" si="4"/>
+        <v>TEST-A4-CASE076</v>
+      </c>
+      <c r="P77" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q77" s="1" t="s">
+        <v>900</v>
+      </c>
+      <c r="R77" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="S77" s="36" t="str">
+        <f t="shared" si="5"/>
+        <v>('TEST-A4-CASE076','actionUrl','/selenium/4/default/case076/start.do','케이스076 URL'),</v>
+      </c>
+    </row>
+    <row r="78" spans="2:19" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B78" s="2" t="s">
         <v>719</v>
       </c>
@@ -5703,11 +8094,28 @@
         <v>205</v>
       </c>
       <c r="N78" s="17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>('TEST-A4-CASE077','사용자(APP)','검색','빠른 검색','1. 상단 검색창 옆 드롭다운 버튼 클릭\n2. 소유자 드롭다운 버튼 클릭\n3. 특정 사용자 클릭\n4. 사용자 검색창에 사용자명 입력','1. ECM WEB(APP) 접속\n2. 아이디, 패스워드 입력(testUsr001 / test)\n3. 로그인 버튼 클릭','사용자 자동완성 완료','','','','0','4.0'),</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O78" s="36" t="str">
+        <f t="shared" si="4"/>
+        <v>TEST-A4-CASE077</v>
+      </c>
+      <c r="P78" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q78" s="1" t="s">
+        <v>901</v>
+      </c>
+      <c r="R78" s="1" t="s">
+        <v>811</v>
+      </c>
+      <c r="S78" s="36" t="str">
+        <f t="shared" si="5"/>
+        <v>('TEST-A4-CASE077','actionUrl','/selenium/4/default/case077/start.do','케이스077 URL'),</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B79" s="2" t="s">
         <v>720</v>
       </c>
@@ -5739,11 +8147,28 @@
         <v>205</v>
       </c>
       <c r="N79" s="17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>('TEST-A4-CASE078','사용자(APP)','부서문서함','부서함 관리','1. 좌측 내비게이션 바에서 부서문서함 클릭','1. ECM WEB(APP) 접속\n2. 아이디, 패스워드 입력(testUsr001 / test)\n3. 로그인 버튼 클릭','부서 사용자가 공유하여 문서를 쓰고 읽을 수 있는 공간, 권한을 통해 접근 통제함','','','','0','4.0'),</v>
       </c>
-    </row>
-    <row r="80" spans="2:14" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O79" s="36" t="str">
+        <f t="shared" si="4"/>
+        <v>TEST-A4-CASE078</v>
+      </c>
+      <c r="P79" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q79" s="1" t="s">
+        <v>902</v>
+      </c>
+      <c r="R79" s="1" t="s">
+        <v>812</v>
+      </c>
+      <c r="S79" s="36" t="str">
+        <f t="shared" si="5"/>
+        <v>('TEST-A4-CASE078','actionUrl','/selenium/4/default/case078/start.do','케이스078 URL'),</v>
+      </c>
+    </row>
+    <row r="80" spans="2:19" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B80" s="2" t="s">
         <v>721</v>
       </c>
@@ -5775,11 +8200,28 @@
         <v>205</v>
       </c>
       <c r="N80" s="17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>('TEST-A4-CASE079','사용자(APP)','즐겨찾기','즐겨찾기','TEDM-APP-007, 008 참조','','즐겨찾는 폴더, 파일','','','','0','4.0'),</v>
       </c>
-    </row>
-    <row r="81" spans="2:14" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O80" s="36" t="str">
+        <f t="shared" si="4"/>
+        <v>TEST-A4-CASE079</v>
+      </c>
+      <c r="P80" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q80" s="1" t="s">
+        <v>903</v>
+      </c>
+      <c r="R80" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="S80" s="36" t="str">
+        <f t="shared" si="5"/>
+        <v>('TEST-A4-CASE079','actionUrl','/selenium/4/default/case079/start.do','케이스079 URL'),</v>
+      </c>
+    </row>
+    <row r="81" spans="2:19" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B81" s="2" t="s">
         <v>722</v>
       </c>
@@ -5811,11 +8253,28 @@
         <v>205</v>
       </c>
       <c r="N81" s="17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>('TEST-A4-CASE080','사용자(APP)','휴지통','휴지통 관리','1. 상단 드롭다운 버튼 클릭','1. ECM WEB(APP) 접속\n2. 아이디, 패스워드 입력(testUsr001 / test)\n3. 로그인 버튼 클릭\n4. 좌측 내비게이션 바에서 휴지통 이동','문서함별 휴지통 지원 확인','','','','0','4.0'),</v>
       </c>
-    </row>
-    <row r="82" spans="2:14" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O81" s="36" t="str">
+        <f t="shared" si="4"/>
+        <v>TEST-A4-CASE080</v>
+      </c>
+      <c r="P81" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q81" s="1" t="s">
+        <v>904</v>
+      </c>
+      <c r="R81" s="1" t="s">
+        <v>814</v>
+      </c>
+      <c r="S81" s="36" t="str">
+        <f t="shared" si="5"/>
+        <v>('TEST-A4-CASE080','actionUrl','/selenium/4/default/case080/start.do','케이스080 URL'),</v>
+      </c>
+    </row>
+    <row r="82" spans="2:19" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B82" s="2" t="s">
         <v>723</v>
       </c>
@@ -5847,11 +8306,28 @@
         <v>205</v>
       </c>
       <c r="N82" s="17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>('TEST-A4-CASE081','사용자(APP)','휴지통','폐기','1. 대상 파일, 폴더 우클릭\n2. 완전삭제 클릭\n3. 창에서 확인 클릭','1. ECM WEB(APP) 접속\n2. 아이디, 패스워드 입력(testUsr001 / test)\n3. 로그인 버튼 클릭\n4. 좌측 내비게이션 바에서 휴지통 이동','리스트에서 완전삭제 확인','','','','0','4.0'),</v>
       </c>
-    </row>
-    <row r="83" spans="2:14" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O82" s="36" t="str">
+        <f t="shared" si="4"/>
+        <v>TEST-A4-CASE081</v>
+      </c>
+      <c r="P82" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q82" s="1" t="s">
+        <v>905</v>
+      </c>
+      <c r="R82" s="1" t="s">
+        <v>815</v>
+      </c>
+      <c r="S82" s="36" t="str">
+        <f t="shared" si="5"/>
+        <v>('TEST-A4-CASE081','actionUrl','/selenium/4/default/case081/start.do','케이스081 URL'),</v>
+      </c>
+    </row>
+    <row r="83" spans="2:19" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B83" s="2" t="s">
         <v>724</v>
       </c>
@@ -5883,11 +8359,28 @@
         <v>205</v>
       </c>
       <c r="N83" s="17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>('TEST-A4-CASE082','사용자(APP)','휴지통','복원','TEDM-APP-051 참조','','원래 자신이 있던 위치로 복원','','','','0','4.0'),</v>
       </c>
-    </row>
-    <row r="84" spans="2:14" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O83" s="36" t="str">
+        <f t="shared" si="4"/>
+        <v>TEST-A4-CASE082</v>
+      </c>
+      <c r="P83" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q83" s="1" t="s">
+        <v>906</v>
+      </c>
+      <c r="R83" s="1" t="s">
+        <v>816</v>
+      </c>
+      <c r="S83" s="36" t="str">
+        <f t="shared" si="5"/>
+        <v>('TEST-A4-CASE082','actionUrl','/selenium/4/default/case082/start.do','케이스082 URL'),</v>
+      </c>
+    </row>
+    <row r="84" spans="2:19" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B84" s="2" t="s">
         <v>725</v>
       </c>
@@ -5919,11 +8412,28 @@
         <v>205</v>
       </c>
       <c r="N84" s="17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>('TEST-A4-CASE083','사용자(APP)','휴지통','위치 지정 복원','TEDM-APP-052 참조','','사용자가 복원하고 싶은 위치에 복원','','','','0','4.0'),</v>
       </c>
-    </row>
-    <row r="85" spans="2:14" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O84" s="36" t="str">
+        <f t="shared" si="4"/>
+        <v>TEST-A4-CASE083</v>
+      </c>
+      <c r="P84" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q84" s="1" t="s">
+        <v>907</v>
+      </c>
+      <c r="R84" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="S84" s="36" t="str">
+        <f t="shared" si="5"/>
+        <v>('TEST-A4-CASE083','actionUrl','/selenium/4/default/case083/start.do','케이스083 URL'),</v>
+      </c>
+    </row>
+    <row r="85" spans="2:19" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B85" s="2" t="s">
         <v>726</v>
       </c>
@@ -5955,11 +8465,28 @@
         <v>205</v>
       </c>
       <c r="N85" s="17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>('TEST-A4-CASE084','사용자(APP)','휴지통','휴지통 비우기','1. 리스트 우클릭\n2. 휴지통 비우기 클릭\n3. 창에서 확인 클릭','1. ECM WEB(APP) 접속\n2. 아이디, 패스워드 입력(testUsr001 / test)\n3. 로그인 버튼 클릭\n4. 좌측 내비게이션 바에서 휴지통 이동','휴지통 내 전체 리스트 제거 확인','','','','0','4.0'),</v>
       </c>
-    </row>
-    <row r="86" spans="2:14" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O85" s="36" t="str">
+        <f t="shared" si="4"/>
+        <v>TEST-A4-CASE084</v>
+      </c>
+      <c r="P85" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q85" s="1" t="s">
+        <v>908</v>
+      </c>
+      <c r="R85" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="S85" s="36" t="str">
+        <f t="shared" si="5"/>
+        <v>('TEST-A4-CASE084','actionUrl','/selenium/4/default/case084/start.do','케이스084 URL'),</v>
+      </c>
+    </row>
+    <row r="86" spans="2:19" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B86" s="2" t="s">
         <v>727</v>
       </c>
@@ -5991,11 +8518,28 @@
         <v>205</v>
       </c>
       <c r="N86" s="17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>('TEST-A4-CASE085','사용자(APP)','내 공유함 - 공유한 폴더/파일','공유한 내용의 공유관리','1. 상단 공유받은 함 드롭다운 버튼 클릭\n2. 내 공유함 클릭','1. ECM WEB(APP) 접속\n2. 아이디, 패스워드 입력(testUsr001 / test)\n3. 로그인 버튼 클릭\n4. 좌측 내비게이션 바에서 내 공유함 이동','다른 사람에게 공유한 폴더 및 파일 확인','','','','0','4.0'),</v>
       </c>
-    </row>
-    <row r="87" spans="2:14" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O86" s="36" t="str">
+        <f t="shared" si="4"/>
+        <v>TEST-A4-CASE085</v>
+      </c>
+      <c r="P86" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q86" s="1" t="s">
+        <v>909</v>
+      </c>
+      <c r="R86" s="1" t="s">
+        <v>819</v>
+      </c>
+      <c r="S86" s="36" t="str">
+        <f t="shared" si="5"/>
+        <v>('TEST-A4-CASE085','actionUrl','/selenium/4/default/case085/start.do','케이스085 URL'),</v>
+      </c>
+    </row>
+    <row r="87" spans="2:19" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B87" s="2" t="s">
         <v>728</v>
       </c>
@@ -6027,11 +8571,28 @@
         <v>205</v>
       </c>
       <c r="N87" s="17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>('TEST-A4-CASE086','사용자(APP)','내 공유함 - 공유한 폴더/파일','공유한 내용의 공유해제','1. 상단 공유받은 함 드롭다운 버튼 클릭\n2. 내 공유함 클릭\n3. 공유받은 폴더/파일 중 공유설정 클릭\n4. 창에서 사용자 해제 클릭\n5. 적용 클릭','1. ECM WEB(APP) 접속\n2. 아이디, 패스워드 입력(testUsr001 / test)\n3. 로그인 버튼 클릭\n4. 좌측 내비게이션 바에서 내 공유함 이동','공유 리스트에서 항목 제거 확인','','','','0','4.0'),</v>
       </c>
-    </row>
-    <row r="88" spans="2:14" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O87" s="36" t="str">
+        <f t="shared" si="4"/>
+        <v>TEST-A4-CASE086</v>
+      </c>
+      <c r="P87" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q87" s="1" t="s">
+        <v>910</v>
+      </c>
+      <c r="R87" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="S87" s="36" t="str">
+        <f t="shared" si="5"/>
+        <v>('TEST-A4-CASE086','actionUrl','/selenium/4/default/case086/start.do','케이스086 URL'),</v>
+      </c>
+    </row>
+    <row r="88" spans="2:19" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B88" s="2" t="s">
         <v>729</v>
       </c>
@@ -6063,11 +8624,28 @@
         <v>205</v>
       </c>
       <c r="N88" s="17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>('TEST-A4-CASE087','사용자(APP)','내 공유함 - 공유 받은 폴더/파일','공유 받은 폴더 및 파일','1. 좌측 내비게이션 바에서 내 공유함 이동','1. ECM WEB(APP) 접속\n2. 아이디, 패스워드 입력(testUsr001 / test)\n3. 로그인 버튼 클릭','다른 사용자로부터 공유받은 폴더/파일 확인','','','','0','4.0'),</v>
       </c>
-    </row>
-    <row r="89" spans="2:14" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O88" s="36" t="str">
+        <f t="shared" si="4"/>
+        <v>TEST-A4-CASE087</v>
+      </c>
+      <c r="P88" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q88" s="1" t="s">
+        <v>911</v>
+      </c>
+      <c r="R88" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="S88" s="36" t="str">
+        <f t="shared" si="5"/>
+        <v>('TEST-A4-CASE087','actionUrl','/selenium/4/default/case087/start.do','케이스087 URL'),</v>
+      </c>
+    </row>
+    <row r="89" spans="2:19" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B89" s="2" t="s">
         <v>730</v>
       </c>
@@ -6099,11 +8677,28 @@
         <v>205</v>
       </c>
       <c r="N89" s="17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>('TEST-A4-CASE088','사용자(APP)','내 공유함 - URL','URL 공유한 공유관리','1. 상단 공유받은 함 드롭다운 버튼 클릭\n2. 내 공유함 클릭\n3. 상단 두번째(전체) 드롭다운 버튼 클릭\n4. URL 공유 클릭','1. ECM WEB(APP) 접속\n2. 아이디, 패스워드 입력(testUsr001 / test)\n3. 로그인 버튼 클릭\n4. 좌측 내비게이션 바에서 내 공유함 이동','URL 생성을 통하여 공유한 문서 확인','','','','0','4.0'),</v>
       </c>
-    </row>
-    <row r="90" spans="2:14" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O89" s="36" t="str">
+        <f t="shared" si="4"/>
+        <v>TEST-A4-CASE088</v>
+      </c>
+      <c r="P89" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q89" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="R89" s="1" t="s">
+        <v>822</v>
+      </c>
+      <c r="S89" s="36" t="str">
+        <f t="shared" si="5"/>
+        <v>('TEST-A4-CASE088','actionUrl','/selenium/4/default/case088/start.do','케이스088 URL'),</v>
+      </c>
+    </row>
+    <row r="90" spans="2:19" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B90" s="2" t="s">
         <v>731</v>
       </c>
@@ -6135,11 +8730,28 @@
         <v>205</v>
       </c>
       <c r="N90" s="17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>('TEST-A4-CASE089','사용자(APP)','내 공유함 - URL','URL 공유한 공유해제','1. 상단 공유받은 함 드롭다운 버튼 클릭\n2. 내 공유함 클릭\n3. 상단 두번째(전체) 드롭다운 버튼 클릭\n4. URL 공유 클릭\n3. 공유받은 폴더/파일 중 공유설정 클릭\n4. 창에서 사용자 해제 클릭\n5. 적용 클릭','1. ECM WEB(APP) 접속\n2. 아이디, 패스워드 입력(testUsr001 / test)\n3. 로그인 버튼 클릭\n4. 좌측 내비게이션 바에서 내 공유함 이동','URL 공유 해제','','','','0','4.0'),</v>
       </c>
-    </row>
-    <row r="91" spans="2:14" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O90" s="36" t="str">
+        <f t="shared" si="4"/>
+        <v>TEST-A4-CASE089</v>
+      </c>
+      <c r="P90" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q90" s="1" t="s">
+        <v>913</v>
+      </c>
+      <c r="R90" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="S90" s="36" t="str">
+        <f t="shared" si="5"/>
+        <v>('TEST-A4-CASE089','actionUrl','/selenium/4/default/case089/start.do','케이스089 URL'),</v>
+      </c>
+    </row>
+    <row r="91" spans="2:19" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B91" s="2" t="s">
         <v>732</v>
       </c>
@@ -6171,8 +8783,25 @@
         <v>205</v>
       </c>
       <c r="N91" s="17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>('TEST-A4-CASE090','사용자(APP)','최근 파일','최근 열어본 파일','TEDM-APP-003 참조','','대시보드에 최근에 열람한 문서를 표시','','','','0','4.0'),</v>
+      </c>
+      <c r="O91" s="36" t="str">
+        <f t="shared" si="4"/>
+        <v>TEST-A4-CASE090</v>
+      </c>
+      <c r="P91" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q91" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="R91" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="S91" s="36" t="str">
+        <f t="shared" si="5"/>
+        <v>('TEST-A4-CASE090','actionUrl','/selenium/4/default/case090/start.do','케이스090 URL'),</v>
       </c>
     </row>
   </sheetData>
@@ -6184,10 +8813,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB51659C-1868-4546-9D43-E9D0EB4AE2FA}">
-  <dimension ref="B1:N171"/>
+  <dimension ref="B1:S171"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="F129" sqref="F129"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="39.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6209,8 +8838,8 @@
     <col min="15" max="16384" width="39.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:14" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:19" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="20" t="s">
         <v>472</v>
       </c>
@@ -6251,8 +8880,25 @@
         <f>CONCATENATE("('",B2,"','",C2,"','",D2,"','",E2,"','",F2,"','",G2,"','",H2,"','",I2,"','",J2,"','",K2,"','",L2,"','",M2,"'),")</f>
         <v>('TEST-A6-CASE001','사용자(APP)','홈','로그인','1. 아이디, 패스워드 입력\n2. 로그인 버튼 클릭','1. ECM WEB(APP) 접속','해당 사용자 대시보드 페이지 전환','김남','43938','43938','0','6.0'),</v>
       </c>
-    </row>
-    <row r="3" spans="2:14" ht="43.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O2" s="36" t="str">
+        <f>B2</f>
+        <v>TEST-A6-CASE001</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>995</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="S2" s="36" t="str">
+        <f>CONCATENATE("('",O2,"','",P2,"','",Q2,"','",R2,"'),")</f>
+        <v>('TEST-A6-CASE001','actionUrl','/selenium/6/default/acase001/start.do','케이스001 URL'),</v>
+      </c>
+    </row>
+    <row r="3" spans="2:19" ht="43.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="20" t="s">
         <v>473</v>
       </c>
@@ -6287,8 +8933,25 @@
         <f t="shared" ref="N3:N66" si="0">CONCATENATE("('",B3,"','",C3,"','",D3,"','",E3,"','",F3,"','",G3,"','",H3,"','",I3,"','",J3,"','",K3,"','",L3,"','",M3,"'),")</f>
         <v>('TEST-A6-CASE002','사용자(APP)','홈','아이디 저장','1. 아이디, 패스워드 입력\n2. 아이디 저장 클릭\n3. 로그인 버튼 클릭\n4. 대시보드 오른쪽 상단 사용자 아이콘 클릭\n5. 로그아웃 클릭','1. ECM WEB(APP) 접속','아이디 기존 입력 값 보존\n아이디 저장 체크박스 체크 유지','','','','0','6.0'),</v>
       </c>
-    </row>
-    <row r="4" spans="2:14" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O3" s="36" t="str">
+        <f t="shared" ref="O3:O66" si="1">B3</f>
+        <v>TEST-A6-CASE002</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="S3" s="36" t="str">
+        <f t="shared" ref="S3:S66" si="2">CONCATENATE("('",O3,"','",P3,"','",Q3,"','",R3,"'),")</f>
+        <v>('TEST-A6-CASE002','actionUrl','/selenium/6/default/acase002/start.do','케이스002 URL'),</v>
+      </c>
+    </row>
+    <row r="4" spans="2:19" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="20" t="s">
         <v>474</v>
       </c>
@@ -6323,8 +8986,25 @@
         <f t="shared" si="0"/>
         <v>('TEST-A6-CASE003','사용자(APP)','대시보드','위젯 선택(최근 열어본 파일)','1. 대시보드 위젯 중 `최근 열어본 파일 &gt; (6개 항목 중 1개 파일)` 더블 클릭','1. ECM WEB(APP) 접속\n2. 아이디, 패스워드 입력(testUsr001 / test)\n3. 로그인 버튼 클릭','대상 파일의 폴더 리스트 조회 및 이동 가능','','','','0','6.0'),</v>
       </c>
-    </row>
-    <row r="5" spans="2:14" ht="43.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O4" s="36" t="str">
+        <f t="shared" si="1"/>
+        <v>TEST-A6-CASE003</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="S4" s="36" t="str">
+        <f t="shared" si="2"/>
+        <v>('TEST-A6-CASE003','actionUrl','/selenium/6/default/acase003/start.do','케이스003 URL'),</v>
+      </c>
+    </row>
+    <row r="5" spans="2:19" ht="43.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="20" t="s">
         <v>475</v>
       </c>
@@ -6359,8 +9039,25 @@
         <f t="shared" si="0"/>
         <v>('TEST-A6-CASE004','사용자(APP)','대시보드','위젯 선택(바로가기)','1. 대시보드 위젯 중 `바로가기 &gt; (부서문서함, 내문서함, 내공유함, 공유문서함, 편집중인 문서, 카테고리, 휴지통)` 클릭','1. ECM WEB(APP) 접속\n2. 아이디, 패스워드 입력(testUsr001 / test)\n3. 로그인 버튼 클릭','대상 문서함 조회 및 이동 가능','','','','0','6.0'),</v>
       </c>
-    </row>
-    <row r="6" spans="2:14" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O5" s="36" t="str">
+        <f t="shared" si="1"/>
+        <v>TEST-A6-CASE004</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>998</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="S5" s="36" t="str">
+        <f t="shared" si="2"/>
+        <v>('TEST-A6-CASE004','actionUrl','/selenium/6/default/acase004/start.do','케이스004 URL'),</v>
+      </c>
+    </row>
+    <row r="6" spans="2:19" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="20" t="s">
         <v>476</v>
       </c>
@@ -6395,8 +9092,25 @@
         <f t="shared" si="0"/>
         <v>('TEST-A6-CASE005','사용자(APP)','대시보드','위젯 선택(추가기능 - 내 문서함 용량)','1. 대시보드 위젯 중 `추가 기능 &gt; 내 문서함 용량 &gt; UPGRADE 하이퍼링크` 클릭','1. ECM WEB(APP) 접속\n2. 아이디, 패스워드 입력(testUsr001 / test)\n3. 로그인 버튼 클릭','개인 설정 &gt; 프로필 설정 조회','','','','0','6.0'),</v>
       </c>
-    </row>
-    <row r="7" spans="2:14" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O6" s="36" t="str">
+        <f t="shared" si="1"/>
+        <v>TEST-A6-CASE005</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="S6" s="36" t="str">
+        <f t="shared" si="2"/>
+        <v>('TEST-A6-CASE005','actionUrl','/selenium/6/default/acase005/start.do','케이스005 URL'),</v>
+      </c>
+    </row>
+    <row r="7" spans="2:19" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="20" t="s">
         <v>477</v>
       </c>
@@ -6431,8 +9145,25 @@
         <f t="shared" si="0"/>
         <v>('TEST-A6-CASE006','사용자(APP)','대시보드','위젯 선택(추가기능 - 내 활동 기록)','1. 대시보드 위젯 중 `추가 기능 &gt; 내 활동 기록 &gt; 드롭다운` 클릭','1. ECM WEB(APP) 접속\n2. 아이디, 패스워드 입력(testUsr001 / test)\n3. 로그인 버튼 클릭','개인 설정 &gt; 개인이력 조회','','','','0','6.0'),</v>
       </c>
-    </row>
-    <row r="8" spans="2:14" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O7" s="36" t="str">
+        <f t="shared" si="1"/>
+        <v>TEST-A6-CASE006</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>1000</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="S7" s="36" t="str">
+        <f t="shared" si="2"/>
+        <v>('TEST-A6-CASE006','actionUrl','/selenium/6/default/acase006/start.do','케이스006 URL'),</v>
+      </c>
+    </row>
+    <row r="8" spans="2:19" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="20" t="s">
         <v>478</v>
       </c>
@@ -6467,8 +9198,25 @@
         <f t="shared" si="0"/>
         <v>('TEST-A6-CASE007','사용자(APP)','대시보드','위젯 선택(추가기능 - 즐겨찾기선택)','1. 대시보드 위젯 중 `추가 기능 &gt; 즐겨 찾기 &gt; 대상 폴더/파일` 클릭','1. ECM WEB(APP) 접속\n2. 아이디, 패스워드 입력(testUsr001 / test)\n3. 로그인 버튼 클릭','즐겨찾기 조회','','','','0','6.0'),</v>
       </c>
-    </row>
-    <row r="9" spans="2:14" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O8" s="36" t="str">
+        <f t="shared" si="1"/>
+        <v>TEST-A6-CASE007</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>1001</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="S8" s="36" t="str">
+        <f t="shared" si="2"/>
+        <v>('TEST-A6-CASE007','actionUrl','/selenium/6/default/acase007/start.do','케이스007 URL'),</v>
+      </c>
+    </row>
+    <row r="9" spans="2:19" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="20" t="s">
         <v>479</v>
       </c>
@@ -6503,8 +9251,25 @@
         <f t="shared" si="0"/>
         <v>('TEST-A6-CASE008','사용자(APP)','대시보드','위젯 선택(추가기능 - 즐겨찾기확인)','1. 대시보드 위젯 중 `추가 기능 &gt; 즐겨 찾기 &gt; 드롭다운` 클릭','1. ECM WEB(APP) 접속\n2. 아이디, 패스워드 입력(testUsr001 / test)\n3. 로그인 버튼 클릭','즐겨찾기 리스트 확인 및 이동 가능','','','','0','6.0'),</v>
       </c>
-    </row>
-    <row r="10" spans="2:14" ht="57.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O9" s="36" t="str">
+        <f t="shared" si="1"/>
+        <v>TEST-A6-CASE008</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>1002</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="S9" s="36" t="str">
+        <f t="shared" si="2"/>
+        <v>('TEST-A6-CASE008','actionUrl','/selenium/6/default/acase008/start.do','케이스008 URL'),</v>
+      </c>
+    </row>
+    <row r="10" spans="2:19" ht="57.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="20" t="s">
         <v>480</v>
       </c>
@@ -6539,8 +9304,25 @@
         <f t="shared" si="0"/>
         <v>('TEST-A6-CASE009','사용자(APP)','대시보드','위젯 삭제(특정)','1. 대시보드 오른쪽 상단 사용자 아이콘 클릭\n2. 개인 설정 클릭\n3. 대시보드 설정 탭 클릭\n4. 삭제 대상 항목 스위치 OFF\n5. 오른쪽 상단 저장 클릭\n6. 왼쪽 상단 홈 버튼 클릭','1. ECM WEB(APP) 접속\n2. 아이디, 패스워드 입력(testUsr001 / test)\n3. 로그인 버튼 클릭','대시보드 내 해당 위젯 항목 없음','','','','0','6.0'),</v>
       </c>
-    </row>
-    <row r="11" spans="2:14" ht="57.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O10" s="36" t="str">
+        <f t="shared" si="1"/>
+        <v>TEST-A6-CASE009</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>1003</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="S10" s="36" t="str">
+        <f t="shared" si="2"/>
+        <v>('TEST-A6-CASE009','actionUrl','/selenium/6/default/acase009/start.do','케이스009 URL'),</v>
+      </c>
+    </row>
+    <row r="11" spans="2:19" ht="57.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="20" t="s">
         <v>481</v>
       </c>
@@ -6575,8 +9357,25 @@
         <f t="shared" si="0"/>
         <v>('TEST-A6-CASE010','사용자(APP)','대시보드','위젯 삭제(전체)','1. 대시보드 오른쪽 상단 사용자 아이콘 클릭\n2. 개인 설정 클릭\n3. 대시보드 설정 탭 클릭\n4. 삭제 대상 항목 스위치 전체 OFF\n5. 오른쪽 상단 저장 클릭\n6. 왼쪽 상단 홈 버튼 클릭','1. ECM WEB(APP) 접속\n2. 아이디, 패스워드 입력(testUsr001 / test)\n3. 로그인 버튼 클릭','대시보드 내 전체 위젯 항목 없음','','','','0','6.0'),</v>
       </c>
-    </row>
-    <row r="12" spans="2:14" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O11" s="36" t="str">
+        <f t="shared" si="1"/>
+        <v>TEST-A6-CASE010</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>1004</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="S11" s="36" t="str">
+        <f t="shared" si="2"/>
+        <v>('TEST-A6-CASE010','actionUrl','/selenium/6/default/acase010/start.do','케이스010 URL'),</v>
+      </c>
+    </row>
+    <row r="12" spans="2:19" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="20" t="s">
         <v>482</v>
       </c>
@@ -6611,8 +9410,25 @@
         <f t="shared" si="0"/>
         <v>('TEST-A6-CASE011','사용자(APP)','대시보드','에이전트 다운로드','1. 대시보드 오른쪽 상단 DOWNLOAD AGENT 클릭','1. ECM WEB(APP) 접속\n2. 아이디, 패스워드 입력(testUsr001 / test)\n3. 로그인 버튼 클릭','에이전트 다운로드 진행','','','','0','6.0'),</v>
       </c>
-    </row>
-    <row r="13" spans="2:14" ht="57.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O12" s="36" t="str">
+        <f t="shared" si="1"/>
+        <v>TEST-A6-CASE011</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>1005</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="S12" s="36" t="str">
+        <f t="shared" si="2"/>
+        <v>('TEST-A6-CASE011','actionUrl','/selenium/6/default/acase011/start.do','케이스011 URL'),</v>
+      </c>
+    </row>
+    <row r="13" spans="2:19" ht="57.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="20" t="s">
         <v>483</v>
       </c>
@@ -6647,8 +9463,25 @@
         <f t="shared" si="0"/>
         <v>('TEST-A6-CASE012','사용자(APP)','개인 설정 정보','홈 위치 지정','1. 대시보드 오른쪽 상단 사용자 아이콘 클릭\n2. 개인 설정 클릭\n3. 프로필 설정 탭 클릭\n4. Home 설정 메뉴 드롭 다운 후 변경 대상 선택\n5. 오른쪽 상단 저장 클릭','1. ECM WEB(APP) 접속\n2. 아이디, 패스워드 입력(testUsr001 / test)\n3. 로그인 버튼 클릭','홈 화면 전환 시 변경 대상으로 고정','','','','0','6.0'),</v>
       </c>
-    </row>
-    <row r="14" spans="2:14" ht="43.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O13" s="36" t="str">
+        <f t="shared" si="1"/>
+        <v>TEST-A6-CASE012</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>1006</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="S13" s="36" t="str">
+        <f t="shared" si="2"/>
+        <v>('TEST-A6-CASE012','actionUrl','/selenium/6/default/acase012/start.do','케이스012 URL'),</v>
+      </c>
+    </row>
+    <row r="14" spans="2:19" ht="43.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="20" t="s">
         <v>484</v>
       </c>
@@ -6683,8 +9516,25 @@
         <f t="shared" si="0"/>
         <v>('TEST-A6-CASE013','사용자(APP)','개인 설정 정보','개인 정보 변경(프로필사진 - 저장)','1. 대시보드 오른쪽 상단 사용자 아이콘 클릭\n2. 개인 설정 클릭\n3. 프로필 설정 탭 클릭\n4. 편집 클릭\n5. 윈도우 다이얼로그 박스에서 파일 선택','1. ECM WEB(APP) 접속\n2. 아이디, 패스워드 입력(testUsr001 / test)\n3. 로그인 버튼 클릭','개인 설정 내 사용자 아이콘 프로필 사진 변경 확인\n오른쪽 상단 사용자 아이콘 프로필 사진 변경 확인','','','','0','6.0'),</v>
       </c>
-    </row>
-    <row r="15" spans="2:14" ht="43.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O14" s="36" t="str">
+        <f t="shared" si="1"/>
+        <v>TEST-A6-CASE013</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>1007</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="S14" s="36" t="str">
+        <f t="shared" si="2"/>
+        <v>('TEST-A6-CASE013','actionUrl','/selenium/6/default/acase013/start.do','케이스013 URL'),</v>
+      </c>
+    </row>
+    <row r="15" spans="2:19" ht="43.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="20" t="s">
         <v>485</v>
       </c>
@@ -6719,8 +9569,25 @@
         <f t="shared" si="0"/>
         <v>('TEST-A6-CASE014','사용자(APP)','개인 설정 정보','개인 정보 변경(프로필사진 - 초기화)','1. 대시보드 오른쪽 상단 사용자 아이콘 클릭\n2. 개인 설정 클릭\n3. 프로필 설정 탭 클릭\n4. 초기화 클릭','1. ECM WEB(APP) 접속\n2. 아이디, 패스워드 입력(testUsr001 / test)\n3. 로그인 버튼 클릭','개인 설정 내 사용자 아이콘 프로필 사진 초기화 확인\n오른쪽 상단 사용자 아이콘 프로필 사진 초기화 확인','','','','0','6.0'),</v>
       </c>
-    </row>
-    <row r="16" spans="2:14" ht="57.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O15" s="36" t="str">
+        <f t="shared" si="1"/>
+        <v>TEST-A6-CASE014</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>1008</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="S15" s="36" t="str">
+        <f t="shared" si="2"/>
+        <v>('TEST-A6-CASE014','actionUrl','/selenium/6/default/acase014/start.do','케이스014 URL'),</v>
+      </c>
+    </row>
+    <row r="16" spans="2:19" ht="57.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="20" t="s">
         <v>486</v>
       </c>
@@ -6755,8 +9622,25 @@
         <f t="shared" si="0"/>
         <v>('TEST-A6-CASE015','사용자(APP)','개인 설정 정보','개인 정보 변경(일반정보)','1. 대시보드 오른쪽 상단 사용자 아이콘 클릭\n2. 개인 설정 클릭\n3. 프로필 설정 탭 클릭\n4. 일반정보(이름, E-Mmail, 주소, 그룹, 언어설정) 변경\n5. 오른쪽 상단 저장 클릭','1. ECM WEB(APP) 접속\n2. 아이디, 패스워드 입력(testUsr001 / test)\n3. 로그인 버튼 클릭','적용 후 변경된 일반정보 변경사항 확인 가능\n프로필 설정 재 접근 시 변경된 일반정보 변경사항 확인 가능','','','','0','6.0'),</v>
       </c>
-    </row>
-    <row r="17" spans="2:14" ht="57.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O16" s="36" t="str">
+        <f t="shared" si="1"/>
+        <v>TEST-A6-CASE015</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>1009</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="S16" s="36" t="str">
+        <f t="shared" si="2"/>
+        <v>('TEST-A6-CASE015','actionUrl','/selenium/6/default/acase015/start.do','케이스015 URL'),</v>
+      </c>
+    </row>
+    <row r="17" spans="2:19" ht="57.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="20" t="s">
         <v>487</v>
       </c>
@@ -6791,8 +9675,25 @@
         <f t="shared" si="0"/>
         <v>('TEST-A6-CASE016','사용자(APP)','개인 설정 정보','개인 정보 변경(비밀번호)','1. 대시보드 오른쪽 상단 사용자 아이콘 클릭\n2. 개인 설정 클릭\n3. 프로필 설정 탭 클릭\n4. 비밀번호 변경 클릭\n5. 변경할 비밀번호 입력(비밀번호, 비밀번호 확인 Input)\n6. 오른쪽 상단 저장 클릭','1. ECM WEB(APP) 접속\n2. 아이디, 패스워드 입력(testUsr001 / test)\n3. 로그인 버튼 클릭','적용 후 변경된 비밀번호로 로그인 가능\n비밀번호/비밀번호 확인 불일치 체크 가능','','','','0','6.0'),</v>
       </c>
-    </row>
-    <row r="18" spans="2:14" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O17" s="36" t="str">
+        <f t="shared" si="1"/>
+        <v>TEST-A6-CASE016</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>1010</v>
+      </c>
+      <c r="R17" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="S17" s="36" t="str">
+        <f t="shared" si="2"/>
+        <v>('TEST-A6-CASE016','actionUrl','/selenium/6/default/acase016/start.do','케이스016 URL'),</v>
+      </c>
+    </row>
+    <row r="18" spans="2:19" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="20" t="s">
         <v>488</v>
       </c>
@@ -6827,8 +9728,25 @@
         <f t="shared" si="0"/>
         <v>('TEST-A6-CASE017','사용자(APP)','개인 설정 정보','보안','1. 대시보드 오른쪽 상단 사용자 아이콘 클릭\n2. 개인 설정 클릭\n3. 개인이력 탭 클릭','1. ECM WEB(APP) 접속\n2. 아이디, 패스워드 입력(testUsr001 / test)\n3. 로그인 버튼 클릭','개인 계정 이벤트 별 이력 확인 가능','','','','0','6.0'),</v>
       </c>
-    </row>
-    <row r="19" spans="2:14" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O18" s="36" t="str">
+        <f t="shared" si="1"/>
+        <v>TEST-A6-CASE017</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>1011</v>
+      </c>
+      <c r="R18" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="S18" s="36" t="str">
+        <f t="shared" si="2"/>
+        <v>('TEST-A6-CASE017','actionUrl','/selenium/6/default/acase017/start.do','케이스017 URL'),</v>
+      </c>
+    </row>
+    <row r="19" spans="2:19" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="20" t="s">
         <v>489</v>
       </c>
@@ -6863,8 +9781,25 @@
         <f t="shared" si="0"/>
         <v>('TEST-A6-CASE018','사용자(APP)','개인 설정 정보','알림 표시','기능(다운로드,삭제 등) 사용 시 체크가능','','알림 설정에 의한 알림 표시','','','','0','6.0'),</v>
       </c>
-    </row>
-    <row r="20" spans="2:14" ht="57.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O19" s="36" t="str">
+        <f t="shared" si="1"/>
+        <v>TEST-A6-CASE018</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>1012</v>
+      </c>
+      <c r="R19" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="S19" s="36" t="str">
+        <f t="shared" si="2"/>
+        <v>('TEST-A6-CASE018','actionUrl','/selenium/6/default/acase018/start.do','케이스018 URL'),</v>
+      </c>
+    </row>
+    <row r="20" spans="2:19" ht="57.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="20" t="s">
         <v>490</v>
       </c>
@@ -6899,8 +9834,25 @@
         <f t="shared" si="0"/>
         <v>('TEST-A6-CASE019','사용자(APP)','관리 (중간 관리자)','용량 관리','1. 대시보드 오른쪽 상단 사용자 아이콘 클릭\n2. 관리 설정 클릭\n3. 용량관리 탭 클릭\n4. 용량 관리 버튼 클릭\n5. 승인 또는 반려','1. ECM WEB(APP) 접속\n2. 아이디, 패스워드 입력(SUPER / SUPER)\n3. 로그인 버튼 클릭\n4. 좌측 내비게이션 바에서 부서문서함 &gt; 인젠트 &gt; 단위테스트 폴더 이동','관리 대상 사용자의 용량 증설 가능','','','','0','6.0'),</v>
       </c>
-    </row>
-    <row r="21" spans="2:14" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O20" s="36" t="str">
+        <f t="shared" si="1"/>
+        <v>TEST-A6-CASE019</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>1013</v>
+      </c>
+      <c r="R20" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="S20" s="36" t="str">
+        <f t="shared" si="2"/>
+        <v>('TEST-A6-CASE019','actionUrl','/selenium/6/default/acase019/start.do','케이스019 URL'),</v>
+      </c>
+    </row>
+    <row r="21" spans="2:19" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B21" s="20" t="s">
         <v>491</v>
       </c>
@@ -6935,8 +9887,25 @@
         <f t="shared" si="0"/>
         <v>('TEST-A6-CASE020','사용자(APP)','관리 (중간 관리자)','보고서','','','관리 대상 부서별 사용현황 및 이력 내보내기','','','','0','6.0'),</v>
       </c>
-    </row>
-    <row r="22" spans="2:14" ht="57.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O21" s="36" t="str">
+        <f t="shared" si="1"/>
+        <v>TEST-A6-CASE020</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q21" s="1" t="s">
+        <v>1014</v>
+      </c>
+      <c r="R21" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="S21" s="36" t="str">
+        <f t="shared" si="2"/>
+        <v>('TEST-A6-CASE020','actionUrl','/selenium/6/default/acase020/start.do','케이스020 URL'),</v>
+      </c>
+    </row>
+    <row r="22" spans="2:19" ht="57.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B22" s="20" t="s">
         <v>492</v>
       </c>
@@ -6971,8 +9940,25 @@
         <f t="shared" si="0"/>
         <v>('TEST-A6-CASE021','사용자(APP)','관리 (중간 관리자)','사용자관리','1. 대시보드 오른쪽 상단 사용자 아이콘 클릭\n2. 관리 설정 클릭\n3. 개인함 관리 탭 클릭','1. ECM WEB(APP) 접속\n2. 아이디, 패스워드 입력(SUPER / SUPER)\n3. 로그인 버튼 클릭\n4. 좌측 내비게이션 바에서 부서문서함 &gt;인젠트 &gt; 단위테스트 폴더 이동','관리 대상 사용자 검색, 인계 설정, 사용자 활성/비활성화, 개인함 용량설정','','','','0','6.0'),</v>
       </c>
-    </row>
-    <row r="23" spans="2:14" ht="57.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O22" s="36" t="str">
+        <f t="shared" si="1"/>
+        <v>TEST-A6-CASE021</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q22" s="1" t="s">
+        <v>1015</v>
+      </c>
+      <c r="R22" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="S22" s="36" t="str">
+        <f t="shared" si="2"/>
+        <v>('TEST-A6-CASE021','actionUrl','/selenium/6/default/acase021/start.do','케이스021 URL'),</v>
+      </c>
+    </row>
+    <row r="23" spans="2:19" ht="57.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23" s="20" t="s">
         <v>493</v>
       </c>
@@ -7007,8 +9993,25 @@
         <f t="shared" si="0"/>
         <v>('TEST-A6-CASE022','사용자(APP)','관리 (중간 관리자)','부서함관리','1. 대시보드 오른쪽 상단 사용자 아이콘 클릭\n2. 관리 설정 클릭\n3. 부서함 관리 탭 클릭','1. ECM WEB(APP) 접속\n2. 아이디, 패스워드 입력(SUPER / SUPER)\n3. 로그인 버튼 클릭\n4. 좌측 내비게이션 바에서 부서문서함 &gt;인젠트 &gt; 단위테스트 폴더 이동','부서함 프로필 관리(사진,이름) 편집 가능','','','','0','6.0'),</v>
       </c>
-    </row>
-    <row r="24" spans="2:14" ht="57.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O23" s="36" t="str">
+        <f t="shared" si="1"/>
+        <v>TEST-A6-CASE022</v>
+      </c>
+      <c r="P23" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q23" s="1" t="s">
+        <v>1016</v>
+      </c>
+      <c r="R23" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="S23" s="36" t="str">
+        <f t="shared" si="2"/>
+        <v>('TEST-A6-CASE022','actionUrl','/selenium/6/default/acase022/start.do','케이스022 URL'),</v>
+      </c>
+    </row>
+    <row r="24" spans="2:19" ht="57.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B24" s="20" t="s">
         <v>494</v>
       </c>
@@ -7043,8 +10046,25 @@
         <f t="shared" si="0"/>
         <v>('TEST-A6-CASE023','사용자(APP)','공유','일반 공유','1. 대상 폴더/파일 우 클릭\n2. 컨텍스트 메뉴에서 공유설정 클릭\n3. 일반 공유 탭에서 메뉴바 클릭\n4. 공유지정 클릭\n5. 추가 클릭\n6. 사용자 추가(사용자 검색 or 선택)','1. ECM WEB(APP) 접속\n2. 아이디, 패스워드 입력(testUsr001 / test)\n3. 로그인 버튼 클릭\n4. 좌측 내비게이션 바에서 부서문서함 &gt;인젠트 &gt; 단위테스트 폴더 이동','파일에 대하여 다른 사용자에게 권한별로 공유 지원','','','','0','6.0'),</v>
       </c>
-    </row>
-    <row r="25" spans="2:14" ht="57.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O24" s="36" t="str">
+        <f t="shared" si="1"/>
+        <v>TEST-A6-CASE023</v>
+      </c>
+      <c r="P24" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q24" s="1" t="s">
+        <v>1017</v>
+      </c>
+      <c r="R24" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="S24" s="36" t="str">
+        <f t="shared" si="2"/>
+        <v>('TEST-A6-CASE023','actionUrl','/selenium/6/default/acase023/start.do','케이스023 URL'),</v>
+      </c>
+    </row>
+    <row r="25" spans="2:19" ht="57.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B25" s="20" t="s">
         <v>495</v>
       </c>
@@ -7079,8 +10099,25 @@
         <f t="shared" si="0"/>
         <v>('TEST-A6-CASE024','사용자(APP)','공유','URL공유','1. 대상 폴더/파일 우 클릭\n2. 컨텍스트 메뉴에서 공유설정 클릭\n3. URL 공유 탭에서 메뉴바 클릭\n4. 공유지정 클릭\n5. 추가 클릭\n6. 사용자 추가(사용자 검색 or 선택)','1. ECM WEB(APP) 접속\n2. 아이디, 패스워드 입력(testUsr001 / test)\n3. 로그인 버튼 클릭\n4. 좌측 내비게이션 바에서 부서문서함 &gt;인젠트 &gt; 단위테스트 폴더 이동','문서에 대하여 URL을 생성하여 다른 사용자에게 전달하면 접근 할 수 있도록 합니다. (전체/대상자 선택, 권한 선택)','','','','0','6.0'),</v>
       </c>
-    </row>
-    <row r="26" spans="2:14" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O25" s="36" t="str">
+        <f t="shared" si="1"/>
+        <v>TEST-A6-CASE024</v>
+      </c>
+      <c r="P25" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q25" s="1" t="s">
+        <v>1018</v>
+      </c>
+      <c r="R25" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="S25" s="36" t="str">
+        <f t="shared" si="2"/>
+        <v>('TEST-A6-CASE024','actionUrl','/selenium/6/default/acase024/start.do','케이스024 URL'),</v>
+      </c>
+    </row>
+    <row r="26" spans="2:19" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B26" s="20" t="s">
         <v>496</v>
       </c>
@@ -7115,8 +10152,25 @@
         <f t="shared" si="0"/>
         <v>('TEST-A6-CASE025','사용자(APP)','공유','URL 공유 - 확장','','','URL 공유 기간, 접근 횟수 제한 가능','','','','0','6.0'),</v>
       </c>
-    </row>
-    <row r="27" spans="2:14" ht="57.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O26" s="36" t="str">
+        <f t="shared" si="1"/>
+        <v>TEST-A6-CASE025</v>
+      </c>
+      <c r="P26" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q26" s="1" t="s">
+        <v>1019</v>
+      </c>
+      <c r="R26" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="S26" s="36" t="str">
+        <f t="shared" si="2"/>
+        <v>('TEST-A6-CASE025','actionUrl','/selenium/6/default/acase025/start.do','케이스025 URL'),</v>
+      </c>
+    </row>
+    <row r="27" spans="2:19" ht="57.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B27" s="20" t="s">
         <v>497</v>
       </c>
@@ -7151,8 +10205,25 @@
         <f t="shared" si="0"/>
         <v>('TEST-A6-CASE026','사용자(APP)','공통','리스트 뷰 옵션','1. 대시보드 오른쪽 상단 목록보기 클릭','1. ECM WEB(APP) 접속\n2. 아이디, 패스워드 입력(testUsr001 / test)\n3. 로그인 버튼 클릭\n4. 좌측 내비게이션 바에서 부서문서함 &gt;인젠트 &gt; 단위테스트 폴더 이동','상세보기, 갤러리 뷰 지원, 정렬 기능 지원','','','','0','6.0'),</v>
       </c>
-    </row>
-    <row r="28" spans="2:14" ht="57.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O27" s="36" t="str">
+        <f t="shared" si="1"/>
+        <v>TEST-A6-CASE026</v>
+      </c>
+      <c r="P27" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q27" s="1" t="s">
+        <v>1020</v>
+      </c>
+      <c r="R27" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="S27" s="36" t="str">
+        <f t="shared" si="2"/>
+        <v>('TEST-A6-CASE026','actionUrl','/selenium/6/default/acase026/start.do','케이스026 URL'),</v>
+      </c>
+    </row>
+    <row r="28" spans="2:19" ht="57.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B28" s="20" t="s">
         <v>498</v>
       </c>
@@ -7187,8 +10258,25 @@
         <f t="shared" si="0"/>
         <v>('TEST-A6-CASE027','사용자(APP)','공통','썸네일 표시','1. 대시보드 오른쪽 상단 바둑판보기 클릭','1. ECM WEB(APP) 접속\n2. 아이디, 패스워드 입력(testUsr001 / test)\n3. 로그인 버튼 클릭\n4. 좌측 내비게이션 바에서 부서문서함 &gt;인젠트 &gt; 단위테스트 폴더 이동','이미지, 오피스, 동영상, 아래한글, PDF 문서 썸네일 제공','','','','0','6.0'),</v>
       </c>
-    </row>
-    <row r="29" spans="2:14" ht="57.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O28" s="36" t="str">
+        <f t="shared" si="1"/>
+        <v>TEST-A6-CASE027</v>
+      </c>
+      <c r="P28" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q28" s="1" t="s">
+        <v>1021</v>
+      </c>
+      <c r="R28" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="S28" s="36" t="str">
+        <f t="shared" si="2"/>
+        <v>('TEST-A6-CASE027','actionUrl','/selenium/6/default/acase027/start.do','케이스027 URL'),</v>
+      </c>
+    </row>
+    <row r="29" spans="2:19" ht="57.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B29" s="20" t="s">
         <v>499</v>
       </c>
@@ -7223,8 +10311,25 @@
         <f t="shared" si="0"/>
         <v>('TEST-A6-CASE028','사용자(APP)','권한관리','폴더/파일 권한 관리(읽기)','1. 대상 폴더/파일 우 클릭\n2. 컨텍스트 메뉴에서 권한관리 클릭\n3. 권한 추가 버튼 클릭\n4. 대상 사용자(testUsr002) 체크\n5. 확인 클릭\n6. 권한 `읽기` 변경\n7. 적용 클릭','1. ECM WEB(APP) 접속\n2. 아이디, 패스워드 입력(testUsr001 / test)\n3. 로그인 버튼 클릭\n4. 좌측 내비게이션 바에서 부서문서함 &gt;인젠트 &gt; 단위테스트 폴더 이동','대상 폴더/파일 접근시 컨턱스트 메뉴에서 다운로드/복사/붙여넣기/즐겨찾기/권한관리/세부정보/검색 확인가능','','','','0','6.0'),</v>
       </c>
-    </row>
-    <row r="30" spans="2:14" ht="57.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O29" s="36" t="str">
+        <f t="shared" si="1"/>
+        <v>TEST-A6-CASE028</v>
+      </c>
+      <c r="P29" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q29" s="1" t="s">
+        <v>1022</v>
+      </c>
+      <c r="R29" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="S29" s="36" t="str">
+        <f t="shared" si="2"/>
+        <v>('TEST-A6-CASE028','actionUrl','/selenium/6/default/acase028/start.do','케이스028 URL'),</v>
+      </c>
+    </row>
+    <row r="30" spans="2:19" ht="57.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B30" s="20" t="s">
         <v>500</v>
       </c>
@@ -7259,8 +10364,25 @@
         <f t="shared" si="0"/>
         <v>('TEST-A6-CASE029','사용자(APP)','권한관리','폴더/파일 권한 관리(쓰기)','1. 대상 폴더/파일 우 클릭\n2. 컨텍스트 메뉴에서 권한관리 클릭\n3. 권한 추가 버튼 클릭\n4. 대상 사용자(testUsr002) 체크\n5. 확인 클릭\n6. 권한 `기본` 변경\n7. 적용 클릭','1. ECM WEB(APP) 접속\n2. 아이디, 패스워드 입력(testUsr001 / test)\n3. 로그인 버튼 클릭\n4. 좌측 내비게이션 바에서 부서문서함 &gt;인젠트 &gt; 단위테스트 폴더 이동\n(※ 해당 폴더 권한 상속 해제)','대상 폴더/파일 접근시 컨텍스트 메뉴에서 이동, 권한 관리 제외한 모든 기능 사용 가능','','','','0','6.0'),</v>
       </c>
-    </row>
-    <row r="31" spans="2:14" ht="57.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O30" s="36" t="str">
+        <f t="shared" si="1"/>
+        <v>TEST-A6-CASE029</v>
+      </c>
+      <c r="P30" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q30" s="1" t="s">
+        <v>1023</v>
+      </c>
+      <c r="R30" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="S30" s="36" t="str">
+        <f t="shared" si="2"/>
+        <v>('TEST-A6-CASE029','actionUrl','/selenium/6/default/acase029/start.do','케이스029 URL'),</v>
+      </c>
+    </row>
+    <row r="31" spans="2:19" ht="57.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B31" s="20" t="s">
         <v>501</v>
       </c>
@@ -7295,8 +10417,25 @@
         <f t="shared" si="0"/>
         <v>('TEST-A6-CASE030','사용자(APP)','권한관리','폴더/파일 권한 관리(기본)','1. 대상 폴더/파일 우 클릭\n2. 컨텍스트 메뉴에서 권한관리 클릭\n3. 권한 추가 버튼 클릭\n4. 대상 사용자(testUsr002) 체크\n5. 확인 클릭\n6. 권한 `기본` 변경\n7. 적용 클릭','1. ECM WEB(APP) 접속\n2. 아이디, 패스워드 입력(testUsr001 / test)\n3. 로그인 버튼 클릭\n4. 좌측 내비게이션 바에서 부서문서함 &gt;인젠트 &gt; 단위테스트 폴더 이동\n(※ 해당 폴더 권한 상속 해제)','대상 폴더/파일 접근시 컨텍스트 메뉴에서 권한 관리 제외한 모든 기능 사용 가능','','','','0','6.0'),</v>
       </c>
-    </row>
-    <row r="32" spans="2:14" ht="57.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O31" s="36" t="str">
+        <f t="shared" si="1"/>
+        <v>TEST-A6-CASE030</v>
+      </c>
+      <c r="P31" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q31" s="1" t="s">
+        <v>1024</v>
+      </c>
+      <c r="R31" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="S31" s="36" t="str">
+        <f t="shared" si="2"/>
+        <v>('TEST-A6-CASE030','actionUrl','/selenium/6/default/acase030/start.do','케이스030 URL'),</v>
+      </c>
+    </row>
+    <row r="32" spans="2:19" ht="57.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B32" s="20" t="s">
         <v>502</v>
       </c>
@@ -7331,8 +10470,25 @@
         <f t="shared" si="0"/>
         <v>('TEST-A6-CASE031','사용자(APP)','권한관리','폴더/파일 권한 관리(관리)','1. 대상 폴더/파일 우 클릭\n2. 컨텍스트 메뉴에서 권한관리 클릭\n3. 권한 추가 버튼 클릭\n4. 대상 사용자(testUsr002) 체크\n5. 확인 클릭\n6. 권한 `기본` 변경\n7. 적용 클릭','1. ECM WEB(APP) 접속\n2. 아이디, 패스워드 입력(testUsr001 / test)\n3. 로그인 버튼 클릭\n4. 좌측 내비게이션 바에서 부서문서함 &gt;인젠트 &gt; 단위테스트 폴더 이동\n(※ 해당 폴더 권한 상속 해제)','대상 폴더/파일 접근시 모든 기능 사용 가능','','','','0','6.0'),</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O32" s="36" t="str">
+        <f t="shared" si="1"/>
+        <v>TEST-A6-CASE031</v>
+      </c>
+      <c r="P32" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q32" s="1" t="s">
+        <v>1025</v>
+      </c>
+      <c r="R32" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="S32" s="36" t="str">
+        <f t="shared" si="2"/>
+        <v>('TEST-A6-CASE031','actionUrl','/selenium/6/default/acase031/start.do','케이스031 URL'),</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B33" s="20" t="s">
         <v>503</v>
       </c>
@@ -7367,8 +10523,25 @@
         <f t="shared" si="0"/>
         <v>('TEST-A6-CASE032','사용자(APP)','권한관리','권한 적용','TEDM-APP-028, 029, 030, 031 참조','','읽기, 목록표시, 다운로드, 생성, 삭제, 권한변경 등의 권한 관리','','','','0.0208333333333333','6.0'),</v>
       </c>
-    </row>
-    <row r="34" spans="2:14" ht="57.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O33" s="36" t="str">
+        <f t="shared" si="1"/>
+        <v>TEST-A6-CASE032</v>
+      </c>
+      <c r="P33" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q33" s="1" t="s">
+        <v>1026</v>
+      </c>
+      <c r="R33" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="S33" s="36" t="str">
+        <f t="shared" si="2"/>
+        <v>('TEST-A6-CASE032','actionUrl','/selenium/6/default/acase032/start.do','케이스032 URL'),</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" ht="57.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B34" s="20" t="s">
         <v>504</v>
       </c>
@@ -7403,8 +10576,25 @@
         <f t="shared" si="0"/>
         <v>('TEST-A6-CASE033','사용자(APP)','권한관리','권한 상속','1. 대상 폴더/파일 우 클릭\n2. 컨텍스트 메뉴에서 권한관리 클릭\n3. 개별 권한을 적용 중 옆 체크박스 클릭\n4. 알림창에서 확인 클릭','1. ECM WEB(APP) 접속\n2. 아이디, 패스워드 입력(testUsr001 / test)\n3. 로그인 버튼 클릭\n4. 좌측 내비게이션 바에서 부서문서함 &gt;인젠트 &gt; 단위테스트 폴더 이동\n(※ 해당 폴더 권한 상속 해제)','부모 폴더로 부터 권한을 상속 리스트 확인 가능','','','','0.354166666666667','6.0'),</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" ht="57.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O34" s="36" t="str">
+        <f t="shared" si="1"/>
+        <v>TEST-A6-CASE033</v>
+      </c>
+      <c r="P34" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q34" s="1" t="s">
+        <v>1027</v>
+      </c>
+      <c r="R34" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="S34" s="36" t="str">
+        <f t="shared" si="2"/>
+        <v>('TEST-A6-CASE033','actionUrl','/selenium/6/default/acase033/start.do','케이스033 URL'),</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" ht="57.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B35" s="20" t="s">
         <v>505</v>
       </c>
@@ -7445,8 +10635,25 @@
         <f t="shared" si="0"/>
         <v>('TEST-A6-CASE034','사용자(APP)','폴더/파일 공통','이름 수정','1. 대상 폴더/파일 우 클릭\n2. 컨텍스트 메뉴에서 이름바꾸기 클릭\n3. 다이얼로그박스에서 변경할 이름 입력\n4. 확인 클릭','1. ECM WEB(APP) 접속\n2. 아이디, 패스워드 입력(testUsr001 / test)\n3. 로그인 버튼 클릭\n4. 좌측 내비게이션 바에서 부서문서함 &gt;인젠트 &gt; 단위테스트 폴더 이동','변경된 이름 확인 가능','오혜경','2020.05.14','20200520','0.916666666666667','6.0'),</v>
       </c>
-    </row>
-    <row r="36" spans="2:14" ht="57.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O35" s="36" t="str">
+        <f t="shared" si="1"/>
+        <v>TEST-A6-CASE034</v>
+      </c>
+      <c r="P35" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q35" s="1" t="s">
+        <v>1028</v>
+      </c>
+      <c r="R35" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="S35" s="36" t="str">
+        <f t="shared" si="2"/>
+        <v>('TEST-A6-CASE034','actionUrl','/selenium/6/default/acase034/start.do','케이스034 URL'),</v>
+      </c>
+    </row>
+    <row r="36" spans="2:19" ht="57.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B36" s="20" t="s">
         <v>506</v>
       </c>
@@ -7481,8 +10688,25 @@
         <f t="shared" si="0"/>
         <v>('TEST-A6-CASE035','사용자(APP)','폴더/파일 공통','설명 수정','1. 대상 폴더/파일 우 클릭\n2. 컨텍스트 메뉴에서 세부정보 클릭\n3. 설명 추가 항목 옆 추가 버튼 클릭\n4. 변경할 설명 입력\n5. 다른 공간 클릭','1. ECM WEB(APP) 접속\n2. 아이디, 패스워드 입력(testUsr001 / test)\n3. 로그인 버튼 클릭\n4. 좌측 내비게이션 바에서 부서문서함 &gt;인젠트 &gt; 단위테스트 폴더 이동','세부정보에서 변경된 설명 확인 가능','','','','0.166666666666667','6.0'),</v>
       </c>
-    </row>
-    <row r="37" spans="2:14" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O36" s="36" t="str">
+        <f t="shared" si="1"/>
+        <v>TEST-A6-CASE035</v>
+      </c>
+      <c r="P36" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q36" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="R36" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="S36" s="36" t="str">
+        <f t="shared" si="2"/>
+        <v>('TEST-A6-CASE035','actionUrl','/selenium/6/default/acase035/start.do','케이스035 URL'),</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B37" s="20" t="s">
         <v>507</v>
       </c>
@@ -7517,8 +10741,25 @@
         <f t="shared" si="0"/>
         <v>('TEST-A6-CASE036','사용자(APP)','폴더/파일 공통','소유자 변경','','','폴더, 파일의 소유자 변경 가능','','','','0','6.0'),</v>
       </c>
-    </row>
-    <row r="38" spans="2:14" ht="57.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O37" s="36" t="str">
+        <f t="shared" si="1"/>
+        <v>TEST-A6-CASE036</v>
+      </c>
+      <c r="P37" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q37" s="1" t="s">
+        <v>1030</v>
+      </c>
+      <c r="R37" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="S37" s="36" t="str">
+        <f t="shared" si="2"/>
+        <v>('TEST-A6-CASE036','actionUrl','/selenium/6/default/acase036/start.do','케이스036 URL'),</v>
+      </c>
+    </row>
+    <row r="38" spans="2:19" ht="57.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B38" s="20" t="s">
         <v>508</v>
       </c>
@@ -7555,8 +10796,25 @@
         <f t="shared" si="0"/>
         <v>('TEST-A6-CASE037','사용자(APP)','폴더/파일 공통','즐겨찾기 - 추가','1. 대상 폴더/파일 우 클릭\n2. 컨텍스트 메뉴에서 즐겨찾기 클릭','1. ECM WEB(APP) 접속\n2. 아이디, 패스워드 입력(testUsr001 / test)\n3. 로그인 버튼 클릭\n4. 좌측 내비게이션 바에서 부서문서함 &gt;인젠트 &gt; 단위테스트 폴더 이동','폴더/파일 옆 별모양 생성, 대시보드에서 즐겨찾기 리스트 확인 가능','오혜경','','','0','6.0'),</v>
       </c>
-    </row>
-    <row r="39" spans="2:14" ht="57.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O38" s="36" t="str">
+        <f t="shared" si="1"/>
+        <v>TEST-A6-CASE037</v>
+      </c>
+      <c r="P38" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q38" s="1" t="s">
+        <v>1031</v>
+      </c>
+      <c r="R38" s="1" t="s">
+        <v>771</v>
+      </c>
+      <c r="S38" s="36" t="str">
+        <f t="shared" si="2"/>
+        <v>('TEST-A6-CASE037','actionUrl','/selenium/6/default/acase037/start.do','케이스037 URL'),</v>
+      </c>
+    </row>
+    <row r="39" spans="2:19" ht="57.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B39" s="20" t="s">
         <v>509</v>
       </c>
@@ -7593,8 +10851,25 @@
         <f t="shared" si="0"/>
         <v>('TEST-A6-CASE038','사용자(APP)','폴더/파일 공통','즐겨찾기 - 해제','1. 대상 폴더/파일 우 클릭\n2. 컨텍스트 메뉴에서 즐겨찾기 해제 클릭','1. ECM WEB(APP) 접속\n2. 아이디, 패스워드 입력(testUsr001 / test)\n3. 로그인 버튼 클릭\n4. 좌측 내비게이션 바에서 부서문서함 &gt;인젠트 &gt; 단위테스트 폴더 이동','폴더/파일 옆 별모양 삭제, 대시보드에서 즐겨찾기 리스트 제거 확인 가능','오혜경','','','0','6.0'),</v>
       </c>
-    </row>
-    <row r="40" spans="2:14" ht="57.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O39" s="36" t="str">
+        <f t="shared" si="1"/>
+        <v>TEST-A6-CASE038</v>
+      </c>
+      <c r="P39" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q39" s="1" t="s">
+        <v>1032</v>
+      </c>
+      <c r="R39" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="S39" s="36" t="str">
+        <f t="shared" si="2"/>
+        <v>('TEST-A6-CASE038','actionUrl','/selenium/6/default/acase038/start.do','케이스038 URL'),</v>
+      </c>
+    </row>
+    <row r="40" spans="2:19" ht="57.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B40" s="20" t="s">
         <v>510</v>
       </c>
@@ -7629,8 +10904,25 @@
         <f t="shared" si="0"/>
         <v>('TEST-A6-CASE039','사용자(APP)','폴더/파일 공통','링크 - 추가','1. 대상 폴더/파일 우 클릭\n2. 컨텍스트 메뉴에서 세부정보 클릭\n3. 관련파일 항목 옆 추가 버튼 클릭\n4. 창에서 연결할 폴더 또는 파일 선택\n5. 확인 클릭\n6. 링크된 경로 클릭','1. ECM WEB(APP) 접속\n2. 아이디, 패스워드 입력(testUsr001 / test)\n3. 로그인 버튼 클릭\n4. 좌측 내비게이션 바에서 부서문서함 &gt;인젠트 &gt; 단위테스트 폴더 이동','링크된 폴더/파일 경로로 이동','','','','0','6.0'),</v>
       </c>
-    </row>
-    <row r="41" spans="2:14" ht="57.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O40" s="36" t="str">
+        <f t="shared" si="1"/>
+        <v>TEST-A6-CASE039</v>
+      </c>
+      <c r="P40" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q40" s="1" t="s">
+        <v>1033</v>
+      </c>
+      <c r="R40" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="S40" s="36" t="str">
+        <f t="shared" si="2"/>
+        <v>('TEST-A6-CASE039','actionUrl','/selenium/6/default/acase039/start.do','케이스039 URL'),</v>
+      </c>
+    </row>
+    <row r="41" spans="2:19" ht="57.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B41" s="20" t="s">
         <v>511</v>
       </c>
@@ -7665,8 +10957,25 @@
         <f t="shared" si="0"/>
         <v>('TEST-A6-CASE040','사용자(APP)','폴더/파일 공통','링크 - 해제','1. 대상 폴더/파일 우 클릭\n2. 컨텍스트 메뉴에서 세부정보 클릭\n3. 관련파일 리스트에서 삭제할 링크 X 버튼 클릭','1. ECM WEB(APP) 접속\n2. 아이디, 패스워드 입력(testUsr001 / test)\n3. 로그인 버튼 클릭\n4. 좌측 내비게이션 바에서 부서문서함 &gt;인젠트 &gt; 단위테스트 폴더 이동','제거된 링크 세부정보에서 확인 가능','','','','0','6.0'),</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" ht="57.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O41" s="36" t="str">
+        <f t="shared" si="1"/>
+        <v>TEST-A6-CASE040</v>
+      </c>
+      <c r="P41" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q41" s="1" t="s">
+        <v>1034</v>
+      </c>
+      <c r="R41" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="S41" s="36" t="str">
+        <f t="shared" si="2"/>
+        <v>('TEST-A6-CASE040','actionUrl','/selenium/6/default/acase040/start.do','케이스040 URL'),</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" ht="57.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B42" s="20" t="s">
         <v>512</v>
       </c>
@@ -7701,8 +11010,25 @@
         <f t="shared" si="0"/>
         <v>('TEST-A6-CASE041','사용자(APP)','폴더/파일 공통','태그 - 추가','1. 대상 폴더/파일 우 클릭\n2. 컨텍스트 메뉴에서 세부정보 클릭\n3. 태그 항목 옆 추가 버튼 클릭\n4. 추가할 태그 명 입력 후 ENTER\n5. 링크된 경로 클릭','1. ECM WEB(APP) 접속\n2. 아이디, 패스워드 입력(testUsr001 / test)\n3. 로그인 버튼 클릭\n4. 좌측 내비게이션 바에서 부서문서함 &gt;인젠트 &gt; 단위테스트 폴더 이동','추가된 태그 세부정보에서 확인 가능','','','','0','6.0'),</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" ht="57.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O42" s="36" t="str">
+        <f t="shared" si="1"/>
+        <v>TEST-A6-CASE041</v>
+      </c>
+      <c r="P42" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q42" s="1" t="s">
+        <v>1035</v>
+      </c>
+      <c r="R42" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="S42" s="36" t="str">
+        <f t="shared" si="2"/>
+        <v>('TEST-A6-CASE041','actionUrl','/selenium/6/default/acase041/start.do','케이스041 URL'),</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" ht="57.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B43" s="20" t="s">
         <v>513</v>
       </c>
@@ -7737,8 +11063,25 @@
         <f t="shared" si="0"/>
         <v>('TEST-A6-CASE042','사용자(APP)','폴더/파일 공통','태그 - 해제','1. 대상 폴더/파일 우 클릭\n2. 컨텍스트 메뉴에서 세부정보 클릭\n3. 태그 리스트에서 삭제할 태그 X 버튼 클릭','1. ECM WEB(APP) 접속\n2. 아이디, 패스워드 입력(testUsr001 / test)\n3. 로그인 버튼 클릭\n4. 좌측 내비게이션 바에서 부서문서함 &gt;인젠트 &gt; 단위테스트 폴더 이동','제거된 태그 세부정보에서 확인 가능','','','','0','6.0'),</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" ht="57.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O43" s="36" t="str">
+        <f t="shared" si="1"/>
+        <v>TEST-A6-CASE042</v>
+      </c>
+      <c r="P43" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q43" s="1" t="s">
+        <v>1036</v>
+      </c>
+      <c r="R43" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="S43" s="36" t="str">
+        <f t="shared" si="2"/>
+        <v>('TEST-A6-CASE042','actionUrl','/selenium/6/default/acase042/start.do','케이스042 URL'),</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" ht="57.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B44" s="20" t="s">
         <v>514</v>
       </c>
@@ -7773,8 +11116,25 @@
         <f t="shared" si="0"/>
         <v>('TEST-A6-CASE043','사용자(APP)','폴더/파일 공통','복사(같은폴더)','1. 대상 폴더/파일 우 클릭\n2. 컨텍스트 메뉴에서 복사 클릭\n3. 붙여넣기 클릭','1. ECM WEB(APP) 접속\n2. 아이디, 패스워드 입력(testUsr001 / test)\n3. 로그인 버튼 클릭\n4. 좌측 내비게이션 바에서 부서문서함 &gt;인젠트 &gt; 단위테스트 폴더 이동','대상 폴더/파일 명 " - 복사본 " 이 붙은 채로 복사됌','','','','0','6.0'),</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" ht="57.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O44" s="36" t="str">
+        <f t="shared" si="1"/>
+        <v>TEST-A6-CASE043</v>
+      </c>
+      <c r="P44" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q44" s="1" t="s">
+        <v>1037</v>
+      </c>
+      <c r="R44" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="S44" s="36" t="str">
+        <f t="shared" si="2"/>
+        <v>('TEST-A6-CASE043','actionUrl','/selenium/6/default/acase043/start.do','케이스043 URL'),</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" ht="57.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B45" s="20" t="s">
         <v>515</v>
       </c>
@@ -7809,8 +11169,25 @@
         <f t="shared" si="0"/>
         <v>('TEST-A6-CASE044','사용자(APP)','폴더/파일 공통','복사(다른폴더)','1. 대상 폴더/파일 우 클릭\n2. 컨텍스트 메뉴에서 복사 클릭\n3. 다른 폴더로 이동\n4. 붙여넣기 클릭','1. ECM WEB(APP) 접속\n2. 아이디, 패스워드 입력(testUsr001 / test)\n3. 로그인 버튼 클릭\n4. 좌측 내비게이션 바에서 부서문서함 &gt;인젠트 &gt; 단위테스트 폴더 이동','해당 폴더에서 복사본 확인 가능','','','','0','6.0'),</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" ht="57.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O45" s="36" t="str">
+        <f t="shared" si="1"/>
+        <v>TEST-A6-CASE044</v>
+      </c>
+      <c r="P45" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q45" s="1" t="s">
+        <v>1038</v>
+      </c>
+      <c r="R45" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="S45" s="36" t="str">
+        <f t="shared" si="2"/>
+        <v>('TEST-A6-CASE044','actionUrl','/selenium/6/default/acase044/start.do','케이스044 URL'),</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" ht="57.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B46" s="20" t="s">
         <v>516</v>
       </c>
@@ -7845,8 +11222,25 @@
         <f t="shared" si="0"/>
         <v>('TEST-A6-CASE045','사용자(APP)','폴더/파일 공통','복사(하위폴더)','1. 대상 폴더 우 클릭\n2. 컨텍스트 메뉴에서 복사 클릭\n3. 동일한 폴더의 하위 폴더로 이동\n4. 붙여넣기 클릭','1. ECM WEB(APP) 접속\n2. 아이디, 패스워드 입력(testUsr001 / test)\n3. 로그인 버튼 클릭\n4. 좌측 내비게이션 바에서 부서문서함 &gt;인젠트 &gt; 단위테스트 폴더 이동','대상 폴더가 원본 폴더의 하위폴더입니다.` 오류창 뜸','','','','0','6.0'),</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" ht="57.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O46" s="36" t="str">
+        <f t="shared" si="1"/>
+        <v>TEST-A6-CASE045</v>
+      </c>
+      <c r="P46" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q46" s="1" t="s">
+        <v>1039</v>
+      </c>
+      <c r="R46" s="1" t="s">
+        <v>779</v>
+      </c>
+      <c r="S46" s="36" t="str">
+        <f t="shared" si="2"/>
+        <v>('TEST-A6-CASE045','actionUrl','/selenium/6/default/acase045/start.do','케이스045 URL'),</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" ht="57.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B47" s="20" t="s">
         <v>517</v>
       </c>
@@ -7881,8 +11275,25 @@
         <f t="shared" si="0"/>
         <v>('TEST-A6-CASE046','사용자(APP)','폴더/파일 공통','이동(같은폴더)','1. 대상 폴더/파일 우 클릭\n2. 컨텍스트 메뉴에서 이동 클릭\n3. 붙여넣기 클릭','1. ECM WEB(APP) 접속\n2. 아이디, 패스워드 입력(testUsr001 / test)\n3. 로그인 버튼 클릭\n4. 좌측 내비게이션 바에서 부서문서함 &gt;인젠트 &gt; 단위테스트 폴더 이동','같은 폴더로 이동할 수 없습니다.` 오류창 뜸','','','','0.125','6.0'),</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" ht="57.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O47" s="36" t="str">
+        <f t="shared" si="1"/>
+        <v>TEST-A6-CASE046</v>
+      </c>
+      <c r="P47" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q47" s="1" t="s">
+        <v>1040</v>
+      </c>
+      <c r="R47" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="S47" s="36" t="str">
+        <f t="shared" si="2"/>
+        <v>('TEST-A6-CASE046','actionUrl','/selenium/6/default/acase046/start.do','케이스046 URL'),</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" ht="57.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B48" s="20" t="s">
         <v>518</v>
       </c>
@@ -7917,8 +11328,25 @@
         <f t="shared" si="0"/>
         <v>('TEST-A6-CASE047','사용자(APP)','폴더/파일 공통','이동(다른폴더)','1. 대상 폴더/파일 우 클릭\n2. 컨텍스트 메뉴에서 이동 클릭\n3. 다른 폴더로 이동\n4. 붙여넣기 클릭','1. ECM WEB(APP) 접속\n2. 아이디, 패스워드 입력(testUsr001 / test)\n3. 로그인 버튼 클릭\n4. 좌측 내비게이션 바에서 부서문서함 &gt;인젠트 &gt; 단위테스트 폴더 이동','해당 폴더에서 이동한 폴더/파일 확인 가능','','','','0','6.0'),</v>
       </c>
-    </row>
-    <row r="49" spans="2:14" ht="57.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O48" s="36" t="str">
+        <f t="shared" si="1"/>
+        <v>TEST-A6-CASE047</v>
+      </c>
+      <c r="P48" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q48" s="1" t="s">
+        <v>1041</v>
+      </c>
+      <c r="R48" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="S48" s="36" t="str">
+        <f t="shared" si="2"/>
+        <v>('TEST-A6-CASE047','actionUrl','/selenium/6/default/acase047/start.do','케이스047 URL'),</v>
+      </c>
+    </row>
+    <row r="49" spans="2:19" ht="57.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B49" s="20" t="s">
         <v>519</v>
       </c>
@@ -7953,8 +11381,25 @@
         <f t="shared" si="0"/>
         <v>('TEST-A6-CASE048','사용자(APP)','폴더/파일 공통','이동(하위폴더)','1. 대상 폴더 우 클릭\n2. 컨텍스트 메뉴에서 이동 클릭\n3. 동일한 폴더의 하위 폴더로 이동\n4. 붙여넣기 클릭','1. ECM WEB(APP) 접속\n2. 아이디, 패스워드 입력(testUsr001 / test)\n3. 로그인 버튼 클릭\n4. 좌측 내비게이션 바에서 부서문서함 &gt;인젠트 &gt; 단위테스트 폴더 이동','대상 폴더가 원본 폴더의 하위폴더입니다.` 오류창 뜸','','','','0','6.0'),</v>
       </c>
-    </row>
-    <row r="50" spans="2:14" ht="57.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O49" s="36" t="str">
+        <f t="shared" si="1"/>
+        <v>TEST-A6-CASE048</v>
+      </c>
+      <c r="P49" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q49" s="1" t="s">
+        <v>1042</v>
+      </c>
+      <c r="R49" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="S49" s="36" t="str">
+        <f t="shared" si="2"/>
+        <v>('TEST-A6-CASE048','actionUrl','/selenium/6/default/acase048/start.do','케이스048 URL'),</v>
+      </c>
+    </row>
+    <row r="50" spans="2:19" ht="57.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B50" s="20" t="s">
         <v>520</v>
       </c>
@@ -7989,8 +11434,25 @@
         <f t="shared" si="0"/>
         <v>('TEST-A6-CASE049','사용자(APP)','폴더/파일 공통','삭제','1. 대상 폴더/파일 우 클릭(또는 오른쪽 상단 휴지통 아이콘 클릭)\n2. 컨텍스트 메뉴에서 삭제 클릭\n3. 알림창에서 삭제 클릭','1. ECM WEB(APP) 접속\n2. 아이디, 패스워드 입력(testUsr001 / test)\n3. 로그인 버튼 클릭\n4. 좌측 내비게이션 바에서 부서문서함 &gt;인젠트 &gt; 단위테스트 폴더 이동','대상 폴더 리스트에서 파일 삭제 확인','','','','0','6.0'),</v>
       </c>
-    </row>
-    <row r="51" spans="2:14" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O50" s="36" t="str">
+        <f t="shared" si="1"/>
+        <v>TEST-A6-CASE049</v>
+      </c>
+      <c r="P50" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q50" s="1" t="s">
+        <v>1043</v>
+      </c>
+      <c r="R50" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="S50" s="36" t="str">
+        <f t="shared" si="2"/>
+        <v>('TEST-A6-CASE049','actionUrl','/selenium/6/default/acase049/start.do','케이스049 URL'),</v>
+      </c>
+    </row>
+    <row r="51" spans="2:19" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B51" s="20" t="s">
         <v>521</v>
       </c>
@@ -8025,8 +11487,25 @@
         <f t="shared" si="0"/>
         <v>('TEST-A6-CASE050','사용자(APP)','폴더/파일 공통','휴지통 지원','TEDM-APP-049 참조','','휴지통에서 삭제된 파일 확인 가능','','','','0','6.0'),</v>
       </c>
-    </row>
-    <row r="52" spans="2:14" ht="43.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O51" s="36" t="str">
+        <f t="shared" si="1"/>
+        <v>TEST-A6-CASE050</v>
+      </c>
+      <c r="P51" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q51" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="R51" s="1" t="s">
+        <v>784</v>
+      </c>
+      <c r="S51" s="36" t="str">
+        <f t="shared" si="2"/>
+        <v>('TEST-A6-CASE050','actionUrl','/selenium/6/default/acase050/start.do','케이스050 URL'),</v>
+      </c>
+    </row>
+    <row r="52" spans="2:19" ht="43.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B52" s="20" t="s">
         <v>522</v>
       </c>
@@ -8061,8 +11540,25 @@
         <f t="shared" si="0"/>
         <v>('TEST-A6-CASE051','사용자(APP)','폴더/파일 공통','삭제 복원(원래 위치)','1. 대상 폴더/파일 우 클릭\n2. 컨텍스트 메뉴에서 복원 클릭\n3. 원래 위치로 복원 체크\n4. 복원 클릭','1. ECM WEB(APP) 접속\n2. 아이디, 패스워드 입력(testUsr001 / test)\n3. 로그인 버튼 클릭\n4. 좌측 내비게이션 바에서 휴지통 이동','삭제했던 위치 정상 복원 후 휴지통 리스트에서 제거','','','','0','6.0'),</v>
       </c>
-    </row>
-    <row r="53" spans="2:14" ht="43.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O52" s="36" t="str">
+        <f t="shared" si="1"/>
+        <v>TEST-A6-CASE051</v>
+      </c>
+      <c r="P52" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q52" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="R52" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="S52" s="36" t="str">
+        <f t="shared" si="2"/>
+        <v>('TEST-A6-CASE051','actionUrl','/selenium/6/default/acase051/start.do','케이스051 URL'),</v>
+      </c>
+    </row>
+    <row r="53" spans="2:19" ht="43.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B53" s="20" t="s">
         <v>523</v>
       </c>
@@ -8097,8 +11593,25 @@
         <f t="shared" si="0"/>
         <v>('TEST-A6-CASE052','사용자(APP)','폴더/파일 공통','삭제 복원(위치 지정)','1. 대상 폴더/파일 우 클릭\n2. 컨텍스트 메뉴에서 복원 클릭\n3. `복구할 위치 지정` 체크\n4. `모든 문서함` 클릭\n5. 복귀 위치 지정 후 확인 클릭\n6. 복원 클릭','1. ECM WEB(APP) 접속\n2. 아이디, 패스워드 입력(testUsr001 / test)\n3. 로그인 버튼 클릭\n4. 좌측 내비게이션 바에서 휴지통 이동','복구 지정 위치 정상 복원 후 휴지통 리스트에서 제거','','','','0','6.0'),</v>
       </c>
-    </row>
-    <row r="54" spans="2:14" ht="43.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O53" s="36" t="str">
+        <f t="shared" si="1"/>
+        <v>TEST-A6-CASE052</v>
+      </c>
+      <c r="P53" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q53" s="1" t="s">
+        <v>1046</v>
+      </c>
+      <c r="R53" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="S53" s="36" t="str">
+        <f t="shared" si="2"/>
+        <v>('TEST-A6-CASE052','actionUrl','/selenium/6/default/acase052/start.do','케이스052 URL'),</v>
+      </c>
+    </row>
+    <row r="54" spans="2:19" ht="43.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B54" s="20" t="s">
         <v>524</v>
       </c>
@@ -8133,8 +11646,25 @@
         <f t="shared" si="0"/>
         <v>('TEST-A6-CASE053','사용자(APP)','폴더/파일 공통','삭제 복원(위치 지정 - 취소)','1. 대상 폴더/파일 우 클릭\n2. 컨텍스트 메뉴에서 복원 클릭\n3. `복구할 위치 지정` 체크\n4. `모든 문서함` 클릭\n5. 복귀 위치 지정 후 확인 클릭\n6. 취소 클릭','1. ECM WEB(APP) 접속\n2. 아이디, 패스워드 입력(testUsr001 / test)\n3. 로그인 버튼 클릭\n4. 좌측 내비게이션 바에서 휴지통 이동','모든 문서함으로 변경 확인','','','','0.125','6.0'),</v>
       </c>
-    </row>
-    <row r="55" spans="2:14" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O54" s="36" t="str">
+        <f t="shared" si="1"/>
+        <v>TEST-A6-CASE053</v>
+      </c>
+      <c r="P54" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q54" s="1" t="s">
+        <v>1047</v>
+      </c>
+      <c r="R54" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="S54" s="36" t="str">
+        <f t="shared" si="2"/>
+        <v>('TEST-A6-CASE053','actionUrl','/selenium/6/default/acase053/start.do','케이스053 URL'),</v>
+      </c>
+    </row>
+    <row r="55" spans="2:19" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B55" s="20" t="s">
         <v>525</v>
       </c>
@@ -8169,8 +11699,25 @@
         <f t="shared" si="0"/>
         <v>('TEST-A6-CASE054','사용자(APP)','폴더/파일 공통','의견쓰기','TEDM-APP-062 참조','','편집완료 시 comment 작성','','','','0','6.0'),</v>
       </c>
-    </row>
-    <row r="56" spans="2:14" ht="57.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O55" s="36" t="str">
+        <f t="shared" si="1"/>
+        <v>TEST-A6-CASE054</v>
+      </c>
+      <c r="P55" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q55" s="1" t="s">
+        <v>1048</v>
+      </c>
+      <c r="R55" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="S55" s="36" t="str">
+        <f t="shared" si="2"/>
+        <v>('TEST-A6-CASE054','actionUrl','/selenium/6/default/acase054/start.do','케이스054 URL'),</v>
+      </c>
+    </row>
+    <row r="56" spans="2:19" ht="57.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B56" s="20" t="s">
         <v>526</v>
       </c>
@@ -8205,8 +11752,25 @@
         <f t="shared" si="0"/>
         <v>('TEST-A6-CASE055','사용자(APP)','파일 기능','다운로드(단일)','1. 대상 파일 우 클릭(또는 더블클릭)\n2. 컨텍스트 메뉴에서 다운로드 클릭','1. ECM WEB(APP) 접속\n2. 아이디, 패스워드 입력(testUsr001 / test)\n3. 로그인 버튼 클릭\n4. 좌측 내비게이션 바에서 부서문서함 &gt;인젠트 &gt; 단위테스트 폴더 이동','다운로드 폴더에서 확인 가능','','','','0','6.0'),</v>
       </c>
-    </row>
-    <row r="57" spans="2:14" ht="57.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O56" s="36" t="str">
+        <f t="shared" si="1"/>
+        <v>TEST-A6-CASE055</v>
+      </c>
+      <c r="P56" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q56" s="1" t="s">
+        <v>1049</v>
+      </c>
+      <c r="R56" s="1" t="s">
+        <v>789</v>
+      </c>
+      <c r="S56" s="36" t="str">
+        <f t="shared" si="2"/>
+        <v>('TEST-A6-CASE055','actionUrl','/selenium/6/default/acase055/start.do','케이스055 URL'),</v>
+      </c>
+    </row>
+    <row r="57" spans="2:19" ht="57.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B57" s="20" t="s">
         <v>527</v>
       </c>
@@ -8247,8 +11811,25 @@
         <f t="shared" si="0"/>
         <v>('TEST-A6-CASE056','사용자(APP)','파일 기능','다운로드(복수)','1. 대상 파일 목록 shift or ctrl 키로 선택\n2. 우클릭\n3. 컨텍스트 메뉴에서 다운로드 클릭','1. ECM WEB(APP) 접속\n2. 아이디, 패스워드 입력(testUsr001 / test)\n3. 로그인 버튼 클릭\n4. 좌측 내비게이션 바에서 부서문서함 &gt;인젠트 &gt; 단위테스트 폴더 이동','다운로드 폴더에서 (대상파일명.zip) 이름으로 다운로드','박선혜\n오혜경','20200520','20200522','0','6.0'),</v>
       </c>
-    </row>
-    <row r="58" spans="2:14" ht="57.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O57" s="36" t="str">
+        <f t="shared" si="1"/>
+        <v>TEST-A6-CASE056</v>
+      </c>
+      <c r="P57" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q57" s="1" t="s">
+        <v>1050</v>
+      </c>
+      <c r="R57" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="S57" s="36" t="str">
+        <f t="shared" si="2"/>
+        <v>('TEST-A6-CASE056','actionUrl','/selenium/6/default/acase056/start.do','케이스056 URL'),</v>
+      </c>
+    </row>
+    <row r="58" spans="2:19" ht="57.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B58" s="20" t="s">
         <v>528</v>
       </c>
@@ -8283,8 +11864,25 @@
         <f t="shared" si="0"/>
         <v>('TEST-A6-CASE057','사용자(APP)','파일 기능','폴더 다운로드','1. 대상 폴더 우 클릭\n2. 컨텍스트 메뉴에서 다운로드 클릭','1. ECM WEB(APP) 접속\n2. 아이디, 패스워드 입력(testUsr001 / test)\n3. 로그인 버튼 클릭\n4. 좌측 내비게이션 바에서 부서문서함 &gt;인젠트 &gt; 단위테스트 폴더 이동','폴더를 zip 으로 다운로드','','','','0','6.0'),</v>
       </c>
-    </row>
-    <row r="59" spans="2:14" ht="57.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O58" s="36" t="str">
+        <f t="shared" si="1"/>
+        <v>TEST-A6-CASE057</v>
+      </c>
+      <c r="P58" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q58" s="1" t="s">
+        <v>1051</v>
+      </c>
+      <c r="R58" s="1" t="s">
+        <v>791</v>
+      </c>
+      <c r="S58" s="36" t="str">
+        <f t="shared" si="2"/>
+        <v>('TEST-A6-CASE057','actionUrl','/selenium/6/default/acase057/start.do','케이스057 URL'),</v>
+      </c>
+    </row>
+    <row r="59" spans="2:19" ht="57.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B59" s="20" t="s">
         <v>529</v>
       </c>
@@ -8319,8 +11917,25 @@
         <f t="shared" si="0"/>
         <v>('TEST-A6-CASE058','사용자(APP)','파일 기능','파일 등록(선택 등록)','1. 오른쪽 상단 새로만들기 클릭\n2. 파일 업로드 클릭\n3. 창에서 파일 선택','1. ECM WEB(APP) 접속\n2. 아이디, 패스워드 입력(testUsr001 / test)\n3. 로그인 버튼 클릭\n4. 좌측 내비게이션 바에서 부서문서함 &gt;인젠트 &gt; 단위테스트 폴더 이동','대상 파일 등록 확인 및 다운로드 정상 확인','','','','0','6.0'),</v>
       </c>
-    </row>
-    <row r="60" spans="2:14" ht="57.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O59" s="36" t="str">
+        <f t="shared" si="1"/>
+        <v>TEST-A6-CASE058</v>
+      </c>
+      <c r="P59" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q59" s="1" t="s">
+        <v>1052</v>
+      </c>
+      <c r="R59" s="1" t="s">
+        <v>792</v>
+      </c>
+      <c r="S59" s="36" t="str">
+        <f t="shared" si="2"/>
+        <v>('TEST-A6-CASE058','actionUrl','/selenium/6/default/acase058/start.do','케이스058 URL'),</v>
+      </c>
+    </row>
+    <row r="60" spans="2:19" ht="57.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B60" s="20" t="s">
         <v>530</v>
       </c>
@@ -8355,8 +11970,25 @@
         <f t="shared" si="0"/>
         <v>('TEST-A6-CASE059','사용자(APP)','파일 기능','파일 등록(파일 생성)','1. 오른쪽 상단 새로만들기 클릭\n2. 파일생성 클릭(TXT,Word,Excel,PPT)\n3. 파일명 입력 후 확인 클릭\n4. 창에서 파일 선택','1. ECM WEB(APP) 접속\n2. 아이디, 패스워드 입력(testUsr001 / test)\n3. 로그인 버튼 클릭\n4. 좌측 내비게이션 바에서 부서문서함 &gt;인젠트 &gt; 단위테스트 폴더 이동','대상 파일 등록 확인 및 다운로드 정상 확인','','','','0','6.0'),</v>
       </c>
-    </row>
-    <row r="61" spans="2:14" ht="57.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O60" s="36" t="str">
+        <f t="shared" si="1"/>
+        <v>TEST-A6-CASE059</v>
+      </c>
+      <c r="P60" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q60" s="1" t="s">
+        <v>1053</v>
+      </c>
+      <c r="R60" s="1" t="s">
+        <v>793</v>
+      </c>
+      <c r="S60" s="36" t="str">
+        <f t="shared" si="2"/>
+        <v>('TEST-A6-CASE059','actionUrl','/selenium/6/default/acase059/start.do','케이스059 URL'),</v>
+      </c>
+    </row>
+    <row r="61" spans="2:19" ht="57.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B61" s="20" t="s">
         <v>531</v>
       </c>
@@ -8391,8 +12023,25 @@
         <f t="shared" si="0"/>
         <v>('TEST-A6-CASE060','사용자(APP)','파일 기능','체크아웃','1. 대상 파일 우 클릭\n2. 컨텍스트 메뉴에서 편집 클릭','1. ECM WEB(APP) 접속\n2. 아이디, 패스워드 입력(testUsr001 / test)\n3. 로그인 버튼 클릭\n4. 좌측 내비게이션 바에서 부서문서함 &gt;인젠트 &gt; 단위테스트 폴더 이동','다운로드 문서 정상 확인 및 잠금표시 확인','','','','0','6.0'),</v>
       </c>
-    </row>
-    <row r="62" spans="2:14" ht="57.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O61" s="36" t="str">
+        <f t="shared" si="1"/>
+        <v>TEST-A6-CASE060</v>
+      </c>
+      <c r="P61" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q61" s="1" t="s">
+        <v>1054</v>
+      </c>
+      <c r="R61" s="1" t="s">
+        <v>794</v>
+      </c>
+      <c r="S61" s="36" t="str">
+        <f t="shared" si="2"/>
+        <v>('TEST-A6-CASE060','actionUrl','/selenium/6/default/acase060/start.do','케이스060 URL'),</v>
+      </c>
+    </row>
+    <row r="62" spans="2:19" ht="57.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B62" s="20" t="s">
         <v>532</v>
       </c>
@@ -8427,8 +12076,25 @@
         <f t="shared" si="0"/>
         <v>('TEST-A6-CASE061','사용자(APP)','파일 기능','체크인 - 편집취소','1. 대상 파일 우 클릭\n2. 컨텍스트 메뉴에서 편집취소 클릭','1. ECM WEB(APP) 접속\n2. 아이디, 패스워드 입력(testUsr001 / test)\n3. 로그인 버튼 클릭\n4. 좌측 내비게이션 바에서 부서문서함 &gt;인젠트 &gt; 단위테스트 폴더 이동','문서 버전 변경 없음 확인','','','','0.0208333333333333','6.0'),</v>
       </c>
-    </row>
-    <row r="63" spans="2:14" ht="57.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O62" s="36" t="str">
+        <f t="shared" si="1"/>
+        <v>TEST-A6-CASE061</v>
+      </c>
+      <c r="P62" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q62" s="1" t="s">
+        <v>1055</v>
+      </c>
+      <c r="R62" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="S62" s="36" t="str">
+        <f t="shared" si="2"/>
+        <v>('TEST-A6-CASE061','actionUrl','/selenium/6/default/acase061/start.do','케이스061 URL'),</v>
+      </c>
+    </row>
+    <row r="63" spans="2:19" ht="57.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B63" s="20" t="s">
         <v>533</v>
       </c>
@@ -8463,8 +12129,25 @@
         <f t="shared" si="0"/>
         <v>('TEST-A6-CASE062','사용자(APP)','파일 기능','체크인 - 편집완료','1. 대상 파일 우 클릭\n2. 컨텍스트 메뉴에서 편집완료 클릭\n3. 마이너버전 / 메이저버전 선택\n4. 코멘트 작성\n5. 파일선택 버튼 클릭\n6. 파일업로드 확인\n7. 편집완료 클릭','1. ECM WEB(APP) 접속\n2. 아이디, 패스워드 입력(testUsr001 / test)\n3. 로그인 버튼 클릭\n4. 좌측 내비게이션 바에서 부서문서함 &gt;인젠트 &gt; 단위테스트 폴더 이동','문서 버전 변경 확인 및 다운로드시 정상 버전 확인','','','','0','6.0'),</v>
       </c>
-    </row>
-    <row r="64" spans="2:14" ht="57.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O63" s="36" t="str">
+        <f t="shared" si="1"/>
+        <v>TEST-A6-CASE062</v>
+      </c>
+      <c r="P63" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q63" s="1" t="s">
+        <v>1056</v>
+      </c>
+      <c r="R63" s="1" t="s">
+        <v>796</v>
+      </c>
+      <c r="S63" s="36" t="str">
+        <f t="shared" si="2"/>
+        <v>('TEST-A6-CASE062','actionUrl','/selenium/6/default/acase062/start.do','케이스062 URL'),</v>
+      </c>
+    </row>
+    <row r="64" spans="2:19" ht="57.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B64" s="20" t="s">
         <v>534</v>
       </c>
@@ -8499,8 +12182,25 @@
         <f t="shared" si="0"/>
         <v>('TEST-A6-CASE063','사용자(APP)','파일 기능','버전관리 - 새로만들기','1. 오른쪽 상단 새로만들기 클릭\n2. 파일 업로드 클릭\n3. 창에서 동일한 파일 명의 파일 선택','1. ECM WEB(APP) 접속\n2. 아이디, 패스워드 입력(testUsr001 / test)\n3. 로그인 버튼 클릭\n4. 좌측 내비게이션 바에서 부서문서함 &gt;인젠트 &gt; 단위테스트 폴더 이동','문서 버전 변경 확인 및 다운로드시 정상 버전 확인','','','','0.298611111111111','6.0'),</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" ht="57.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O64" s="36" t="str">
+        <f t="shared" si="1"/>
+        <v>TEST-A6-CASE063</v>
+      </c>
+      <c r="P64" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q64" s="1" t="s">
+        <v>1057</v>
+      </c>
+      <c r="R64" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="S64" s="36" t="str">
+        <f t="shared" si="2"/>
+        <v>('TEST-A6-CASE063','actionUrl','/selenium/6/default/acase063/start.do','케이스063 URL'),</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" ht="57.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B65" s="20" t="s">
         <v>535</v>
       </c>
@@ -8541,8 +12241,25 @@
         <f t="shared" si="0"/>
         <v>('TEST-A6-CASE064','사용자(APP)','파일 기능','버전관리 - 편집','1. 대상 파일 우 클릭\n2. 컨텍스트 메뉴에서 편집 클릭\n3. 대상 파일 우 클릭(또는 더블클릭)\n4. 컨텍스트 메뉴에서 편집완료 클릭\n5. 마이너버전 / 메이저버전 선택\n6. 코멘트 작성\n7. 편집완료 클릭','1. ECM WEB(APP) 접속\n2. 아이디, 패스워드 입력(testUsr001 / test)\n3. 로그인 버튼 클릭\n4. 좌측 내비게이션 바에서 부서문서함 &gt;인젠트 &gt; 단위테스트 폴더 이동','문서 버전 변경 확인 및 다운로드시 정상 버전 확인','박선혜\n오혜경','20200520','20200522','0','6.0'),</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" ht="57.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O65" s="36" t="str">
+        <f t="shared" si="1"/>
+        <v>TEST-A6-CASE064</v>
+      </c>
+      <c r="P65" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q65" s="1" t="s">
+        <v>1058</v>
+      </c>
+      <c r="R65" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="S65" s="36" t="str">
+        <f t="shared" si="2"/>
+        <v>('TEST-A6-CASE064','actionUrl','/selenium/6/default/acase064/start.do','케이스064 URL'),</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" ht="57.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B66" s="20" t="s">
         <v>536</v>
       </c>
@@ -8577,8 +12294,25 @@
         <f t="shared" si="0"/>
         <v>('TEST-A6-CASE065','사용자(APP)','파일 기능','버전 되돌리기','1. 대상 파일 우 클릭\n2. 컨텍스트 메뉴에서 세부정보 클릭\n3. 버전관리 클릭\n4. 옵션 버튼 클릭\n5. 이전 버전복구 클릭\n6. 알림창에서 확인 클릭','1. ECM WEB(APP) 접속\n2. 아이디, 패스워드 입력(testUsr001 / test)\n3. 로그인 버튼 클릭\n4. 좌측 내비게이션 바에서 부서문서함 &gt;인젠트 &gt; 단위테스트 폴더 이동','메이저 버전 업 및 다운로드 시 정상 버전 확인','','','','0','6.0'),</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" ht="57.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O66" s="36" t="str">
+        <f t="shared" si="1"/>
+        <v>TEST-A6-CASE065</v>
+      </c>
+      <c r="P66" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q66" s="1" t="s">
+        <v>1059</v>
+      </c>
+      <c r="R66" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="S66" s="36" t="str">
+        <f t="shared" si="2"/>
+        <v>('TEST-A6-CASE065','actionUrl','/selenium/6/default/acase065/start.do','케이스065 URL'),</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" ht="57.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B67" s="20" t="s">
         <v>537</v>
       </c>
@@ -8610,11 +12344,28 @@
         <v>461</v>
       </c>
       <c r="N67" s="17" t="str">
-        <f t="shared" ref="N67:N130" si="1">CONCATENATE("('",B67,"','",C67,"','",D67,"','",E67,"','",F67,"','",G67,"','",H67,"','",I67,"','",J67,"','",K67,"','",L67,"','",M67,"'),")</f>
+        <f t="shared" ref="N67:N130" si="3">CONCATENATE("('",B67,"','",C67,"','",D67,"','",E67,"','",F67,"','",G67,"','",H67,"','",I67,"','",J67,"','",K67,"','",L67,"','",M67,"'),")</f>
         <v>('TEST-A6-CASE066','사용자(APP)','파일 기능','해당 버전 다운로드','1. 대상 파일 우 클릭\n2. 컨텍스트 메뉴에서 세부정보 클릭\n3. 버전관리 클릭\n4. 옵션 버튼 클릭\n5. 다운로드 클릭','1. ECM WEB(APP) 접속\n2. 아이디, 패스워드 입력(testUsr001 / test)\n3. 로그인 버튼 클릭\n4. 좌측 내비게이션 바에서 부서문서함 &gt;인젠트 &gt; 단위테스트 폴더 이동','해당 버전의 파일 다운로드 확인','','','','0','6.0'),</v>
       </c>
-    </row>
-    <row r="68" spans="2:14" ht="57.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O67" s="36" t="str">
+        <f t="shared" ref="O67:O130" si="4">B67</f>
+        <v>TEST-A6-CASE066</v>
+      </c>
+      <c r="P67" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q67" s="1" t="s">
+        <v>1060</v>
+      </c>
+      <c r="R67" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="S67" s="36" t="str">
+        <f t="shared" ref="S67:S130" si="5">CONCATENATE("('",O67,"','",P67,"','",Q67,"','",R67,"'),")</f>
+        <v>('TEST-A6-CASE066','actionUrl','/selenium/6/default/acase066/start.do','케이스066 URL'),</v>
+      </c>
+    </row>
+    <row r="68" spans="2:19" ht="57.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B68" s="20" t="s">
         <v>538</v>
       </c>
@@ -8646,11 +12397,28 @@
         <v>461</v>
       </c>
       <c r="N68" s="17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>('TEST-A6-CASE067','사용자(APP)','파일 기능','버전 상세보기','1. 대상 파일 우 클릭\n2. 컨텍스트 메뉴에서 세부정보 클릭\n3. 버전관리 클릭','1. ECM WEB(APP) 접속\n2. 아이디, 패스워드 입력(testUsr001 / test)\n3. 로그인 버튼 클릭\n4. 좌측 내비게이션 바에서 부서문서함 &gt;인젠트 &gt; 단위테스트 폴더 이동','창에서 이전 버전 리스트 확인','','','','0','6.0'),</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O68" s="36" t="str">
+        <f t="shared" si="4"/>
+        <v>TEST-A6-CASE067</v>
+      </c>
+      <c r="P68" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q68" s="1" t="s">
+        <v>1061</v>
+      </c>
+      <c r="R68" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="S68" s="36" t="str">
+        <f t="shared" si="5"/>
+        <v>('TEST-A6-CASE067','actionUrl','/selenium/6/default/acase067/start.do','케이스067 URL'),</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B69" s="20" t="s">
         <v>539</v>
       </c>
@@ -8682,11 +12450,28 @@
         <v>461</v>
       </c>
       <c r="N69" s="17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>('TEST-A6-CASE068','사용자(APP)','파일 기능','압축','','','탐색기의 경우 폴더및 문서 압축 가능','','','','0.0208333333333333','6.0'),</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" ht="57.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O69" s="36" t="str">
+        <f t="shared" si="4"/>
+        <v>TEST-A6-CASE068</v>
+      </c>
+      <c r="P69" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q69" s="1" t="s">
+        <v>1062</v>
+      </c>
+      <c r="R69" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="S69" s="36" t="str">
+        <f t="shared" si="5"/>
+        <v>('TEST-A6-CASE068','actionUrl','/selenium/6/default/acase068/start.do','케이스068 URL'),</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" ht="57.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B70" s="20" t="s">
         <v>540</v>
       </c>
@@ -8718,11 +12503,28 @@
         <v>461</v>
       </c>
       <c r="N70" s="17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>('TEST-A6-CASE069','사용자(APP)','파일 기능','압축해제','1. 대상 파일 우 클릭\n2. 컨텍스트 메뉴에서 압축풀기 클릭\n3. 창에서 확인 클릭','1. ECM WEB(APP) 접속\n2. 아이디, 패스워드 입력(testUsr001 / test)\n3. 로그인 버튼 클릭\n4. 좌측 내비게이션 바에서 부서문서함 &gt;인젠트 &gt; 단위테스트 폴더 이동','압축한 파일','','','','0','6.0'),</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" ht="57.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O70" s="36" t="str">
+        <f t="shared" si="4"/>
+        <v>TEST-A6-CASE069</v>
+      </c>
+      <c r="P70" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q70" s="1" t="s">
+        <v>1063</v>
+      </c>
+      <c r="R70" s="1" t="s">
+        <v>803</v>
+      </c>
+      <c r="S70" s="36" t="str">
+        <f t="shared" si="5"/>
+        <v>('TEST-A6-CASE069','actionUrl','/selenium/6/default/acase069/start.do','케이스069 URL'),</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" ht="57.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B71" s="20" t="s">
         <v>541</v>
       </c>
@@ -8754,11 +12556,28 @@
         <v>461</v>
       </c>
       <c r="N71" s="17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>('TEST-A6-CASE070','사용자(APP)','파일 기능','상세보기','1. 대상 폴더/파일 우 클릭\n2. 컨텍스트 메뉴에서 세부정보 클릭','1. ECM WEB(APP) 접속\n2. 아이디, 패스워드 입력(testUsr001 / test)\n3. 로그인 버튼 클릭\n4. 좌측 내비게이션 바에서 부서문서함 &gt;인젠트 &gt; 단위테스트 폴더 이동','속성 창 확인 가능','','','','0.208333333333333','6.0'),</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" ht="57.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O71" s="36" t="str">
+        <f t="shared" si="4"/>
+        <v>TEST-A6-CASE070</v>
+      </c>
+      <c r="P71" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q71" s="1" t="s">
+        <v>1064</v>
+      </c>
+      <c r="R71" s="1" t="s">
+        <v>804</v>
+      </c>
+      <c r="S71" s="36" t="str">
+        <f t="shared" si="5"/>
+        <v>('TEST-A6-CASE070','actionUrl','/selenium/6/default/acase070/start.do','케이스070 URL'),</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" ht="57.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B72" s="20" t="s">
         <v>542</v>
       </c>
@@ -8790,11 +12609,28 @@
         <v>461</v>
       </c>
       <c r="N72" s="17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>('TEST-A6-CASE071','사용자(APP)','파일 기능','미리보기','1. 대상 파일 더블클릭','1. ECM WEB(APP) 접속\n2. 아이디, 패스워드 입력(testUsr001 / test)\n3. 로그인 버튼 클릭\n4. 좌측 내비게이션 바에서 부서문서함 &gt;인젠트 &gt; 단위테스트 폴더 이동','오피스, 이미지, 아래한글, pdf 문서의 프리뷰 기능 제공','','','','0','6.0'),</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O72" s="36" t="str">
+        <f t="shared" si="4"/>
+        <v>TEST-A6-CASE071</v>
+      </c>
+      <c r="P72" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q72" s="1" t="s">
+        <v>1065</v>
+      </c>
+      <c r="R72" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="S72" s="36" t="str">
+        <f t="shared" si="5"/>
+        <v>('TEST-A6-CASE071','actionUrl','/selenium/6/default/acase071/start.do','케이스071 URL'),</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B73" s="20" t="s">
         <v>543</v>
       </c>
@@ -8826,11 +12662,28 @@
         <v>461</v>
       </c>
       <c r="N73" s="17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>('TEST-A6-CASE072','사용자(APP)','파일 기능','보존기간 관리','','','보존기간이 관리되어 보존기간이 지난 문서는 자동 폐기됨','','','','0','6.0'),</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O73" s="36" t="str">
+        <f t="shared" si="4"/>
+        <v>TEST-A6-CASE072</v>
+      </c>
+      <c r="P73" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q73" s="1" t="s">
+        <v>1066</v>
+      </c>
+      <c r="R73" s="1" t="s">
+        <v>806</v>
+      </c>
+      <c r="S73" s="36" t="str">
+        <f t="shared" si="5"/>
+        <v>('TEST-A6-CASE072','actionUrl','/selenium/6/default/acase072/start.do','케이스072 URL'),</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B74" s="20" t="s">
         <v>544</v>
       </c>
@@ -8862,11 +12715,28 @@
         <v>461</v>
       </c>
       <c r="N74" s="17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>('TEST-A6-CASE073','사용자(APP)','파일 기능','문서유형 관리','','','문서의 유형 관리','','','','0','6.0'),</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" ht="57.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O74" s="36" t="str">
+        <f t="shared" si="4"/>
+        <v>TEST-A6-CASE073</v>
+      </c>
+      <c r="P74" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q74" s="1" t="s">
+        <v>1067</v>
+      </c>
+      <c r="R74" s="1" t="s">
+        <v>807</v>
+      </c>
+      <c r="S74" s="36" t="str">
+        <f t="shared" si="5"/>
+        <v>('TEST-A6-CASE073','actionUrl','/selenium/6/default/acase073/start.do','케이스073 URL'),</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" ht="57.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B75" s="20" t="s">
         <v>545</v>
       </c>
@@ -8898,11 +12768,28 @@
         <v>461</v>
       </c>
       <c r="N75" s="17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>('TEST-A6-CASE074','사용자(APP)','파일 기능','이력','1. 대상 파일 우 클릭\n2. 컨텍스트 메뉴에서 세부정보 클릭\n3. 이력 탭 클릭','1. ECM WEB(APP) 접속\n2. 아이디, 패스워드 입력(testUsr001 / test)\n3. 로그인 버튼 클릭\n4. 좌측 내비게이션 바에서 부서문서함 &gt;인젠트 &gt; 단위테스트 폴더 이동','파일의 생성, 수정, 다운로드 등의 이벤트 확인','','','','0','6.0'),</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O75" s="36" t="str">
+        <f t="shared" si="4"/>
+        <v>TEST-A6-CASE074</v>
+      </c>
+      <c r="P75" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q75" s="1" t="s">
+        <v>1068</v>
+      </c>
+      <c r="R75" s="1" t="s">
+        <v>808</v>
+      </c>
+      <c r="S75" s="36" t="str">
+        <f t="shared" si="5"/>
+        <v>('TEST-A6-CASE074','actionUrl','/selenium/6/default/acase074/start.do','케이스074 URL'),</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B76" s="20" t="s">
         <v>546</v>
       </c>
@@ -8934,11 +12821,28 @@
         <v>461</v>
       </c>
       <c r="N76" s="17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>('TEST-A6-CASE075','사용자(APP)','폴더 기능','폴더 다운로드','TEDM-APP-057 참조','','폴더를 zip 으로 다운로드','','','','0','6.0'),</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" ht="57.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O76" s="36" t="str">
+        <f t="shared" si="4"/>
+        <v>TEST-A6-CASE075</v>
+      </c>
+      <c r="P76" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q76" s="1" t="s">
+        <v>1069</v>
+      </c>
+      <c r="R76" s="1" t="s">
+        <v>809</v>
+      </c>
+      <c r="S76" s="36" t="str">
+        <f t="shared" si="5"/>
+        <v>('TEST-A6-CASE075','actionUrl','/selenium/6/default/acase075/start.do','케이스075 URL'),</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" ht="57.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B77" s="20" t="s">
         <v>547</v>
       </c>
@@ -8976,11 +12880,28 @@
         <v>461</v>
       </c>
       <c r="N77" s="17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>('TEST-A6-CASE076','사용자(APP)','폴더 기능','폴더 생성','1. 오른쪽 상단 새로만들기 클릭\n2. 폴더 클릭\n3. 창에서 폴더명 입력\n4. 확인 클릭','1. ECM WEB(APP) 접속\n2. 아이디, 패스워드 입력(testUsr001 / test)\n3. 로그인 버튼 클릭\n4. 좌측 내비게이션 바에서 부서문서함 &gt;인젠트 &gt; 단위테스트 폴더 이동','폴더 신규 생성 확인','박선혜\n오혜경','2020.05.14','2020.05.14','0','6.0'),</v>
       </c>
-    </row>
-    <row r="78" spans="2:14" ht="57.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O77" s="36" t="str">
+        <f t="shared" si="4"/>
+        <v>TEST-A6-CASE076</v>
+      </c>
+      <c r="P77" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q77" s="1" t="s">
+        <v>1070</v>
+      </c>
+      <c r="R77" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="S77" s="36" t="str">
+        <f t="shared" si="5"/>
+        <v>('TEST-A6-CASE076','actionUrl','/selenium/6/default/acase076/start.do','케이스076 URL'),</v>
+      </c>
+    </row>
+    <row r="78" spans="2:19" ht="57.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B78" s="20" t="s">
         <v>548</v>
       </c>
@@ -9012,11 +12933,28 @@
         <v>461</v>
       </c>
       <c r="N78" s="17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>('TEST-A6-CASE077','사용자(APP)','폴더 기능','폴더별 용량 및 폴더/파일수 조회','1. 대상 폴더/파일 우 클릭\n2. 컨텍스트 메뉴에서 세부정보 클릭\n3. 크기 계산 클릭','1. ECM WEB(APP) 접속\n2. 아이디, 패스워드 입력(testUsr001 / test)\n3. 로그인 버튼 클릭\n4. 좌측 내비게이션 바에서 부서문서함 &gt;인젠트 &gt; 단위테스트 폴더 이동','폴더 크기 및 내용(폴더/파일 개수) 확인','','','','0','6.0'),</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" ht="57.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O78" s="36" t="str">
+        <f t="shared" si="4"/>
+        <v>TEST-A6-CASE077</v>
+      </c>
+      <c r="P78" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q78" s="1" t="s">
+        <v>1071</v>
+      </c>
+      <c r="R78" s="1" t="s">
+        <v>811</v>
+      </c>
+      <c r="S78" s="36" t="str">
+        <f t="shared" si="5"/>
+        <v>('TEST-A6-CASE077','actionUrl','/selenium/6/default/acase077/start.do','케이스077 URL'),</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" ht="57.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B79" s="20" t="s">
         <v>549</v>
       </c>
@@ -9048,11 +12986,28 @@
         <v>461</v>
       </c>
       <c r="N79" s="17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>('TEST-A6-CASE078','사용자(APP)','폴더 기능','이력','1. 대상 폴더 우 클릭\n2. 컨텍스트 메뉴에서 세부정보 클릭\n3. 이력 탭 클릭','1. ECM WEB(APP) 접속\n2. 아이디, 패스워드 입력(testUsr001 / test)\n3. 로그인 버튼 클릭\n4. 좌측 내비게이션 바에서 부서문서함 &gt;인젠트 &gt; 단위테스트 폴더 이동','폴더의 생성, 수정, 다운로드 등의 이벤트 확인','','','','0','6.0'),</v>
       </c>
-    </row>
-    <row r="80" spans="2:14" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O79" s="36" t="str">
+        <f t="shared" si="4"/>
+        <v>TEST-A6-CASE078</v>
+      </c>
+      <c r="P79" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q79" s="1" t="s">
+        <v>1072</v>
+      </c>
+      <c r="R79" s="1" t="s">
+        <v>812</v>
+      </c>
+      <c r="S79" s="36" t="str">
+        <f t="shared" si="5"/>
+        <v>('TEST-A6-CASE078','actionUrl','/selenium/6/default/acase078/start.do','케이스078 URL'),</v>
+      </c>
+    </row>
+    <row r="80" spans="2:19" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B80" s="20" t="s">
         <v>550</v>
       </c>
@@ -9084,11 +13039,28 @@
         <v>461</v>
       </c>
       <c r="N80" s="17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>('TEST-A6-CASE079','사용자(APP)','폴더 기능','알림 설정','기능(다운로드,삭제 등) 사용 시 체크가능','','알림 설정에 의한 알림 표시','','','','0','6.0'),</v>
       </c>
-    </row>
-    <row r="81" spans="2:14" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O80" s="36" t="str">
+        <f t="shared" si="4"/>
+        <v>TEST-A6-CASE079</v>
+      </c>
+      <c r="P80" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q80" s="1" t="s">
+        <v>1073</v>
+      </c>
+      <c r="R80" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="S80" s="36" t="str">
+        <f t="shared" si="5"/>
+        <v>('TEST-A6-CASE079','actionUrl','/selenium/6/default/acase079/start.do','케이스079 URL'),</v>
+      </c>
+    </row>
+    <row r="81" spans="2:19" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B81" s="20" t="s">
         <v>551</v>
       </c>
@@ -9120,11 +13092,28 @@
         <v>461</v>
       </c>
       <c r="N81" s="17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>('TEST-A6-CASE080','사용자(APP)','검색','전문 검색','','','문서의 내용을 검색 지원','','','','0','6.0'),</v>
       </c>
-    </row>
-    <row r="82" spans="2:14" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O81" s="36" t="str">
+        <f t="shared" si="4"/>
+        <v>TEST-A6-CASE080</v>
+      </c>
+      <c r="P81" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q81" s="1" t="s">
+        <v>1074</v>
+      </c>
+      <c r="R81" s="1" t="s">
+        <v>814</v>
+      </c>
+      <c r="S81" s="36" t="str">
+        <f t="shared" si="5"/>
+        <v>('TEST-A6-CASE080','actionUrl','/selenium/6/default/acase080/start.do','케이스080 URL'),</v>
+      </c>
+    </row>
+    <row r="82" spans="2:19" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B82" s="20" t="s">
         <v>552</v>
       </c>
@@ -9156,11 +13145,28 @@
         <v>461</v>
       </c>
       <c r="N82" s="17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>('TEST-A6-CASE081','사용자(APP)','검색','일반 검색','1. 상단 검색창 클릭\n2. 검색창에 폴더/문서명 입력\n3. 엔터','1. ECM WEB(APP) 접속\n2. 아이디, 패스워드 입력(testUsr001 / test)\n3. 로그인 버튼 클릭','이름으로 조회 가능','','','','0','6.0'),</v>
       </c>
-    </row>
-    <row r="83" spans="2:14" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O82" s="36" t="str">
+        <f t="shared" si="4"/>
+        <v>TEST-A6-CASE081</v>
+      </c>
+      <c r="P82" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q82" s="1" t="s">
+        <v>1075</v>
+      </c>
+      <c r="R82" s="1" t="s">
+        <v>815</v>
+      </c>
+      <c r="S82" s="36" t="str">
+        <f t="shared" si="5"/>
+        <v>('TEST-A6-CASE081','actionUrl','/selenium/6/default/acase081/start.do','케이스081 URL'),</v>
+      </c>
+    </row>
+    <row r="83" spans="2:19" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B83" s="20" t="s">
         <v>553</v>
       </c>
@@ -9192,11 +13198,28 @@
         <v>461</v>
       </c>
       <c r="N83" s="17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>('TEST-A6-CASE082','사용자(APP)','검색','일반 검색 - 옵션','1. 상단 검색창 옆 드롭다운 버튼 클릭\n2. 고급 클릭','1. ECM WEB(APP) 접속\n2. 아이디, 패스워드 입력(testUsr001 / test)\n3. 로그인 버튼 클릭','소유자 / 위치 / 수정날짜 / 생성날짜 / 수정자 / 생성자 리스트 확인','','','','0','6.0'),</v>
       </c>
-    </row>
-    <row r="84" spans="2:14" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O83" s="36" t="str">
+        <f t="shared" si="4"/>
+        <v>TEST-A6-CASE082</v>
+      </c>
+      <c r="P83" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q83" s="1" t="s">
+        <v>1076</v>
+      </c>
+      <c r="R83" s="1" t="s">
+        <v>816</v>
+      </c>
+      <c r="S83" s="36" t="str">
+        <f t="shared" si="5"/>
+        <v>('TEST-A6-CASE082','actionUrl','/selenium/6/default/acase082/start.do','케이스082 URL'),</v>
+      </c>
+    </row>
+    <row r="84" spans="2:19" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B84" s="20" t="s">
         <v>554</v>
       </c>
@@ -9228,11 +13251,28 @@
         <v>461</v>
       </c>
       <c r="N84" s="17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>('TEST-A6-CASE083','사용자(APP)','검색','폴더 검색','TEDM-APP-081 참조','','폴더 검색 가능','','','','0','6.0'),</v>
       </c>
-    </row>
-    <row r="85" spans="2:14" ht="43.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O84" s="36" t="str">
+        <f t="shared" si="4"/>
+        <v>TEST-A6-CASE083</v>
+      </c>
+      <c r="P84" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q84" s="1" t="s">
+        <v>1077</v>
+      </c>
+      <c r="R84" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="S84" s="36" t="str">
+        <f t="shared" si="5"/>
+        <v>('TEST-A6-CASE083','actionUrl','/selenium/6/default/acase083/start.do','케이스083 URL'),</v>
+      </c>
+    </row>
+    <row r="85" spans="2:19" ht="43.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B85" s="20" t="s">
         <v>555</v>
       </c>
@@ -9264,11 +13304,28 @@
         <v>461</v>
       </c>
       <c r="N85" s="17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>('TEST-A6-CASE084','사용자(APP)','검색','빠른 검색','1. 상단 검색창 옆 드롭다운 버튼 클릭\n2. 소유자 드롭다운 버튼 클릭\n3. 특정 사용자 클릭\n4. 사용자 검색창에 사용자명 입력','1. ECM WEB(APP) 접속\n2. 아이디, 패스워드 입력(testUsr001 / test)\n3. 로그인 버튼 클릭','사용자 자동완성 완료','','','','0','6.0'),</v>
       </c>
-    </row>
-    <row r="86" spans="2:14" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O85" s="36" t="str">
+        <f t="shared" si="4"/>
+        <v>TEST-A6-CASE084</v>
+      </c>
+      <c r="P85" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q85" s="1" t="s">
+        <v>1078</v>
+      </c>
+      <c r="R85" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="S85" s="36" t="str">
+        <f t="shared" si="5"/>
+        <v>('TEST-A6-CASE084','actionUrl','/selenium/6/default/acase084/start.do','케이스084 URL'),</v>
+      </c>
+    </row>
+    <row r="86" spans="2:19" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B86" s="20" t="s">
         <v>556</v>
       </c>
@@ -9300,11 +13357,28 @@
         <v>461</v>
       </c>
       <c r="N86" s="17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>('TEST-A6-CASE085','사용자(APP)','부서문서함','부서함 관리','1. 좌측 내비게이션 바에서 부서문서함 클릭','1. ECM WEB(APP) 접속\n2. 아이디, 패스워드 입력(testUsr001 / test)\n3. 로그인 버튼 클릭','부서 사용자가 공유하여 문서를 쓰고 읽을 수 있는 공간, 권한을 통해 접근 통제함','','','','0','6.0'),</v>
       </c>
-    </row>
-    <row r="87" spans="2:14" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O86" s="36" t="str">
+        <f t="shared" si="4"/>
+        <v>TEST-A6-CASE085</v>
+      </c>
+      <c r="P86" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q86" s="1" t="s">
+        <v>1079</v>
+      </c>
+      <c r="R86" s="1" t="s">
+        <v>819</v>
+      </c>
+      <c r="S86" s="36" t="str">
+        <f t="shared" si="5"/>
+        <v>('TEST-A6-CASE085','actionUrl','/selenium/6/default/acase085/start.do','케이스085 URL'),</v>
+      </c>
+    </row>
+    <row r="87" spans="2:19" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B87" s="20" t="s">
         <v>557</v>
       </c>
@@ -9336,11 +13410,28 @@
         <v>461</v>
       </c>
       <c r="N87" s="17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>('TEST-A6-CASE086','사용자(APP)','부서문서함','부서 자동 동기화','','','부서 정보(HR)과 동기화 하여 부서함 생성 및 동기화 가능','','','','0','6.0'),</v>
       </c>
-    </row>
-    <row r="88" spans="2:14" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O87" s="36" t="str">
+        <f t="shared" si="4"/>
+        <v>TEST-A6-CASE086</v>
+      </c>
+      <c r="P87" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q87" s="1" t="s">
+        <v>1080</v>
+      </c>
+      <c r="R87" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="S87" s="36" t="str">
+        <f t="shared" si="5"/>
+        <v>('TEST-A6-CASE086','actionUrl','/selenium/6/default/acase086/start.do','케이스086 URL'),</v>
+      </c>
+    </row>
+    <row r="88" spans="2:19" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B88" s="20" t="s">
         <v>558</v>
       </c>
@@ -9372,11 +13463,28 @@
         <v>461</v>
       </c>
       <c r="N88" s="17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>('TEST-A6-CASE087','사용자(APP)','즐겨찾기','즐겨찾기','TEDM-APP-007, 008 참조','','즐겨찾는 폴더, 파일','','','','0','6.0'),</v>
       </c>
-    </row>
-    <row r="89" spans="2:14" ht="43.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O88" s="36" t="str">
+        <f t="shared" si="4"/>
+        <v>TEST-A6-CASE087</v>
+      </c>
+      <c r="P88" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q88" s="1" t="s">
+        <v>1081</v>
+      </c>
+      <c r="R88" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="S88" s="36" t="str">
+        <f t="shared" si="5"/>
+        <v>('TEST-A6-CASE087','actionUrl','/selenium/6/default/acase087/start.do','케이스087 URL'),</v>
+      </c>
+    </row>
+    <row r="89" spans="2:19" ht="43.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B89" s="20" t="s">
         <v>559</v>
       </c>
@@ -9408,11 +13516,28 @@
         <v>461</v>
       </c>
       <c r="N89" s="17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>('TEST-A6-CASE088','사용자(APP)','휴지통','휴지통 관리','1. 상단 드롭다운 버튼 클릭','1. ECM WEB(APP) 접속\n2. 아이디, 패스워드 입력(testUsr001 / test)\n3. 로그인 버튼 클릭\n4. 좌측 내비게이션 바에서 휴지통 이동','문서함별 휴지통 지원 확인','','','','0','6.0'),</v>
       </c>
-    </row>
-    <row r="90" spans="2:14" ht="43.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O89" s="36" t="str">
+        <f t="shared" si="4"/>
+        <v>TEST-A6-CASE088</v>
+      </c>
+      <c r="P89" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q89" s="1" t="s">
+        <v>1082</v>
+      </c>
+      <c r="R89" s="1" t="s">
+        <v>822</v>
+      </c>
+      <c r="S89" s="36" t="str">
+        <f t="shared" si="5"/>
+        <v>('TEST-A6-CASE088','actionUrl','/selenium/6/default/acase088/start.do','케이스088 URL'),</v>
+      </c>
+    </row>
+    <row r="90" spans="2:19" ht="43.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B90" s="20" t="s">
         <v>560</v>
       </c>
@@ -9444,11 +13569,28 @@
         <v>461</v>
       </c>
       <c r="N90" s="17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>('TEST-A6-CASE089','사용자(APP)','휴지통','폐기','1. 대상 파일, 폴더 우클릭\n2. 완전삭제 클릭\n3. 창에서 확인 클릭','1. ECM WEB(APP) 접속\n2. 아이디, 패스워드 입력(testUsr001 / test)\n3. 로그인 버튼 클릭\n4. 좌측 내비게이션 바에서 휴지통 이동','리스트에서 완전삭제 확인','','','','0','6.0'),</v>
       </c>
-    </row>
-    <row r="91" spans="2:14" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O90" s="36" t="str">
+        <f t="shared" si="4"/>
+        <v>TEST-A6-CASE089</v>
+      </c>
+      <c r="P90" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q90" s="1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="R90" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="S90" s="36" t="str">
+        <f t="shared" si="5"/>
+        <v>('TEST-A6-CASE089','actionUrl','/selenium/6/default/acase089/start.do','케이스089 URL'),</v>
+      </c>
+    </row>
+    <row r="91" spans="2:19" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B91" s="20" t="s">
         <v>561</v>
       </c>
@@ -9480,11 +13622,28 @@
         <v>461</v>
       </c>
       <c r="N91" s="17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>('TEST-A6-CASE090','사용자(APP)','휴지통','복원','TEDM-APP-051 참조','','원래 자신이 있던 위치로 복원','','','','0','6.0'),</v>
       </c>
-    </row>
-    <row r="92" spans="2:14" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O91" s="36" t="str">
+        <f t="shared" si="4"/>
+        <v>TEST-A6-CASE090</v>
+      </c>
+      <c r="P91" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q91" s="1" t="s">
+        <v>1084</v>
+      </c>
+      <c r="R91" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="S91" s="36" t="str">
+        <f t="shared" si="5"/>
+        <v>('TEST-A6-CASE090','actionUrl','/selenium/6/default/acase090/start.do','케이스090 URL'),</v>
+      </c>
+    </row>
+    <row r="92" spans="2:19" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B92" s="20" t="s">
         <v>562</v>
       </c>
@@ -9516,11 +13675,28 @@
         <v>461</v>
       </c>
       <c r="N92" s="17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>('TEST-A6-CASE091','사용자(APP)','휴지통','위치 지정 복원','TEDM-APP-052 참조','','사용자가 복원하고 싶은 위치에 복원','','','','0','6.0'),</v>
       </c>
-    </row>
-    <row r="93" spans="2:14" ht="43.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O92" s="36" t="str">
+        <f t="shared" si="4"/>
+        <v>TEST-A6-CASE091</v>
+      </c>
+      <c r="P92" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q92" s="1" t="s">
+        <v>1085</v>
+      </c>
+      <c r="R92" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="S92" s="36" t="str">
+        <f t="shared" si="5"/>
+        <v>('TEST-A6-CASE091','actionUrl','/selenium/6/default/acase091/start.do','케이스091 URL'),</v>
+      </c>
+    </row>
+    <row r="93" spans="2:19" ht="43.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B93" s="20" t="s">
         <v>563</v>
       </c>
@@ -9552,11 +13728,28 @@
         <v>461</v>
       </c>
       <c r="N93" s="17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>('TEST-A6-CASE092','사용자(APP)','휴지통','휴지통 비우기','1. 리스트 우클릭\n2. 휴지통 비우기 클릭\n3. 창에서 확인 클릭','1. ECM WEB(APP) 접속\n2. 아이디, 패스워드 입력(testUsr001 / test)\n3. 로그인 버튼 클릭\n4. 좌측 내비게이션 바에서 휴지통 이동','휴지통 내 전체 리스트 제거 확인','','','','0','6.0'),</v>
       </c>
-    </row>
-    <row r="94" spans="2:14" ht="43.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O93" s="36" t="str">
+        <f t="shared" si="4"/>
+        <v>TEST-A6-CASE092</v>
+      </c>
+      <c r="P93" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q93" s="1" t="s">
+        <v>1086</v>
+      </c>
+      <c r="R93" s="1" t="s">
+        <v>916</v>
+      </c>
+      <c r="S93" s="36" t="str">
+        <f t="shared" si="5"/>
+        <v>('TEST-A6-CASE092','actionUrl','/selenium/6/default/acase092/start.do','케이스092 URL'),</v>
+      </c>
+    </row>
+    <row r="94" spans="2:19" ht="43.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B94" s="20" t="s">
         <v>564</v>
       </c>
@@ -9588,11 +13781,28 @@
         <v>461</v>
       </c>
       <c r="N94" s="17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>('TEST-A6-CASE093','사용자(APP)','내 공유함 - 공유한 폴더/파일','공유한 내용의 공유관리','1. 상단 공유받은 함 드롭다운 버튼 클릭\n2. 내 공유함 클릭','1. ECM WEB(APP) 접속\n2. 아이디, 패스워드 입력(testUsr001 / test)\n3. 로그인 버튼 클릭\n4. 좌측 내비게이션 바에서 내 공유함 이동','다른 사람에게 공유한 폴더 및 파일 확인','','','','0','6.0'),</v>
       </c>
-    </row>
-    <row r="95" spans="2:14" ht="43.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O94" s="36" t="str">
+        <f t="shared" si="4"/>
+        <v>TEST-A6-CASE093</v>
+      </c>
+      <c r="P94" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q94" s="1" t="s">
+        <v>1087</v>
+      </c>
+      <c r="R94" s="1" t="s">
+        <v>917</v>
+      </c>
+      <c r="S94" s="36" t="str">
+        <f t="shared" si="5"/>
+        <v>('TEST-A6-CASE093','actionUrl','/selenium/6/default/acase093/start.do','케이스093 URL'),</v>
+      </c>
+    </row>
+    <row r="95" spans="2:19" ht="43.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B95" s="20" t="s">
         <v>565</v>
       </c>
@@ -9624,11 +13834,28 @@
         <v>461</v>
       </c>
       <c r="N95" s="17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>('TEST-A6-CASE094','사용자(APP)','내 공유함 - 공유한 폴더/파일','공유한 내용의 공유해제','1. 상단 공유받은 함 드롭다운 버튼 클릭\n2. 내 공유함 클릭\n3. 공유받은 폴더/파일 중 공유설정 클릭\n4. 창에서 사용자 해제 클릭\n5. 적용 클릭','1. ECM WEB(APP) 접속\n2. 아이디, 패스워드 입력(testUsr001 / test)\n3. 로그인 버튼 클릭\n4. 좌측 내비게이션 바에서 내 공유함 이동','공유 리스트에서 항목 제거 확인','','','','0','6.0'),</v>
       </c>
-    </row>
-    <row r="96" spans="2:14" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O95" s="36" t="str">
+        <f t="shared" si="4"/>
+        <v>TEST-A6-CASE094</v>
+      </c>
+      <c r="P95" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q95" s="1" t="s">
+        <v>1088</v>
+      </c>
+      <c r="R95" s="1" t="s">
+        <v>918</v>
+      </c>
+      <c r="S95" s="36" t="str">
+        <f t="shared" si="5"/>
+        <v>('TEST-A6-CASE094','actionUrl','/selenium/6/default/acase094/start.do','케이스094 URL'),</v>
+      </c>
+    </row>
+    <row r="96" spans="2:19" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B96" s="20" t="s">
         <v>566</v>
       </c>
@@ -9660,11 +13887,28 @@
         <v>461</v>
       </c>
       <c r="N96" s="17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>('TEST-A6-CASE095','사용자(APP)','내 공유함 - 공유 받은 폴더/파일','공유 받은 폴더 및 파일','1. 좌측 내비게이션 바에서 내 공유함 이동','1. ECM WEB(APP) 접속\n2. 아이디, 패스워드 입력(testUsr001 / test)\n3. 로그인 버튼 클릭','다른 사용자로부터 공유받은 폴더/파일 확인','','','','0','6.0'),</v>
       </c>
-    </row>
-    <row r="97" spans="2:14" ht="43.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O96" s="36" t="str">
+        <f t="shared" si="4"/>
+        <v>TEST-A6-CASE095</v>
+      </c>
+      <c r="P96" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q96" s="1" t="s">
+        <v>1089</v>
+      </c>
+      <c r="R96" s="1" t="s">
+        <v>919</v>
+      </c>
+      <c r="S96" s="36" t="str">
+        <f t="shared" si="5"/>
+        <v>('TEST-A6-CASE095','actionUrl','/selenium/6/default/acase095/start.do','케이스095 URL'),</v>
+      </c>
+    </row>
+    <row r="97" spans="2:19" ht="43.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B97" s="20" t="s">
         <v>567</v>
       </c>
@@ -9696,11 +13940,28 @@
         <v>461</v>
       </c>
       <c r="N97" s="17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>('TEST-A6-CASE096','사용자(APP)','내 공유함 - URL','URL 공유한 공유관리','1. 상단 공유받은 함 드롭다운 버튼 클릭\n2. 내 공유함 클릭\n3. 상단 두번째(전체) 드롭다운 버튼 클릭\n4. URL 공유 클릭','1. ECM WEB(APP) 접속\n2. 아이디, 패스워드 입력(testUsr001 / test)\n3. 로그인 버튼 클릭\n4. 좌측 내비게이션 바에서 내 공유함 이동','URL 생성을 통하여 공유한 문서 확인','','','','0','6.0'),</v>
       </c>
-    </row>
-    <row r="98" spans="2:14" ht="57.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O97" s="36" t="str">
+        <f t="shared" si="4"/>
+        <v>TEST-A6-CASE096</v>
+      </c>
+      <c r="P97" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q97" s="1" t="s">
+        <v>1090</v>
+      </c>
+      <c r="R97" s="1" t="s">
+        <v>920</v>
+      </c>
+      <c r="S97" s="36" t="str">
+        <f t="shared" si="5"/>
+        <v>('TEST-A6-CASE096','actionUrl','/selenium/6/default/acase096/start.do','케이스096 URL'),</v>
+      </c>
+    </row>
+    <row r="98" spans="2:19" ht="57.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B98" s="20" t="s">
         <v>568</v>
       </c>
@@ -9732,11 +13993,28 @@
         <v>461</v>
       </c>
       <c r="N98" s="17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>('TEST-A6-CASE097','사용자(APP)','내 공유함 - URL','URL 공유한 공유해제','1. 상단 공유받은 함 드롭다운 버튼 클릭\n2. 내 공유함 클릭\n3. 상단 두번째(전체) 드롭다운 버튼 클릭\n4. URL 공유 클릭\n3. 공유받은 폴더/파일 중 공유설정 클릭\n4. 창에서 사용자 해제 클릭\n5. 적용 클릭','1. ECM WEB(APP) 접속\n2. 아이디, 패스워드 입력(testUsr001 / test)\n3. 로그인 버튼 클릭\n4. 좌측 내비게이션 바에서 내 공유함 이동','URL 공유 해제','','','','0','6.0'),</v>
       </c>
-    </row>
-    <row r="99" spans="2:14" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O98" s="36" t="str">
+        <f t="shared" si="4"/>
+        <v>TEST-A6-CASE097</v>
+      </c>
+      <c r="P98" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q98" s="1" t="s">
+        <v>1091</v>
+      </c>
+      <c r="R98" s="1" t="s">
+        <v>921</v>
+      </c>
+      <c r="S98" s="36" t="str">
+        <f t="shared" si="5"/>
+        <v>('TEST-A6-CASE097','actionUrl','/selenium/6/default/acase097/start.do','케이스097 URL'),</v>
+      </c>
+    </row>
+    <row r="99" spans="2:19" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B99" s="20" t="s">
         <v>569</v>
       </c>
@@ -9768,11 +14046,28 @@
         <v>461</v>
       </c>
       <c r="N99" s="17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>('TEST-A6-CASE098','사용자(APP)','최근 파일','최근 열어본 파일','TEDM-APP-003 참조','','대시보드에 최근에 열람한 문서를 표시','','','','0','6.0'),</v>
       </c>
-    </row>
-    <row r="100" spans="2:14" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O99" s="36" t="str">
+        <f t="shared" si="4"/>
+        <v>TEST-A6-CASE098</v>
+      </c>
+      <c r="P99" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q99" s="1" t="s">
+        <v>1092</v>
+      </c>
+      <c r="R99" s="1" t="s">
+        <v>922</v>
+      </c>
+      <c r="S99" s="36" t="str">
+        <f t="shared" si="5"/>
+        <v>('TEST-A6-CASE098','actionUrl','/selenium/6/default/acase098/start.do','케이스098 URL'),</v>
+      </c>
+    </row>
+    <row r="100" spans="2:19" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B100" s="20" t="s">
         <v>570</v>
       </c>
@@ -9804,11 +14099,28 @@
         <v>461</v>
       </c>
       <c r="N100" s="17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>('TEST-A6-CASE099','사용자(APP)','결재','반출','','','반출할 문서에 대한 승인/반려 기능','','','','0','6.0'),</v>
       </c>
-    </row>
-    <row r="101" spans="2:14" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O100" s="36" t="str">
+        <f t="shared" si="4"/>
+        <v>TEST-A6-CASE099</v>
+      </c>
+      <c r="P100" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q100" s="1" t="s">
+        <v>1093</v>
+      </c>
+      <c r="R100" s="1" t="s">
+        <v>923</v>
+      </c>
+      <c r="S100" s="36" t="str">
+        <f t="shared" si="5"/>
+        <v>('TEST-A6-CASE099','actionUrl','/selenium/6/default/acase099/start.do','케이스099 URL'),</v>
+      </c>
+    </row>
+    <row r="101" spans="2:19" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B101" s="20" t="s">
         <v>571</v>
       </c>
@@ -9840,11 +14152,28 @@
         <v>461</v>
       </c>
       <c r="N101" s="17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>('TEST-A6-CASE100','사용자(APP)','결재','용량 관리','','','관리 대상 사용자의 용량 증설 신청에 대하여 승인/반려 가능','','','','0','6.0'),</v>
       </c>
-    </row>
-    <row r="102" spans="2:14" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O101" s="36" t="str">
+        <f t="shared" si="4"/>
+        <v>TEST-A6-CASE100</v>
+      </c>
+      <c r="P101" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q101" s="1" t="s">
+        <v>1094</v>
+      </c>
+      <c r="R101" s="1" t="s">
+        <v>924</v>
+      </c>
+      <c r="S101" s="36" t="str">
+        <f t="shared" si="5"/>
+        <v>('TEST-A6-CASE100','actionUrl','/selenium/6/default/acase100/start.do','케이스100 URL'),</v>
+      </c>
+    </row>
+    <row r="102" spans="2:19" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B102" s="20" t="s">
         <v>572</v>
       </c>
@@ -9876,11 +14205,28 @@
         <v>461</v>
       </c>
       <c r="N102" s="17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>('TEST-A6-CASE101','사용자(APP)','인수인계','인수인계','','','문서에 대한 인수인계','','','','0','6.0'),</v>
       </c>
-    </row>
-    <row r="103" spans="2:14" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O102" s="36" t="str">
+        <f t="shared" si="4"/>
+        <v>TEST-A6-CASE101</v>
+      </c>
+      <c r="P102" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q102" s="1" t="s">
+        <v>1095</v>
+      </c>
+      <c r="R102" s="1" t="s">
+        <v>925</v>
+      </c>
+      <c r="S102" s="36" t="str">
+        <f t="shared" si="5"/>
+        <v>('TEST-A6-CASE101','actionUrl','/selenium/6/default/acase101/start.do','케이스101 URL'),</v>
+      </c>
+    </row>
+    <row r="103" spans="2:19" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B103" s="34" t="s">
         <v>573</v>
       </c>
@@ -9912,11 +14258,28 @@
         <v>461</v>
       </c>
       <c r="N103" s="17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>('TEST-B6-CASE001','관리자(ADMIN)','홈','로그인','','','','','','','0','6.0'),</v>
       </c>
-    </row>
-    <row r="104" spans="2:14" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O103" s="36" t="str">
+        <f t="shared" si="4"/>
+        <v>TEST-B6-CASE001</v>
+      </c>
+      <c r="P103" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q103" s="1" t="s">
+        <v>926</v>
+      </c>
+      <c r="R103" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="S103" s="36" t="str">
+        <f t="shared" si="5"/>
+        <v>('TEST-B6-CASE001','actionUrl','/selenium/6/default/bcase001/start.do','케이스001 URL'),</v>
+      </c>
+    </row>
+    <row r="104" spans="2:19" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B104" s="34" t="s">
         <v>574</v>
       </c>
@@ -9948,11 +14311,28 @@
         <v>461</v>
       </c>
       <c r="N104" s="17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>('TEST-B6-CASE002','관리자(ADMIN)','홈','아이디 저장','','','','','','','0','6.0'),</v>
       </c>
-    </row>
-    <row r="105" spans="2:14" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O104" s="36" t="str">
+        <f t="shared" si="4"/>
+        <v>TEST-B6-CASE002</v>
+      </c>
+      <c r="P104" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q104" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="R104" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="S104" s="36" t="str">
+        <f t="shared" si="5"/>
+        <v>('TEST-B6-CASE002','actionUrl','/selenium/6/default/bcase002/start.do','케이스002 URL'),</v>
+      </c>
+    </row>
+    <row r="105" spans="2:19" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B105" s="34" t="s">
         <v>575</v>
       </c>
@@ -9984,11 +14364,28 @@
         <v>461</v>
       </c>
       <c r="N105" s="17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>('TEST-B6-CASE003','관리자(ADMIN)','조직 관리','검색','','','사용자 / 부서 검색','','','','0','6.0'),</v>
       </c>
-    </row>
-    <row r="106" spans="2:14" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O105" s="36" t="str">
+        <f t="shared" si="4"/>
+        <v>TEST-B6-CASE003</v>
+      </c>
+      <c r="P105" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q105" s="1" t="s">
+        <v>928</v>
+      </c>
+      <c r="R105" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="S105" s="36" t="str">
+        <f t="shared" si="5"/>
+        <v>('TEST-B6-CASE003','actionUrl','/selenium/6/default/bcase003/start.do','케이스003 URL'),</v>
+      </c>
+    </row>
+    <row r="106" spans="2:19" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B106" s="34" t="s">
         <v>576</v>
       </c>
@@ -10020,11 +14417,28 @@
         <v>461</v>
       </c>
       <c r="N106" s="17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>('TEST-B6-CASE004','관리자(ADMIN)','조직 관리','사용자 생성','','','사용자 정보, 그룹 정보, 연락 정보, 화성화/비활성화를 입력하여 생성\n(비활성화된 사용자는 로그인이 제한됨)','','','','0','6.0'),</v>
       </c>
-    </row>
-    <row r="107" spans="2:14" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O106" s="36" t="str">
+        <f t="shared" si="4"/>
+        <v>TEST-B6-CASE004</v>
+      </c>
+      <c r="P106" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q106" s="1" t="s">
+        <v>929</v>
+      </c>
+      <c r="R106" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="S106" s="36" t="str">
+        <f t="shared" si="5"/>
+        <v>('TEST-B6-CASE004','actionUrl','/selenium/6/default/bcase004/start.do','케이스004 URL'),</v>
+      </c>
+    </row>
+    <row r="107" spans="2:19" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B107" s="34" t="s">
         <v>577</v>
       </c>
@@ -10056,11 +14470,28 @@
         <v>461</v>
       </c>
       <c r="N107" s="17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>('TEST-B6-CASE005','관리자(ADMIN)','조직 관리','사용자 편집/삭제','','','사용자 내용 수정 / 사용자 삭제','','','','0','6.0'),</v>
       </c>
-    </row>
-    <row r="108" spans="2:14" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O107" s="36" t="str">
+        <f t="shared" si="4"/>
+        <v>TEST-B6-CASE005</v>
+      </c>
+      <c r="P107" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q107" s="1" t="s">
+        <v>930</v>
+      </c>
+      <c r="R107" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="S107" s="36" t="str">
+        <f t="shared" si="5"/>
+        <v>('TEST-B6-CASE005','actionUrl','/selenium/6/default/bcase005/start.do','케이스005 URL'),</v>
+      </c>
+    </row>
+    <row r="108" spans="2:19" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B108" s="34" t="s">
         <v>578</v>
       </c>
@@ -10092,11 +14523,28 @@
         <v>461</v>
       </c>
       <c r="N108" s="17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>('TEST-B6-CASE006','관리자(ADMIN)','조직 관리','부서 추가','','','그룹 ID와 이름을 입력하여 추가 가능','','','','0','6.0'),</v>
       </c>
-    </row>
-    <row r="109" spans="2:14" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O108" s="36" t="str">
+        <f t="shared" si="4"/>
+        <v>TEST-B6-CASE006</v>
+      </c>
+      <c r="P108" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q108" s="1" t="s">
+        <v>931</v>
+      </c>
+      <c r="R108" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="S108" s="36" t="str">
+        <f t="shared" si="5"/>
+        <v>('TEST-B6-CASE006','actionUrl','/selenium/6/default/bcase006/start.do','케이스006 URL'),</v>
+      </c>
+    </row>
+    <row r="109" spans="2:19" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B109" s="34" t="s">
         <v>579</v>
       </c>
@@ -10128,11 +14576,28 @@
         <v>461</v>
       </c>
       <c r="N109" s="17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>('TEST-B6-CASE007','관리자(ADMIN)','조직 관리','부서 관리','','','그룹/사용자를 그룹내에 추가/편집/삭제','','','','0','6.0'),</v>
       </c>
-    </row>
-    <row r="110" spans="2:14" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O109" s="36" t="str">
+        <f t="shared" si="4"/>
+        <v>TEST-B6-CASE007</v>
+      </c>
+      <c r="P109" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q109" s="1" t="s">
+        <v>932</v>
+      </c>
+      <c r="R109" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="S109" s="36" t="str">
+        <f t="shared" si="5"/>
+        <v>('TEST-B6-CASE007','actionUrl','/selenium/6/default/bcase007/start.do','케이스007 URL'),</v>
+      </c>
+    </row>
+    <row r="110" spans="2:19" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B110" s="34" t="s">
         <v>580</v>
       </c>
@@ -10164,11 +14629,28 @@
         <v>461</v>
       </c>
       <c r="N110" s="17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>('TEST-B6-CASE008','관리자(ADMIN)','작업 관리자 (스케쥴)','각종 배치 작업 관리','','','임시 파일 삭제, 작업폴더 볼륨 싱크 맞추기, 검색 인덱싱, 조직도 배치, 통계, \n폐기 작업, 부서함 작업, 유효기간 지난 반출 문서 삭제 작업 제공','','','','0','6.0'),</v>
       </c>
-    </row>
-    <row r="111" spans="2:14" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O110" s="36" t="str">
+        <f t="shared" si="4"/>
+        <v>TEST-B6-CASE008</v>
+      </c>
+      <c r="P110" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q110" s="1" t="s">
+        <v>933</v>
+      </c>
+      <c r="R110" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="S110" s="36" t="str">
+        <f t="shared" si="5"/>
+        <v>('TEST-B6-CASE008','actionUrl','/selenium/6/default/bcase008/start.do','케이스008 URL'),</v>
+      </c>
+    </row>
+    <row r="111" spans="2:19" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B111" s="34" t="s">
         <v>581</v>
       </c>
@@ -10200,11 +14682,28 @@
         <v>461</v>
       </c>
       <c r="N111" s="17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>('TEST-B6-CASE009','관리자(ADMIN)','작업 관리자 (스케쥴)','제어/현황','','','시작, 멈첨, 속성, 이력','','','','0','6.0'),</v>
       </c>
-    </row>
-    <row r="112" spans="2:14" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O111" s="36" t="str">
+        <f t="shared" si="4"/>
+        <v>TEST-B6-CASE009</v>
+      </c>
+      <c r="P111" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q111" s="1" t="s">
+        <v>934</v>
+      </c>
+      <c r="R111" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="S111" s="36" t="str">
+        <f t="shared" si="5"/>
+        <v>('TEST-B6-CASE009','actionUrl','/selenium/6/default/bcase009/start.do','케이스009 URL'),</v>
+      </c>
+    </row>
+    <row r="112" spans="2:19" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B112" s="34" t="s">
         <v>582</v>
       </c>
@@ -10236,11 +14735,28 @@
         <v>461</v>
       </c>
       <c r="N112" s="17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>('TEST-B6-CASE010','관리자(ADMIN)','로그/현황','로그','','','서버로그, 감사 로그, 에이전트 접속 로그','','','','0','6.0'),</v>
       </c>
-    </row>
-    <row r="113" spans="2:14" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O112" s="36" t="str">
+        <f t="shared" si="4"/>
+        <v>TEST-B6-CASE010</v>
+      </c>
+      <c r="P112" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q112" s="1" t="s">
+        <v>935</v>
+      </c>
+      <c r="R112" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="S112" s="36" t="str">
+        <f t="shared" si="5"/>
+        <v>('TEST-B6-CASE010','actionUrl','/selenium/6/default/bcase010/start.do','케이스010 URL'),</v>
+      </c>
+    </row>
+    <row r="113" spans="2:19" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B113" s="34" t="s">
         <v>583</v>
       </c>
@@ -10272,11 +14788,28 @@
         <v>461</v>
       </c>
       <c r="N113" s="17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>('TEST-B6-CASE011','관리자(ADMIN)','로그/현황','현황','','','에이전트 접속, 설치 현황','','','','0','6.0'),</v>
       </c>
-    </row>
-    <row r="114" spans="2:14" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O113" s="36" t="str">
+        <f t="shared" si="4"/>
+        <v>TEST-B6-CASE011</v>
+      </c>
+      <c r="P113" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q113" s="1" t="s">
+        <v>936</v>
+      </c>
+      <c r="R113" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="S113" s="36" t="str">
+        <f t="shared" si="5"/>
+        <v>('TEST-B6-CASE011','actionUrl','/selenium/6/default/bcase011/start.do','케이스011 URL'),</v>
+      </c>
+    </row>
+    <row r="114" spans="2:19" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B114" s="34" t="s">
         <v>584</v>
       </c>
@@ -10308,11 +14841,28 @@
         <v>461</v>
       </c>
       <c r="N114" s="17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>('TEST-B6-CASE012','관리자(ADMIN)','문서유형 관리자','추가/편집','','','문서유형의 설명, 보존기간, 컨텐트 클래스 아이디, 데드라인, 기본 탬플릿 수정 가능','','','','0','6.0'),</v>
       </c>
-    </row>
-    <row r="115" spans="2:14" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O114" s="36" t="str">
+        <f t="shared" si="4"/>
+        <v>TEST-B6-CASE012</v>
+      </c>
+      <c r="P114" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q114" s="1" t="s">
+        <v>937</v>
+      </c>
+      <c r="R114" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="S114" s="36" t="str">
+        <f t="shared" si="5"/>
+        <v>('TEST-B6-CASE012','actionUrl','/selenium/6/default/bcase012/start.do','케이스012 URL'),</v>
+      </c>
+    </row>
+    <row r="115" spans="2:19" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B115" s="34" t="s">
         <v>585</v>
       </c>
@@ -10344,11 +14894,28 @@
         <v>461</v>
       </c>
       <c r="N115" s="17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>('TEST-B6-CASE013','관리자(ADMIN)','문서유형 관리자','삭제','','','문서유형 삭제','','','','0','6.0'),</v>
       </c>
-    </row>
-    <row r="116" spans="2:14" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O115" s="36" t="str">
+        <f t="shared" si="4"/>
+        <v>TEST-B6-CASE013</v>
+      </c>
+      <c r="P115" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q115" s="1" t="s">
+        <v>938</v>
+      </c>
+      <c r="R115" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="S115" s="36" t="str">
+        <f t="shared" si="5"/>
+        <v>('TEST-B6-CASE013','actionUrl','/selenium/6/default/bcase013/start.do','케이스013 URL'),</v>
+      </c>
+    </row>
+    <row r="116" spans="2:19" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B116" s="34" t="s">
         <v>586</v>
       </c>
@@ -10380,11 +14947,28 @@
         <v>461</v>
       </c>
       <c r="N116" s="17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>('TEST-B6-CASE014','관리자(ADMIN)','카테고리 관리자','다중 분류체계 지원','','','다중 분류체계 지원','','','','0','6.0'),</v>
       </c>
-    </row>
-    <row r="117" spans="2:14" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O116" s="36" t="str">
+        <f t="shared" si="4"/>
+        <v>TEST-B6-CASE014</v>
+      </c>
+      <c r="P116" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q116" s="1" t="s">
+        <v>939</v>
+      </c>
+      <c r="R116" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="S116" s="36" t="str">
+        <f t="shared" si="5"/>
+        <v>('TEST-B6-CASE014','actionUrl','/selenium/6/default/bcase014/start.do','케이스014 URL'),</v>
+      </c>
+    </row>
+    <row r="117" spans="2:19" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B117" s="34" t="s">
         <v>587</v>
       </c>
@@ -10416,11 +15000,28 @@
         <v>461</v>
       </c>
       <c r="N117" s="17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>('TEST-B6-CASE015','관리자(ADMIN)','카테고리 관리자','추가/편집','','','카테고리 추가 및 편집','','','','0','6.0'),</v>
       </c>
-    </row>
-    <row r="118" spans="2:14" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O117" s="36" t="str">
+        <f t="shared" si="4"/>
+        <v>TEST-B6-CASE015</v>
+      </c>
+      <c r="P117" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q117" s="1" t="s">
+        <v>940</v>
+      </c>
+      <c r="R117" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="S117" s="36" t="str">
+        <f t="shared" si="5"/>
+        <v>('TEST-B6-CASE015','actionUrl','/selenium/6/default/bcase015/start.do','케이스015 URL'),</v>
+      </c>
+    </row>
+    <row r="118" spans="2:19" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B118" s="34" t="s">
         <v>588</v>
       </c>
@@ -10452,11 +15053,28 @@
         <v>461</v>
       </c>
       <c r="N118" s="17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>('TEST-B6-CASE016','관리자(ADMIN)','카테고리 관리자','삭제','','','카테고리 삭제 가능','','','','0','6.0'),</v>
       </c>
-    </row>
-    <row r="119" spans="2:14" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O118" s="36" t="str">
+        <f t="shared" si="4"/>
+        <v>TEST-B6-CASE016</v>
+      </c>
+      <c r="P118" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q118" s="1" t="s">
+        <v>941</v>
+      </c>
+      <c r="R118" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="S118" s="36" t="str">
+        <f t="shared" si="5"/>
+        <v>('TEST-B6-CASE016','actionUrl','/selenium/6/default/bcase016/start.do','케이스016 URL'),</v>
+      </c>
+    </row>
+    <row r="119" spans="2:19" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B119" s="34" t="s">
         <v>589</v>
       </c>
@@ -10488,11 +15106,28 @@
         <v>461</v>
       </c>
       <c r="N119" s="17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>('TEST-B6-CASE017','관리자(ADMIN)','템플릿 관리자','템플릿 기능','','','확장 속성을 추가하고 관리 가능','','','','0','6.0'),</v>
       </c>
-    </row>
-    <row r="120" spans="2:14" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O119" s="36" t="str">
+        <f t="shared" si="4"/>
+        <v>TEST-B6-CASE017</v>
+      </c>
+      <c r="P119" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q119" s="1" t="s">
+        <v>942</v>
+      </c>
+      <c r="R119" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="S119" s="36" t="str">
+        <f t="shared" si="5"/>
+        <v>('TEST-B6-CASE017','actionUrl','/selenium/6/default/bcase017/start.do','케이스017 URL'),</v>
+      </c>
+    </row>
+    <row r="120" spans="2:19" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B120" s="34" t="s">
         <v>590</v>
       </c>
@@ -10524,11 +15159,28 @@
         <v>461</v>
       </c>
       <c r="N120" s="17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>('TEST-B6-CASE018','관리자(ADMIN)','템플릿 관리자','추가/편집','','','템플릿 추가 및 편집 / 속성 추가','','','','0','6.0'),</v>
       </c>
-    </row>
-    <row r="121" spans="2:14" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O120" s="36" t="str">
+        <f t="shared" si="4"/>
+        <v>TEST-B6-CASE018</v>
+      </c>
+      <c r="P120" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q120" s="1" t="s">
+        <v>943</v>
+      </c>
+      <c r="R120" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="S120" s="36" t="str">
+        <f t="shared" si="5"/>
+        <v>('TEST-B6-CASE018','actionUrl','/selenium/6/default/bcase018/start.do','케이스018 URL'),</v>
+      </c>
+    </row>
+    <row r="121" spans="2:19" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B121" s="34" t="s">
         <v>591</v>
       </c>
@@ -10560,11 +15212,28 @@
         <v>461</v>
       </c>
       <c r="N121" s="17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>('TEST-B6-CASE019','관리자(ADMIN)','템플릿 관리자','삭제','','','템플릿 삭제','','','','0','6.0'),</v>
       </c>
-    </row>
-    <row r="122" spans="2:14" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O121" s="36" t="str">
+        <f t="shared" si="4"/>
+        <v>TEST-B6-CASE019</v>
+      </c>
+      <c r="P121" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q121" s="1" t="s">
+        <v>944</v>
+      </c>
+      <c r="R121" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="S121" s="36" t="str">
+        <f t="shared" si="5"/>
+        <v>('TEST-B6-CASE019','actionUrl','/selenium/6/default/bcase019/start.do','케이스019 URL'),</v>
+      </c>
+    </row>
+    <row r="122" spans="2:19" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B122" s="34" t="s">
         <v>592</v>
       </c>
@@ -10596,11 +15265,28 @@
         <v>461</v>
       </c>
       <c r="N122" s="17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>('TEST-B6-CASE020','관리자(ADMIN)','감사 관리자','설명','','','선택된 항목들만 로그 관리자의 AUDIT에 나타나게 됩니다.(기본값, 문서유형, 그룹)','','','','0','6.0'),</v>
       </c>
-    </row>
-    <row r="123" spans="2:14" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O122" s="36" t="str">
+        <f t="shared" si="4"/>
+        <v>TEST-B6-CASE020</v>
+      </c>
+      <c r="P122" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q122" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="R122" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="S122" s="36" t="str">
+        <f t="shared" si="5"/>
+        <v>('TEST-B6-CASE020','actionUrl','/selenium/6/default/bcase020/start.do','케이스020 URL'),</v>
+      </c>
+    </row>
+    <row r="123" spans="2:19" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B123" s="34" t="s">
         <v>593</v>
       </c>
@@ -10632,11 +15318,28 @@
         <v>461</v>
       </c>
       <c r="N123" s="17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>('TEST-B6-CASE021','관리자(ADMIN)','감사 관리자','문서유형','','','문서유형 선택 가능','','','','0','6.0'),</v>
       </c>
-    </row>
-    <row r="124" spans="2:14" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O123" s="36" t="str">
+        <f t="shared" si="4"/>
+        <v>TEST-B6-CASE021</v>
+      </c>
+      <c r="P123" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q123" s="1" t="s">
+        <v>946</v>
+      </c>
+      <c r="R123" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="S123" s="36" t="str">
+        <f t="shared" si="5"/>
+        <v>('TEST-B6-CASE021','actionUrl','/selenium/6/default/bcase021/start.do','케이스021 URL'),</v>
+      </c>
+    </row>
+    <row r="124" spans="2:19" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B124" s="34" t="s">
         <v>594</v>
       </c>
@@ -10668,11 +15371,28 @@
         <v>461</v>
       </c>
       <c r="N124" s="17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>('TEST-B6-CASE022','관리자(ADMIN)','감사 관리자','그룹','','','그룹 선택 가능','','','','0','6.0'),</v>
       </c>
-    </row>
-    <row r="125" spans="2:14" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O124" s="36" t="str">
+        <f t="shared" si="4"/>
+        <v>TEST-B6-CASE022</v>
+      </c>
+      <c r="P124" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q124" s="1" t="s">
+        <v>947</v>
+      </c>
+      <c r="R124" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="S124" s="36" t="str">
+        <f t="shared" si="5"/>
+        <v>('TEST-B6-CASE022','actionUrl','/selenium/6/default/bcase022/start.do','케이스022 URL'),</v>
+      </c>
+    </row>
+    <row r="125" spans="2:19" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B125" s="34" t="s">
         <v>595</v>
       </c>
@@ -10704,11 +15424,28 @@
         <v>461</v>
       </c>
       <c r="N125" s="17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>('TEST-B6-CASE023','관리자(ADMIN)','세션 관리자','사용자 세션','','','접속 사용자 확인 및 접속 해제','','','','0','6.0'),</v>
       </c>
-    </row>
-    <row r="126" spans="2:14" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O125" s="36" t="str">
+        <f t="shared" si="4"/>
+        <v>TEST-B6-CASE023</v>
+      </c>
+      <c r="P125" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q125" s="1" t="s">
+        <v>948</v>
+      </c>
+      <c r="R125" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="S125" s="36" t="str">
+        <f t="shared" si="5"/>
+        <v>('TEST-B6-CASE023','actionUrl','/selenium/6/default/bcase023/start.do','케이스023 URL'),</v>
+      </c>
+    </row>
+    <row r="126" spans="2:19" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B126" s="34" t="s">
         <v>596</v>
       </c>
@@ -10740,11 +15477,28 @@
         <v>461</v>
       </c>
       <c r="N126" s="17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>('TEST-B6-CASE024','관리자(ADMIN)','통합검색','메뉴/기능 검색','','','검색된 메뉴/기능명을 클릭하여 해당 화면으로 바로가기 가능','','','','0','6.0'),</v>
       </c>
-    </row>
-    <row r="127" spans="2:14" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O126" s="36" t="str">
+        <f t="shared" si="4"/>
+        <v>TEST-B6-CASE024</v>
+      </c>
+      <c r="P126" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q126" s="1" t="s">
+        <v>949</v>
+      </c>
+      <c r="R126" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="S126" s="36" t="str">
+        <f t="shared" si="5"/>
+        <v>('TEST-B6-CASE024','actionUrl','/selenium/6/default/bcase024/start.do','케이스024 URL'),</v>
+      </c>
+    </row>
+    <row r="127" spans="2:19" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B127" s="34" t="s">
         <v>597</v>
       </c>
@@ -10776,11 +15530,28 @@
         <v>461</v>
       </c>
       <c r="N127" s="17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>('TEST-B6-CASE025','관리자(ADMIN)','통합검색','데이터 검색','','','기능별 그리드 입력 데이터 검색','','','','0','6.0'),</v>
       </c>
-    </row>
-    <row r="128" spans="2:14" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O127" s="36" t="str">
+        <f t="shared" si="4"/>
+        <v>TEST-B6-CASE025</v>
+      </c>
+      <c r="P127" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q127" s="1" t="s">
+        <v>950</v>
+      </c>
+      <c r="R127" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="S127" s="36" t="str">
+        <f t="shared" si="5"/>
+        <v>('TEST-B6-CASE025','actionUrl','/selenium/6/default/bcase025/start.do','케이스025 URL'),</v>
+      </c>
+    </row>
+    <row r="128" spans="2:19" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B128" s="34" t="s">
         <v>598</v>
       </c>
@@ -10812,11 +15583,28 @@
         <v>461</v>
       </c>
       <c r="N128" s="17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>('TEST-B6-CASE026','관리자(ADMIN)','시스템 연동','스마트워크 설정','','','스마트워크 사용 설정 및 서버 연결 설정 (정책별 가능)','','','','0','6.0'),</v>
       </c>
-    </row>
-    <row r="129" spans="2:14" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O128" s="36" t="str">
+        <f t="shared" si="4"/>
+        <v>TEST-B6-CASE026</v>
+      </c>
+      <c r="P128" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q128" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="R128" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="S128" s="36" t="str">
+        <f t="shared" si="5"/>
+        <v>('TEST-B6-CASE026','actionUrl','/selenium/6/default/bcase026/start.do','케이스026 URL'),</v>
+      </c>
+    </row>
+    <row r="129" spans="2:19" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B129" s="34" t="s">
         <v>599</v>
       </c>
@@ -10848,11 +15636,28 @@
         <v>461</v>
       </c>
       <c r="N129" s="17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>('TEST-B6-CASE027','관리자(ADMIN)','기본 정책 관리자','기본 정책 정의','','','로컬 제어를 위한 정책의 유동적인 편집 지원 (기존 하드코딩된 제어 기능에 대한 관리화)','','','','0','6.0'),</v>
       </c>
-    </row>
-    <row r="130" spans="2:14" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O129" s="36" t="str">
+        <f t="shared" si="4"/>
+        <v>TEST-B6-CASE027</v>
+      </c>
+      <c r="P129" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q129" s="1" t="s">
+        <v>952</v>
+      </c>
+      <c r="R129" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="S129" s="36" t="str">
+        <f t="shared" si="5"/>
+        <v>('TEST-B6-CASE027','actionUrl','/selenium/6/default/bcase027/start.do','케이스027 URL'),</v>
+      </c>
+    </row>
+    <row r="130" spans="2:19" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B130" s="34" t="s">
         <v>600</v>
       </c>
@@ -10884,11 +15689,28 @@
         <v>461</v>
       </c>
       <c r="N130" s="17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>('TEST-B6-CASE028','관리자(ADMIN)','에이전트 설정 (정책)','일반 사항','','','에이전트의 실행 방법 등과 같은 일반 기능 정리','','','','0','6.0'),</v>
       </c>
-    </row>
-    <row r="131" spans="2:14" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O130" s="36" t="str">
+        <f t="shared" si="4"/>
+        <v>TEST-B6-CASE028</v>
+      </c>
+      <c r="P130" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q130" s="1" t="s">
+        <v>953</v>
+      </c>
+      <c r="R130" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="S130" s="36" t="str">
+        <f t="shared" si="5"/>
+        <v>('TEST-B6-CASE028','actionUrl','/selenium/6/default/bcase028/start.do','케이스028 URL'),</v>
+      </c>
+    </row>
+    <row r="131" spans="2:19" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B131" s="34" t="s">
         <v>601</v>
       </c>
@@ -10920,11 +15742,28 @@
         <v>461</v>
       </c>
       <c r="N131" s="17" t="str">
-        <f t="shared" ref="N131:N171" si="2">CONCATENATE("('",B131,"','",C131,"','",D131,"','",E131,"','",F131,"','",G131,"','",H131,"','",I131,"','",J131,"','",K131,"','",L131,"','",M131,"'),")</f>
+        <f t="shared" ref="N131:N171" si="6">CONCATENATE("('",B131,"','",C131,"','",D131,"','",E131,"','",F131,"','",G131,"','",H131,"','",I131,"','",J131,"','",K131,"','",L131,"','",M131,"'),")</f>
         <v>('TEST-B6-CASE029','관리자(ADMIN)','에이전트 설정 (정책)','부가기능','','','프로세스 실행, 레지스트리 수정, INI 파일 수정 기능','','','','0','6.0'),</v>
       </c>
-    </row>
-    <row r="132" spans="2:14" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O131" s="36" t="str">
+        <f t="shared" ref="O131:O171" si="7">B131</f>
+        <v>TEST-B6-CASE029</v>
+      </c>
+      <c r="P131" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q131" s="1" t="s">
+        <v>954</v>
+      </c>
+      <c r="R131" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="S131" s="36" t="str">
+        <f t="shared" ref="S131:S171" si="8">CONCATENATE("('",O131,"','",P131,"','",Q131,"','",R131,"'),")</f>
+        <v>('TEST-B6-CASE029','actionUrl','/selenium/6/default/bcase029/start.do','케이스029 URL'),</v>
+      </c>
+    </row>
+    <row r="132" spans="2:19" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B132" s="34" t="s">
         <v>602</v>
       </c>
@@ -10956,11 +15795,28 @@
         <v>461</v>
       </c>
       <c r="N132" s="17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>('TEST-B6-CASE030','관리자(ADMIN)','에이전트 설정 (정책)','문서중앙화 맵핑','','','문서중앙화 드라이브 맵핑 관련 정책 구성','','','','0','6.0'),</v>
       </c>
-    </row>
-    <row r="133" spans="2:14" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O132" s="36" t="str">
+        <f t="shared" si="7"/>
+        <v>TEST-B6-CASE030</v>
+      </c>
+      <c r="P132" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q132" s="1" t="s">
+        <v>955</v>
+      </c>
+      <c r="R132" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="S132" s="36" t="str">
+        <f t="shared" si="8"/>
+        <v>('TEST-B6-CASE030','actionUrl','/selenium/6/default/bcase030/start.do','케이스030 URL'),</v>
+      </c>
+    </row>
+    <row r="133" spans="2:19" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B133" s="34" t="s">
         <v>603</v>
       </c>
@@ -10992,11 +15848,28 @@
         <v>461</v>
       </c>
       <c r="N133" s="17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>('TEST-B6-CASE031','관리자(ADMIN)','탐색기 문서중앙화 맵핑 (정책)','문서함 설정','','','에이전트 탐색기에 표시할 문서함 종류 설정','','','','0','6.0'),</v>
       </c>
-    </row>
-    <row r="134" spans="2:14" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O133" s="36" t="str">
+        <f t="shared" si="7"/>
+        <v>TEST-B6-CASE031</v>
+      </c>
+      <c r="P133" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q133" s="1" t="s">
+        <v>956</v>
+      </c>
+      <c r="R133" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="S133" s="36" t="str">
+        <f t="shared" si="8"/>
+        <v>('TEST-B6-CASE031','actionUrl','/selenium/6/default/bcase031/start.do','케이스031 URL'),</v>
+      </c>
+    </row>
+    <row r="134" spans="2:19" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B134" s="34" t="s">
         <v>604</v>
       </c>
@@ -11028,11 +15901,28 @@
         <v>461</v>
       </c>
       <c r="N134" s="17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>('TEST-B6-CASE032','관리자(ADMIN)','탐색기 문서중앙화 맵핑 (정책)','컬럼, 컨텍스트','','','문서함 종류별 컬럼, 컨텍스트 설정','','','','0','6.0'),</v>
       </c>
-    </row>
-    <row r="135" spans="2:14" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O134" s="36" t="str">
+        <f t="shared" si="7"/>
+        <v>TEST-B6-CASE032</v>
+      </c>
+      <c r="P134" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q134" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="R134" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="S134" s="36" t="str">
+        <f t="shared" si="8"/>
+        <v>('TEST-B6-CASE032','actionUrl','/selenium/6/default/bcase032/start.do','케이스032 URL'),</v>
+      </c>
+    </row>
+    <row r="135" spans="2:19" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B135" s="34" t="s">
         <v>605</v>
       </c>
@@ -11064,11 +15954,28 @@
         <v>461</v>
       </c>
       <c r="N135" s="17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>('TEST-B6-CASE033','관리자(ADMIN)','탐색기 문서중앙화 맵핑 (정책)','탐색기 기능','','','Windows 탐색기 연동 (드라이브 맵핑 방식 - X: )','','','','0','6.0'),</v>
       </c>
-    </row>
-    <row r="136" spans="2:14" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O135" s="36" t="str">
+        <f t="shared" si="7"/>
+        <v>TEST-B6-CASE033</v>
+      </c>
+      <c r="P135" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q135" s="1" t="s">
+        <v>958</v>
+      </c>
+      <c r="R135" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="S135" s="36" t="str">
+        <f t="shared" si="8"/>
+        <v>('TEST-B6-CASE033','actionUrl','/selenium/6/default/bcase033/start.do','케이스033 URL'),</v>
+      </c>
+    </row>
+    <row r="136" spans="2:19" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B136" s="34" t="s">
         <v>606</v>
       </c>
@@ -11100,11 +16007,28 @@
         <v>461</v>
       </c>
       <c r="N136" s="17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>('TEST-B6-CASE034','관리자(ADMIN)','탐색기 문서중앙화 맵핑 (정책)','탐색기 기능','','','등록(체크인), 삭제, 열기(체크아웃), 검색, 공유, URL 공유, 압축(해제), 복사, 이동','','','','0','6.0'),</v>
       </c>
-    </row>
-    <row r="137" spans="2:14" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O136" s="36" t="str">
+        <f t="shared" si="7"/>
+        <v>TEST-B6-CASE034</v>
+      </c>
+      <c r="P136" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q136" s="1" t="s">
+        <v>959</v>
+      </c>
+      <c r="R136" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="S136" s="36" t="str">
+        <f t="shared" si="8"/>
+        <v>('TEST-B6-CASE034','actionUrl','/selenium/6/default/bcase034/start.do','케이스034 URL'),</v>
+      </c>
+    </row>
+    <row r="137" spans="2:19" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B137" s="34" t="s">
         <v>607</v>
       </c>
@@ -11136,11 +16060,28 @@
         <v>461</v>
       </c>
       <c r="N137" s="17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>('TEST-B6-CASE035','관리자(ADMIN)','탐색기 문서중앙화 맵핑 (정책)','탐색기 기능','','','속성(기본정보, 권한, 버전, 이력)','','','','0','6.0'),</v>
       </c>
-    </row>
-    <row r="138" spans="2:14" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O137" s="36" t="str">
+        <f t="shared" si="7"/>
+        <v>TEST-B6-CASE035</v>
+      </c>
+      <c r="P137" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q137" s="1" t="s">
+        <v>960</v>
+      </c>
+      <c r="R137" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="S137" s="36" t="str">
+        <f t="shared" si="8"/>
+        <v>('TEST-B6-CASE035','actionUrl','/selenium/6/default/bcase035/start.do','케이스035 URL'),</v>
+      </c>
+    </row>
+    <row r="138" spans="2:19" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B138" s="34" t="s">
         <v>608</v>
       </c>
@@ -11172,11 +16113,28 @@
         <v>461</v>
       </c>
       <c r="N138" s="17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>('TEST-B6-CASE036','관리자(ADMIN)','탐색기 문서중앙화 맵핑 (정책)','탐색기 기능','','','문서중앙화 드라이브에 대한 접근 프로세스 제어 (화이트/블랙 리스트)','','','','0','6.0'),</v>
       </c>
-    </row>
-    <row r="139" spans="2:14" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O138" s="36" t="str">
+        <f t="shared" si="7"/>
+        <v>TEST-B6-CASE036</v>
+      </c>
+      <c r="P138" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q138" s="1" t="s">
+        <v>961</v>
+      </c>
+      <c r="R138" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="S138" s="36" t="str">
+        <f t="shared" si="8"/>
+        <v>('TEST-B6-CASE036','actionUrl','/selenium/6/default/bcase036/start.do','케이스036 URL'),</v>
+      </c>
+    </row>
+    <row r="139" spans="2:19" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B139" s="34" t="s">
         <v>609</v>
       </c>
@@ -11208,11 +16166,28 @@
         <v>461</v>
       </c>
       <c r="N139" s="17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>('TEST-B6-CASE037','관리자(ADMIN)','저장 통제 (정책)','저장 통제','','','프로세스/확장자별 저장 통제, 쿼터 설정, 파일/폴더 복사 통제','','','','0','6.0'),</v>
       </c>
-    </row>
-    <row r="140" spans="2:14" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O139" s="36" t="str">
+        <f t="shared" si="7"/>
+        <v>TEST-B6-CASE037</v>
+      </c>
+      <c r="P139" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q139" s="1" t="s">
+        <v>962</v>
+      </c>
+      <c r="R139" s="1" t="s">
+        <v>771</v>
+      </c>
+      <c r="S139" s="36" t="str">
+        <f t="shared" si="8"/>
+        <v>('TEST-B6-CASE037','actionUrl','/selenium/6/default/bcase037/start.do','케이스037 URL'),</v>
+      </c>
+    </row>
+    <row r="140" spans="2:19" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B140" s="34" t="s">
         <v>610</v>
       </c>
@@ -11244,11 +16219,28 @@
         <v>461</v>
       </c>
       <c r="N140" s="17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>('TEST-B6-CASE038','관리자(ADMIN)','저장 통제 (정책)','문서 내용 보안','','','화면캡처, 내용 복사, 출력 제한','','','','0','6.0'),</v>
       </c>
-    </row>
-    <row r="141" spans="2:14" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O140" s="36" t="str">
+        <f t="shared" si="7"/>
+        <v>TEST-B6-CASE038</v>
+      </c>
+      <c r="P140" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q140" s="1" t="s">
+        <v>963</v>
+      </c>
+      <c r="R140" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="S140" s="36" t="str">
+        <f t="shared" si="8"/>
+        <v>('TEST-B6-CASE038','actionUrl','/selenium/6/default/bcase038/start.do','케이스038 URL'),</v>
+      </c>
+    </row>
+    <row r="141" spans="2:19" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B141" s="34" t="s">
         <v>611</v>
       </c>
@@ -11280,11 +16272,28 @@
         <v>461</v>
       </c>
       <c r="N141" s="17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>('TEST-B6-CASE039','관리자(ADMIN)','저장 통제 (정책)','저장 매체 제어','','','USB 저장소, CDRW, 플로피드라이브에 대한 읽기/쓰기 통제','','','','0','6.0'),</v>
       </c>
-    </row>
-    <row r="142" spans="2:14" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O141" s="36" t="str">
+        <f t="shared" si="7"/>
+        <v>TEST-B6-CASE039</v>
+      </c>
+      <c r="P141" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q141" s="1" t="s">
+        <v>964</v>
+      </c>
+      <c r="R141" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="S141" s="36" t="str">
+        <f t="shared" si="8"/>
+        <v>('TEST-B6-CASE039','actionUrl','/selenium/6/default/bcase039/start.do','케이스039 URL'),</v>
+      </c>
+    </row>
+    <row r="142" spans="2:19" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B142" s="34" t="s">
         <v>612</v>
       </c>
@@ -11316,11 +16325,28 @@
         <v>461</v>
       </c>
       <c r="N142" s="17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>('TEST-B6-CASE040','관리자(ADMIN)','저장 통제 (정책)','레지스트리 보호','','','지정한 레지스트리에 대한 보호 기능','','','','0','6.0'),</v>
       </c>
-    </row>
-    <row r="143" spans="2:14" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O142" s="36" t="str">
+        <f t="shared" si="7"/>
+        <v>TEST-B6-CASE040</v>
+      </c>
+      <c r="P142" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q142" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="R142" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="S142" s="36" t="str">
+        <f t="shared" si="8"/>
+        <v>('TEST-B6-CASE040','actionUrl','/selenium/6/default/bcase040/start.do','케이스040 URL'),</v>
+      </c>
+    </row>
+    <row r="143" spans="2:19" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B143" s="34" t="s">
         <v>613</v>
       </c>
@@ -11352,11 +16378,28 @@
         <v>461</v>
       </c>
       <c r="N143" s="17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>('TEST-B6-CASE041','관리자(ADMIN)','첨부 통제 (정책)','파일 첨부 통제(로컬)','','','프로세스/URL 별 파일 첨부 통제, Drag &amp; Drop 을 통한 첨부 제어','','','','0','6.0'),</v>
       </c>
-    </row>
-    <row r="144" spans="2:14" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O143" s="36" t="str">
+        <f t="shared" si="7"/>
+        <v>TEST-B6-CASE041</v>
+      </c>
+      <c r="P143" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q143" s="1" t="s">
+        <v>966</v>
+      </c>
+      <c r="R143" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="S143" s="36" t="str">
+        <f t="shared" si="8"/>
+        <v>('TEST-B6-CASE041','actionUrl','/selenium/6/default/bcase041/start.do','케이스041 URL'),</v>
+      </c>
+    </row>
+    <row r="144" spans="2:19" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B144" s="34" t="s">
         <v>614</v>
       </c>
@@ -11388,11 +16431,28 @@
         <v>461</v>
       </c>
       <c r="N144" s="17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>('TEST-B6-CASE042','관리자(ADMIN)','첨부 통제 (정책)','파일 첨부 통제(VF)','','','프로세스/URL 별 파일 첨부 통제, Drag &amp; Drop 을 통한 첨부 제어','','','','0','6.0'),</v>
       </c>
-    </row>
-    <row r="145" spans="2:14" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O144" s="36" t="str">
+        <f t="shared" si="7"/>
+        <v>TEST-B6-CASE042</v>
+      </c>
+      <c r="P144" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q144" s="1" t="s">
+        <v>967</v>
+      </c>
+      <c r="R144" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="S144" s="36" t="str">
+        <f t="shared" si="8"/>
+        <v>('TEST-B6-CASE042','actionUrl','/selenium/6/default/bcase042/start.do','케이스042 URL'),</v>
+      </c>
+    </row>
+    <row r="145" spans="2:19" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B145" s="34" t="s">
         <v>615</v>
       </c>
@@ -11424,11 +16484,28 @@
         <v>461</v>
       </c>
       <c r="N145" s="17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>('TEST-B6-CASE043','관리자(ADMIN)','실행 통제 (정책)','프로세스 실행 제한','','','프로세스명/경로/프로세스 내부 정보를 활용한 실행 통제','','','','0','6.0'),</v>
       </c>
-    </row>
-    <row r="146" spans="2:14" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O145" s="36" t="str">
+        <f t="shared" si="7"/>
+        <v>TEST-B6-CASE043</v>
+      </c>
+      <c r="P145" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q145" s="1" t="s">
+        <v>968</v>
+      </c>
+      <c r="R145" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="S145" s="36" t="str">
+        <f t="shared" si="8"/>
+        <v>('TEST-B6-CASE043','actionUrl','/selenium/6/default/bcase043/start.do','케이스043 URL'),</v>
+      </c>
+    </row>
+    <row r="146" spans="2:19" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B146" s="34" t="s">
         <v>616</v>
       </c>
@@ -11460,11 +16537,28 @@
         <v>461</v>
       </c>
       <c r="N146" s="17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>('TEST-B6-CASE044','관리자(ADMIN)','PnP 장치 통제 (정책)','PnP 장치 인식 통제','','','장치 정보를 활용한 장치 인식 차단/허용','','','','0','6.0'),</v>
       </c>
-    </row>
-    <row r="147" spans="2:14" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O146" s="36" t="str">
+        <f t="shared" si="7"/>
+        <v>TEST-B6-CASE044</v>
+      </c>
+      <c r="P146" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q146" s="1" t="s">
+        <v>969</v>
+      </c>
+      <c r="R146" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="S146" s="36" t="str">
+        <f t="shared" si="8"/>
+        <v>('TEST-B6-CASE044','actionUrl','/selenium/6/default/bcase044/start.do','케이스044 URL'),</v>
+      </c>
+    </row>
+    <row r="147" spans="2:19" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B147" s="34" t="s">
         <v>617</v>
       </c>
@@ -11496,11 +16590,28 @@
         <v>461</v>
       </c>
       <c r="N147" s="17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>('TEST-B6-CASE045','관리자(ADMIN)','에이전트 보호 (정책)','에이전트 자체 보호','','','악의적 사용자로 부터 에이전트 파일 및 실행 상태 보호','','','','0','6.0'),</v>
       </c>
-    </row>
-    <row r="148" spans="2:14" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O147" s="36" t="str">
+        <f t="shared" si="7"/>
+        <v>TEST-B6-CASE045</v>
+      </c>
+      <c r="P147" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q147" s="1" t="s">
+        <v>970</v>
+      </c>
+      <c r="R147" s="1" t="s">
+        <v>779</v>
+      </c>
+      <c r="S147" s="36" t="str">
+        <f t="shared" si="8"/>
+        <v>('TEST-B6-CASE045','actionUrl','/selenium/6/default/bcase045/start.do','케이스045 URL'),</v>
+      </c>
+    </row>
+    <row r="148" spans="2:19" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B148" s="34" t="s">
         <v>618</v>
       </c>
@@ -11532,11 +16643,28 @@
         <v>461</v>
       </c>
       <c r="N148" s="17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>('TEST-B6-CASE046','관리자(ADMIN)','사용자별 세부 정책 (정책)','사용자별 정책 조정','','','동일 정책으로 개인별로 다른 세부 설정(쿼터, 허용프로세스,허용URL 등) 가능 (운영 정책수 최적화용)','','','','0','6.0'),</v>
       </c>
-    </row>
-    <row r="149" spans="2:14" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O148" s="36" t="str">
+        <f t="shared" si="7"/>
+        <v>TEST-B6-CASE046</v>
+      </c>
+      <c r="P148" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q148" s="1" t="s">
+        <v>971</v>
+      </c>
+      <c r="R148" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="S148" s="36" t="str">
+        <f t="shared" si="8"/>
+        <v>('TEST-B6-CASE046','actionUrl','/selenium/6/default/bcase046/start.do','케이스046 URL'),</v>
+      </c>
+    </row>
+    <row r="149" spans="2:19" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B149" s="34" t="s">
         <v>619</v>
       </c>
@@ -11568,11 +16696,28 @@
         <v>461</v>
       </c>
       <c r="N149" s="17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>('TEST-B6-CASE047','관리자(ADMIN)','모바일 설정 (정책)','앱연결 설정','','','문서중앙화 앱을 통한 접속 허용과 접속 대상 문서함 정의, (고급 : 앱에서 사용할 로고 변경)','','','','0','6.0'),</v>
       </c>
-    </row>
-    <row r="150" spans="2:14" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O149" s="36" t="str">
+        <f t="shared" si="7"/>
+        <v>TEST-B6-CASE047</v>
+      </c>
+      <c r="P149" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q149" s="1" t="s">
+        <v>972</v>
+      </c>
+      <c r="R149" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="S149" s="36" t="str">
+        <f t="shared" si="8"/>
+        <v>('TEST-B6-CASE047','actionUrl','/selenium/6/default/bcase047/start.do','케이스047 URL'),</v>
+      </c>
+    </row>
+    <row r="150" spans="2:19" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B150" s="34" t="s">
         <v>620</v>
       </c>
@@ -11604,11 +16749,28 @@
         <v>461</v>
       </c>
       <c r="N150" s="17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>('TEST-B6-CASE048','관리자(ADMIN)','에이전트 정책 배포','정책 관리','','','신규 정책 생성/삭제/복사 등','','','','0','6.0'),</v>
       </c>
-    </row>
-    <row r="151" spans="2:14" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O150" s="36" t="str">
+        <f t="shared" si="7"/>
+        <v>TEST-B6-CASE048</v>
+      </c>
+      <c r="P150" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q150" s="1" t="s">
+        <v>973</v>
+      </c>
+      <c r="R150" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="S150" s="36" t="str">
+        <f t="shared" si="8"/>
+        <v>('TEST-B6-CASE048','actionUrl','/selenium/6/default/bcase048/start.do','케이스048 URL'),</v>
+      </c>
+    </row>
+    <row r="151" spans="2:19" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B151" s="34" t="s">
         <v>621</v>
       </c>
@@ -11640,11 +16802,28 @@
         <v>461</v>
       </c>
       <c r="N151" s="17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>('TEST-B6-CASE049','관리자(ADMIN)','에이전트 정책 배포','정책 배포(할당)','','','사용자/부서/PC정보를 활용한 정책 맵핑','','','','0','6.0'),</v>
       </c>
-    </row>
-    <row r="152" spans="2:14" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O151" s="36" t="str">
+        <f t="shared" si="7"/>
+        <v>TEST-B6-CASE049</v>
+      </c>
+      <c r="P151" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q151" s="1" t="s">
+        <v>974</v>
+      </c>
+      <c r="R151" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="S151" s="36" t="str">
+        <f t="shared" si="8"/>
+        <v>('TEST-B6-CASE049','actionUrl','/selenium/6/default/bcase049/start.do','케이스049 URL'),</v>
+      </c>
+    </row>
+    <row r="152" spans="2:19" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B152" s="34" t="s">
         <v>622</v>
       </c>
@@ -11676,11 +16855,28 @@
         <v>461</v>
       </c>
       <c r="N152" s="17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>('TEST-B6-CASE050','관리자(ADMIN)','에이전트 정책 배포','정책 스케쥴','','','스케쥴에 의한 정책 배포','','','','0','6.0'),</v>
       </c>
-    </row>
-    <row r="153" spans="2:14" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O152" s="36" t="str">
+        <f t="shared" si="7"/>
+        <v>TEST-B6-CASE050</v>
+      </c>
+      <c r="P152" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q152" s="1" t="s">
+        <v>975</v>
+      </c>
+      <c r="R152" s="1" t="s">
+        <v>784</v>
+      </c>
+      <c r="S152" s="36" t="str">
+        <f t="shared" si="8"/>
+        <v>('TEST-B6-CASE050','actionUrl','/selenium/6/default/bcase050/start.do','케이스050 URL'),</v>
+      </c>
+    </row>
+    <row r="153" spans="2:19" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B153" s="34" t="s">
         <v>623</v>
       </c>
@@ -11712,11 +16908,28 @@
         <v>461</v>
       </c>
       <c r="N153" s="17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>('TEST-B6-CASE051','관리자(ADMIN)','대시보드','관리자 대시보드','','','사용자, 그룹, 저장소, 세션, 작업현황, 문서 이벤트 등의 위젯을 표시하는 대시보드 지원','','','','0','6.0'),</v>
       </c>
-    </row>
-    <row r="154" spans="2:14" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O153" s="36" t="str">
+        <f t="shared" si="7"/>
+        <v>TEST-B6-CASE051</v>
+      </c>
+      <c r="P153" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q153" s="1" t="s">
+        <v>976</v>
+      </c>
+      <c r="R153" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="S153" s="36" t="str">
+        <f t="shared" si="8"/>
+        <v>('TEST-B6-CASE051','actionUrl','/selenium/6/default/bcase051/start.do','케이스051 URL'),</v>
+      </c>
+    </row>
+    <row r="154" spans="2:19" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B154" s="34" t="s">
         <v>624</v>
       </c>
@@ -11748,11 +16961,28 @@
         <v>461</v>
       </c>
       <c r="N154" s="17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>('TEST-B6-CASE052','관리자(ADMIN)','볼륨 관리','시스템 사용 볼륨 관리','','','XEDM 에서 사용 할 볼륨/저장소 관리','','','','0','6.0'),</v>
       </c>
-    </row>
-    <row r="155" spans="2:14" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O154" s="36" t="str">
+        <f t="shared" si="7"/>
+        <v>TEST-B6-CASE052</v>
+      </c>
+      <c r="P154" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q154" s="1" t="s">
+        <v>977</v>
+      </c>
+      <c r="R154" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="S154" s="36" t="str">
+        <f t="shared" si="8"/>
+        <v>('TEST-B6-CASE052','actionUrl','/selenium/6/default/bcase052/start.do','케이스052 URL'),</v>
+      </c>
+    </row>
+    <row r="155" spans="2:19" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B155" s="34" t="s">
         <v>625</v>
       </c>
@@ -11784,11 +17014,28 @@
         <v>461</v>
       </c>
       <c r="N155" s="17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>('TEST-B6-CASE053','관리자(ADMIN)','부가기능','워터마킹','','','문서 출력시 워터마킹 삽입','','','','0','6.0'),</v>
       </c>
-    </row>
-    <row r="156" spans="2:14" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O155" s="36" t="str">
+        <f t="shared" si="7"/>
+        <v>TEST-B6-CASE053</v>
+      </c>
+      <c r="P155" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q155" s="1" t="s">
+        <v>978</v>
+      </c>
+      <c r="R155" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="S155" s="36" t="str">
+        <f t="shared" si="8"/>
+        <v>('TEST-B6-CASE053','actionUrl','/selenium/6/default/bcase053/start.do','케이스053 URL'),</v>
+      </c>
+    </row>
+    <row r="156" spans="2:19" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B156" s="34" t="s">
         <v>626</v>
       </c>
@@ -11820,11 +17067,28 @@
         <v>461</v>
       </c>
       <c r="N156" s="17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>('TEST-B6-CASE054','관리자(ADMIN)','부가기능','자동암호화','','','','','','','0','6.0'),</v>
       </c>
-    </row>
-    <row r="157" spans="2:14" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O156" s="36" t="str">
+        <f t="shared" si="7"/>
+        <v>TEST-B6-CASE054</v>
+      </c>
+      <c r="P156" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q156" s="1" t="s">
+        <v>979</v>
+      </c>
+      <c r="R156" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="S156" s="36" t="str">
+        <f t="shared" si="8"/>
+        <v>('TEST-B6-CASE054','actionUrl','/selenium/6/default/bcase054/start.do','케이스054 URL'),</v>
+      </c>
+    </row>
+    <row r="157" spans="2:19" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B157" s="34" t="s">
         <v>627</v>
       </c>
@@ -11856,11 +17120,28 @@
         <v>461</v>
       </c>
       <c r="N157" s="17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>('TEST-B6-CASE055','관리자(ADMIN)','부가기능','복사/이동 통제','','','','','','','0','6.0'),</v>
       </c>
-    </row>
-    <row r="158" spans="2:14" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O157" s="36" t="str">
+        <f t="shared" si="7"/>
+        <v>TEST-B6-CASE055</v>
+      </c>
+      <c r="P157" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q157" s="1" t="s">
+        <v>980</v>
+      </c>
+      <c r="R157" s="1" t="s">
+        <v>789</v>
+      </c>
+      <c r="S157" s="36" t="str">
+        <f t="shared" si="8"/>
+        <v>('TEST-B6-CASE055','actionUrl','/selenium/6/default/bcase055/start.do','케이스055 URL'),</v>
+      </c>
+    </row>
+    <row r="158" spans="2:19" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B158" s="34" t="s">
         <v>628</v>
       </c>
@@ -11892,11 +17173,28 @@
         <v>461</v>
       </c>
       <c r="N158" s="17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>('TEST-B6-CASE056','관리자(ADMIN)','부가기능','완전삭제','','','','','','','0','6.0'),</v>
       </c>
-    </row>
-    <row r="159" spans="2:14" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O158" s="36" t="str">
+        <f t="shared" si="7"/>
+        <v>TEST-B6-CASE056</v>
+      </c>
+      <c r="P158" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q158" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="R158" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="S158" s="36" t="str">
+        <f t="shared" si="8"/>
+        <v>('TEST-B6-CASE056','actionUrl','/selenium/6/default/bcase056/start.do','케이스056 URL'),</v>
+      </c>
+    </row>
+    <row r="159" spans="2:19" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B159" s="34" t="s">
         <v>629</v>
       </c>
@@ -11928,11 +17226,28 @@
         <v>461</v>
       </c>
       <c r="N159" s="17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>('TEST-B6-CASE057','관리자(ADMIN)','부가기능','레지스트리 수정','','','','','','','0','6.0'),</v>
       </c>
-    </row>
-    <row r="160" spans="2:14" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O159" s="36" t="str">
+        <f t="shared" si="7"/>
+        <v>TEST-B6-CASE057</v>
+      </c>
+      <c r="P159" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q159" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="R159" s="1" t="s">
+        <v>791</v>
+      </c>
+      <c r="S159" s="36" t="str">
+        <f t="shared" si="8"/>
+        <v>('TEST-B6-CASE057','actionUrl','/selenium/6/default/bcase057/start.do','케이스057 URL'),</v>
+      </c>
+    </row>
+    <row r="160" spans="2:19" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B160" s="34" t="s">
         <v>630</v>
       </c>
@@ -11964,11 +17279,28 @@
         <v>461</v>
       </c>
       <c r="N160" s="17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>('TEST-B6-CASE058','관리자(ADMIN)','부가기능','윈도우 컨텍스트 메뉴제어','','','','','','','0','6.0'),</v>
       </c>
-    </row>
-    <row r="161" spans="2:14" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O160" s="36" t="str">
+        <f t="shared" si="7"/>
+        <v>TEST-B6-CASE058</v>
+      </c>
+      <c r="P160" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q160" s="1" t="s">
+        <v>983</v>
+      </c>
+      <c r="R160" s="1" t="s">
+        <v>792</v>
+      </c>
+      <c r="S160" s="36" t="str">
+        <f t="shared" si="8"/>
+        <v>('TEST-B6-CASE058','actionUrl','/selenium/6/default/bcase058/start.do','케이스058 URL'),</v>
+      </c>
+    </row>
+    <row r="161" spans="2:19" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B161" s="34" t="s">
         <v>631</v>
       </c>
@@ -12000,11 +17332,28 @@
         <v>461</v>
       </c>
       <c r="N161" s="17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>('TEST-B6-CASE059','관리자(ADMIN)','로그/현황','로그매니저','','','사용자 이력에대하여 로그 관리','','','','0','6.0'),</v>
       </c>
-    </row>
-    <row r="162" spans="2:14" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O161" s="36" t="str">
+        <f t="shared" si="7"/>
+        <v>TEST-B6-CASE059</v>
+      </c>
+      <c r="P161" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q161" s="1" t="s">
+        <v>984</v>
+      </c>
+      <c r="R161" s="1" t="s">
+        <v>793</v>
+      </c>
+      <c r="S161" s="36" t="str">
+        <f t="shared" si="8"/>
+        <v>('TEST-B6-CASE059','actionUrl','/selenium/6/default/bcase059/start.do','케이스059 URL'),</v>
+      </c>
+    </row>
+    <row r="162" spans="2:19" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B162" s="34" t="s">
         <v>632</v>
       </c>
@@ -12036,11 +17385,28 @@
         <v>461</v>
       </c>
       <c r="N162" s="17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>('TEST-B6-CASE060','관리자(ADMIN)','에이전트 패치 관리','등록/배포','','','기 설치된 에이전트 대상 패치, 업그레이드에 관한 등록 및 관리','','','','0','6.0'),</v>
       </c>
-    </row>
-    <row r="163" spans="2:14" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O162" s="36" t="str">
+        <f t="shared" si="7"/>
+        <v>TEST-B6-CASE060</v>
+      </c>
+      <c r="P162" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q162" s="1" t="s">
+        <v>985</v>
+      </c>
+      <c r="R162" s="1" t="s">
+        <v>794</v>
+      </c>
+      <c r="S162" s="36" t="str">
+        <f t="shared" si="8"/>
+        <v>('TEST-B6-CASE060','actionUrl','/selenium/6/default/bcase060/start.do','케이스060 URL'),</v>
+      </c>
+    </row>
+    <row r="163" spans="2:19" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B163" s="34" t="s">
         <v>633</v>
       </c>
@@ -12072,11 +17438,28 @@
         <v>461</v>
       </c>
       <c r="N163" s="17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>('TEST-B6-CASE061','관리자(ADMIN)','저장소','저장소 통계','','','사용량/남은 용량을 통계적으로 조회 가능','','','','0','6.0'),</v>
       </c>
-    </row>
-    <row r="164" spans="2:14" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O163" s="36" t="str">
+        <f t="shared" si="7"/>
+        <v>TEST-B6-CASE061</v>
+      </c>
+      <c r="P163" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q163" s="1" t="s">
+        <v>986</v>
+      </c>
+      <c r="R163" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="S163" s="36" t="str">
+        <f t="shared" si="8"/>
+        <v>('TEST-B6-CASE061','actionUrl','/selenium/6/default/bcase061/start.do','케이스061 URL'),</v>
+      </c>
+    </row>
+    <row r="164" spans="2:19" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B164" s="34" t="s">
         <v>634</v>
       </c>
@@ -12108,11 +17491,28 @@
         <v>461</v>
       </c>
       <c r="N164" s="17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>('TEST-B6-CASE062','관리자(ADMIN)','사용자별','사용자별 통계','','','각각의 사용자가 진행하였던 모든 작업 정보들을 통계적으로 확인 가능','','','','0','6.0'),</v>
       </c>
-    </row>
-    <row r="165" spans="2:14" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O164" s="36" t="str">
+        <f t="shared" si="7"/>
+        <v>TEST-B6-CASE062</v>
+      </c>
+      <c r="P164" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q164" s="1" t="s">
+        <v>987</v>
+      </c>
+      <c r="R164" s="1" t="s">
+        <v>796</v>
+      </c>
+      <c r="S164" s="36" t="str">
+        <f t="shared" si="8"/>
+        <v>('TEST-B6-CASE062','actionUrl','/selenium/6/default/bcase062/start.do','케이스062 URL'),</v>
+      </c>
+    </row>
+    <row r="165" spans="2:19" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B165" s="34" t="s">
         <v>635</v>
       </c>
@@ -12144,11 +17544,28 @@
         <v>461</v>
       </c>
       <c r="N165" s="17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>('TEST-B6-CASE063','관리자(ADMIN)','에어전트 현황','에이전트별 현황','','','로그인 및 설치 현황 조회 가능','','','','0','6.0'),</v>
       </c>
-    </row>
-    <row r="166" spans="2:14" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O165" s="36" t="str">
+        <f t="shared" si="7"/>
+        <v>TEST-B6-CASE063</v>
+      </c>
+      <c r="P165" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q165" s="1" t="s">
+        <v>988</v>
+      </c>
+      <c r="R165" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="S165" s="36" t="str">
+        <f t="shared" si="8"/>
+        <v>('TEST-B6-CASE063','actionUrl','/selenium/6/default/bcase063/start.do','케이스063 URL'),</v>
+      </c>
+    </row>
+    <row r="166" spans="2:19" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B166" s="34" t="s">
         <v>636</v>
       </c>
@@ -12180,11 +17597,28 @@
         <v>461</v>
       </c>
       <c r="N166" s="17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>('TEST-B6-CASE064','관리자(ADMIN)','부서별','부서별 통계','','','각각의 부서가 진행하였던 모든 작업 정보들을 통계적으로 확인 가능','','','','0','6.0'),</v>
       </c>
-    </row>
-    <row r="167" spans="2:14" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O166" s="36" t="str">
+        <f t="shared" si="7"/>
+        <v>TEST-B6-CASE064</v>
+      </c>
+      <c r="P166" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q166" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="R166" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="S166" s="36" t="str">
+        <f t="shared" si="8"/>
+        <v>('TEST-B6-CASE064','actionUrl','/selenium/6/default/bcase064/start.do','케이스064 URL'),</v>
+      </c>
+    </row>
+    <row r="167" spans="2:19" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B167" s="34" t="s">
         <v>637</v>
       </c>
@@ -12216,11 +17650,28 @@
         <v>461</v>
       </c>
       <c r="N167" s="17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>('TEST-B6-CASE065','관리자(ADMIN)','문서유형별','문서유형별 통계','','','각각의 문서유형들에 대한 작업 정보들을 통계적으로 확인 가능 (이미지, 동영상, 문서 이런거 아님)','','','','0','6.0'),</v>
       </c>
-    </row>
-    <row r="168" spans="2:14" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O167" s="36" t="str">
+        <f t="shared" si="7"/>
+        <v>TEST-B6-CASE065</v>
+      </c>
+      <c r="P167" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q167" s="1" t="s">
+        <v>990</v>
+      </c>
+      <c r="R167" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="S167" s="36" t="str">
+        <f t="shared" si="8"/>
+        <v>('TEST-B6-CASE065','actionUrl','/selenium/6/default/bcase065/start.do','케이스065 URL'),</v>
+      </c>
+    </row>
+    <row r="168" spans="2:19" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B168" s="34" t="s">
         <v>638</v>
       </c>
@@ -12252,11 +17703,28 @@
         <v>461</v>
       </c>
       <c r="N168" s="17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>('TEST-B6-CASE066','관리자(ADMIN)','기간별','기간별 통계','','','특정 기간에 대한 작업 정보들을 통계적으로 확인 가능','','','','0','6.0'),</v>
       </c>
-    </row>
-    <row r="169" spans="2:14" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O168" s="36" t="str">
+        <f t="shared" si="7"/>
+        <v>TEST-B6-CASE066</v>
+      </c>
+      <c r="P168" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q168" s="1" t="s">
+        <v>991</v>
+      </c>
+      <c r="R168" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="S168" s="36" t="str">
+        <f t="shared" si="8"/>
+        <v>('TEST-B6-CASE066','actionUrl','/selenium/6/default/bcase066/start.do','케이스066 URL'),</v>
+      </c>
+    </row>
+    <row r="169" spans="2:19" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B169" s="34" t="s">
         <v>639</v>
       </c>
@@ -12288,11 +17756,28 @@
         <v>461</v>
       </c>
       <c r="N169" s="17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>('TEST-B6-CASE067','관리자(ADMIN)','문서함별','문서함별 통계','','','각각의 문서함들에 대한 작업 정보들을 통계적으로 확인 가능','','','','0','6.0'),</v>
       </c>
-    </row>
-    <row r="170" spans="2:14" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O169" s="36" t="str">
+        <f t="shared" si="7"/>
+        <v>TEST-B6-CASE067</v>
+      </c>
+      <c r="P169" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q169" s="1" t="s">
+        <v>992</v>
+      </c>
+      <c r="R169" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="S169" s="36" t="str">
+        <f t="shared" si="8"/>
+        <v>('TEST-B6-CASE067','actionUrl','/selenium/6/default/bcase067/start.do','케이스067 URL'),</v>
+      </c>
+    </row>
+    <row r="170" spans="2:19" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B170" s="34" t="s">
         <v>640</v>
       </c>
@@ -12324,11 +17809,28 @@
         <v>461</v>
       </c>
       <c r="N170" s="17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>('TEST-B6-CASE068','관리자(ADMIN)','문서함별','검색','','','조건에 맞게 검색하여 특정 자료 추출 가능','','','','0','6.0'),</v>
       </c>
-    </row>
-    <row r="171" spans="2:14" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O170" s="36" t="str">
+        <f t="shared" si="7"/>
+        <v>TEST-B6-CASE068</v>
+      </c>
+      <c r="P170" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q170" s="1" t="s">
+        <v>993</v>
+      </c>
+      <c r="R170" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="S170" s="36" t="str">
+        <f t="shared" si="8"/>
+        <v>('TEST-B6-CASE068','actionUrl','/selenium/6/default/bcase068/start.do','케이스068 URL'),</v>
+      </c>
+    </row>
+    <row r="171" spans="2:19" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B171" s="34" t="s">
         <v>641</v>
       </c>
@@ -12360,8 +17862,25 @@
         <v>461</v>
       </c>
       <c r="N171" s="17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>('TEST-B6-CASE069','관리자(ADMIN)','문서함별','엑셀','','','엑셀로 해당 자료 추출 가능','','','','0','6.0'),</v>
+      </c>
+      <c r="O171" s="36" t="str">
+        <f t="shared" si="7"/>
+        <v>TEST-B6-CASE069</v>
+      </c>
+      <c r="P171" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q171" s="1" t="s">
+        <v>994</v>
+      </c>
+      <c r="R171" s="1" t="s">
+        <v>803</v>
+      </c>
+      <c r="S171" s="36" t="str">
+        <f t="shared" si="8"/>
+        <v>('TEST-B6-CASE069','actionUrl','/selenium/6/default/bcase069/start.do','케이스069 URL'),</v>
       </c>
     </row>
   </sheetData>
